--- a/Results/Results_ankle_l3o.xlsx
+++ b/Results/Results_ankle_l3o.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="851">
   <si>
     <t>selected_batch</t>
   </si>
@@ -82,246 +82,2971 @@
     <t>0_11</t>
   </si>
   <si>
-    <t>[302. 329. 314.]</t>
-  </si>
-  <si>
-    <t>[308. 309. 342.]</t>
-  </si>
-  <si>
-    <t>[333. 348. 328.]</t>
-  </si>
-  <si>
-    <t>[346. 320. 304.]</t>
-  </si>
-  <si>
-    <t>[313. 322. 327.]</t>
-  </si>
-  <si>
-    <t>[332. 319. 324.]</t>
-  </si>
-  <si>
-    <t>[312. 325. 331.]</t>
-  </si>
-  <si>
-    <t>[340. 301. 310.]</t>
-  </si>
-  <si>
-    <t>[323. 317. 307.]</t>
-  </si>
-  <si>
-    <t>[321. 335. 344.]</t>
-  </si>
-  <si>
-    <t>[330. 318. 306.]</t>
-  </si>
-  <si>
-    <t>[313. 344. 333. 346. 328. 307.]</t>
-  </si>
-  <si>
-    <t>[346. 302. 327. 315. 300. 318.]</t>
-  </si>
-  <si>
-    <t>[317. 325. 310. 342. 313. 321.]</t>
-  </si>
-  <si>
-    <t>[306. 335. 302. 319. 301. 333.]</t>
-  </si>
-  <si>
-    <t>[323. 324. 312. 340. 308. 309.]</t>
-  </si>
-  <si>
-    <t>[329. 330. 318. 327. 301. 300.]</t>
-  </si>
-  <si>
-    <t>[302. 323. 327. 322. 318. 301.]</t>
-  </si>
-  <si>
-    <t>[325. 314. 324. 327. 346. 306.]</t>
-  </si>
-  <si>
-    <t>[308. 320. 310. 328. 331. 304.]</t>
-  </si>
-  <si>
-    <t>[314. 313. 317. 327. 310. 320.]</t>
-  </si>
-  <si>
-    <t>[310. 323. 332. 319. 308. 301.]</t>
-  </si>
-  <si>
-    <t>[0.7299819588661194, 0.7936484217643738, 0.8130643963813782, 0.8223961591720581, 0.8327814340591431, 0.8499398231506348, 0.8556592464447021, 0.8618302345275879, 0.8686032295227051, 0.880493700504303, 0.8813967704772949, 0.8938892483711243, 0.898404598236084, 0.8999096751213074, 0.9068332314491272, 0.9092414379119873, 0.9145093560218811, 0.9245936274528503, 0.92323899269104, 0.9318181872367859, 0.9318181872367859, 0.9364840388298035, 0.9355809688568115, 0.9413003921508789, 0.9384406805038452, 0.9425045251846313, 0.9494280815124512, 0.9464178085327148, 0.9578567147254944, 0.9584587812423706, 0.950481653213501, 0.9557495713233948, 0.9619205594062805, 0.9626730680465698, 0.9634256362915039, 0.9628236293792725, 0.9637266993522644, 0.9643287062644958, 0.9665864109992981, 0.9664359092712402, 0.968392550945282, 0.9709512591362]</t>
-  </si>
-  <si>
-    <t>[0.7153366208076477, 0.780745267868042, 0.8004158139228821, 0.8096913695335388, 0.8224852085113525, 0.8264833092689514, 0.8491923809051514, 0.8474332094192505, 0.862466037273407, 0.8672637343406677, 0.8695026636123657, 0.8733407855033875, 0.8899728059768677, 0.8925315737724304, 0.896849513053894, 0.9014872908592224, 0.9122021198272705, 0.9131616950035095, 0.9203582406044006, 0.918279230594635, 0.9200384020805359, 0.9341116547584534, 0.9309131503105164]</t>
-  </si>
-  <si>
-    <t>[0.7363525629043579, 0.7917047739028931, 0.8122903108596802, 0.8273863792419434, 0.8307411074638367, 0.8493443131446838, 0.8560536503791809, 0.873894453048706, 0.873132050037384, 0.8813662528991699, 0.8822811841964722, 0.8937175869941711, 0.9024092555046082, 0.9068313241004944, 0.909881055355072, 0.9225373864173889, 0.9226898550987244, 0.9229947924613953, 0.9306191205978394, 0.9332113265991211, 0.934431254863739, 0.9388533234596252, 0.9411405920982361]</t>
-  </si>
-  <si>
-    <t>[0.7547169923782349, 0.795516848564148, 0.8145460486412048, 0.826802134513855, 0.8447024822235107, 0.8534107208251953, 0.8687308430671692, 0.8753426671028137, 0.8809869289398193, 0.8900177478790283, 0.8958232402801514, 0.8990485668182373, 0.9085631370544434, 0.9213030338287354, 0.9198516607284546, 0.9246895909309387, 0.925334632396698, 0.9353330135345459, 0.9358168244361877, 0.9329140186309814]</t>
-  </si>
-  <si>
-    <t>[0.7291572690010071, 0.7869911193847656, 0.7976565957069397, 0.8050172924995422, 0.8180862069129944, 0.8385158777236938, 0.8389664888381958, 0.8529367446899414, 0.8500826358795166, 0.8599969744682312, 0.8688598275184631, 0.8706624507904053, 0.8762205243110657, 0.8759200572967529, 0.8939462304115295, 0.8849331736564636, 0.8930448889732361, 0.8996545076370239, 0.8766711950302124, 0.8968003392219543, 0.9095688462257385, 0.9013068675994873, 0.9107705950737, 0.9052125811576843, 0.9137749671936035, 0.9166291356086731, 0.9296980500221252, 0.9333032965660095, 0.9188823699951172, 0.9145260453224182, 0.925642192363739, 0.941264808177948, 0.9357067942619324, 0.936758279800415, 0.9492263793945312, 0.9319513440132141]</t>
-  </si>
-  <si>
-    <t>[0.7083726525306702, 0.773685872554779, 0.7905256748199463, 0.8108278512954712, 0.8246773481369019, 0.8297135829925537, 0.8410450220108032, 0.8484418988227844, 0.8605602979660034, 0.8671702742576599, 0.869530975818634, 0.8792886137962341, 0.892036497592926, 0.8959710597991943, 0.8958136439323425, 0.9024236798286438]</t>
-  </si>
-  <si>
-    <t>[0.7379581928253174, 0.7850651144981384, 0.8058164119720459, 0.8283853530883789, 0.835504412651062, 0.8473190069198608, 0.8556498289108276, 0.8668585419654846, 0.8686761856079102, 0.8798848986625671, 0.8803392648696899, 0.8936685919761658, 0.8947288990020752, 0.9041199684143066, 0.910027265548706, 0.9200242161750793]</t>
-  </si>
-  <si>
-    <t>[0.7662976384162903, 0.8071955442428589, 0.8201106786727905, 0.83748459815979, 0.8497847318649292, 0.8545510172843933, 0.8679274320602417, 0.8780750036239624, 0.8846863508224487, 0.8891451358795166, 0.8940652012825012, 0.9055965542793274, 0.9094403386116028, 0.9168204069137573, 0.9145141243934631, 0.929735541343689, 0.9295818209648132, 0.9343481063842773, 0.9351168274879456, 0.9423431754112244]</t>
-  </si>
-  <si>
-    <t>[0.7450193166732788, 0.7888802886009216, 0.8052509427070618, 0.8137452006340027, 0.8271814584732056, 0.8325868844985962, 0.8435521125793457, 0.8512741327285767, 0.8576061725616455, 0.869652509689331, 0.8769112229347229, 0.8914285898208618, 0.8909652233123779, 0.8957529067993164, 0.9030115604400635, 0.9059459567070007, 0.9138224124908447, 0.9198455810546875, 0.9246332049369812, 0.9317374229431152, 0.9363706707954407]</t>
-  </si>
-  <si>
-    <t>[0.7565664052963257, 0.7986794114112854, 0.8186353445053101, 0.8315480351448059, 0.845194399356842, 0.8535583019256592, 0.8695524334907532, 0.8789435029029846, 0.8842259645462036, 0.888041079044342, 0.898752748966217, 0.9077035784721375, 0.9027146100997925, 0.9170946478843689, 0.9206162691116333, 0.9297138452529907]</t>
-  </si>
-  <si>
-    <t>[0.7203637361526489, 0.7731406092643738, 0.7976616024971008, 0.8173108100891113, 0.8275414109230042, 0.8426437377929688, 0.8504384756088257, 0.8598570823669434, 0.8673270344734192, 0.8730106949806213, 0.8851900100708008, 0.8843780159950256, 0.8947710394859314, 0.9019162058830261, 0.9165313243865967, 0.9158817529678345, 0.9205911159515381]</t>
-  </si>
-  <si>
-    <t>[0.7606250047683716, 0.7906249761581421, 0.7918750047683716, 0.7950000166893005, 0.7768750190734863, 0.7912499904632568, 0.7981250286102295, 0.7956249713897705, 0.8006250262260437, 0.7987499833106995, 0.7900000214576721, 0.8018749952316284, 0.7881249785423279, 0.7875000238418579, 0.7906249761581421, 0.8068749904632568, 0.7987499833106995, 0.8006250262260437, 0.7618749737739563, 0.8025000095367432, 0.8081250190734863, 0.7956249713897705, 0.7900000214576721, 0.7837499976158142, 0.8168749809265137, 0.8106250166893005, 0.8231250047683716, 0.7981250286102295, 0.8056250214576721, 0.7956249713897705, 0.8143749833106995, 0.8112499713897705, 0.8081250190734863, 0.7981250286102295, 0.7918750047683716, 0.8075000047683716, 0.8018749952316284, 0.8031250238418579, 0.8131250143051147, 0.7950000166893005, 0.7749999761581421, 0.7893750071525574]</t>
-  </si>
-  <si>
-    <t>[0.787031888961792, 0.7937394976615906, 0.7859139442443848, 0.7836780548095703, 0.7898266911506653, 0.7847959995269775, 0.7942984700202942, 0.7965343594551086, 0.7635550498962402, 0.7635550498962402, 0.76970374584198, 0.7529345750808716, 0.7691447734832764, 0.7786473035812378, 0.7775293588638306, 0.7730575799942017, 0.7719396352767944, 0.7518166303634644, 0.795975387096405, 0.7786473035812378, 0.7859139442443848, 0.7708216905593872, 0.7680268287658691]</t>
-  </si>
-  <si>
-    <t>[0.7605156302452087, 0.7672998905181885, 0.7727272510528564, 0.7801899313926697, 0.744911789894104, 0.7829036712646484, 0.7700135707855225, 0.7917231917381287, 0.7503392100334167, 0.7639077305793762, 0.7795115113258362, 0.7829036712646484, 0.767978310585022, 0.7605156302452087, 0.7625508904457092, 0.7503392100334167, 0.7571234703063965, 0.7503392100334167, 0.7727272510528564, 0.7727272510528564, 0.756445050239563, 0.7455902099609375, 0.7510176301002502]</t>
-  </si>
-  <si>
-    <t>[0.7425348162651062, 0.7478433847427368, 0.7106834650039673, 0.714664876461029, 0.7485069632530212, 0.7392169833183289, 0.7239548563957214, 0.7153284549713135, 0.7040477991104126, 0.7153284549713135, 0.7193098664283752, 0.7140012979507446, 0.7259455919265747, 0.7120106220245361, 0.7027206420898438, 0.7113470435142517, 0.7140012979507446, 0.7013934850692749, 0.7305905818939209, 0.729263424873352]</t>
-  </si>
-  <si>
-    <t>[0.7869101762771606, 0.7694063782691956, 0.7876712083816528, 0.7625570893287659, 0.77625572681427, 0.7808219194412231, 0.7557077407836914, 0.7625570893287659, 0.788432240486145, 0.7450532913208008, 0.7914764285087585, 0.7640791535377502, 0.7496194839477539, 0.7754946947097778, 0.7846270799636841, 0.7625570893287659, 0.77625572681427, 0.7937595248222351, 0.7625570893287659, 0.7595129609107971, 0.7945205569267273, 0.767123281955719, 0.7602739930152893, 0.7770167589187622, 0.7701674103736877, 0.7792998552322388, 0.7785388231277466, 0.7640791535377502, 0.7602739930152893, 0.7739726305007935, 0.7754946947097778, 0.7716894745826721, 0.7519025802612305, 0.7633181214332581, 0.7701674103736877, 0.767123281955719]</t>
-  </si>
-  <si>
-    <t>[0.8310810923576355, 0.8126535415649414, 0.7985258102416992, 0.8132678270339966, 0.7813267707824707, 0.7905405163764954, 0.7966830730438232, 0.7874692678451538, 0.7862407565116882, 0.7942260503768921, 0.7678132653236389, 0.746314525604248, 0.7800982594490051, 0.8058968186378479, 0.8083537817001343, 0.7905405163764954]</t>
-  </si>
-  <si>
-    <t>[0.7619335055351257, 0.7111782431602478, 0.7075528502464294, 0.6924471259117126, 0.7202416658401489, 0.7250755429267883, 0.7510573863983154, 0.7329305410385132, 0.7075528502464294, 0.679154098033905, 0.7498489618301392, 0.7419939637184143, 0.739577054977417, 0.6574018001556396, 0.6972809433937073, 0.6990936398506165]</t>
-  </si>
-  <si>
-    <t>[0.7215631604194641, 0.7348220348358154, 0.7250523567199707, 0.7480809688568115, 0.7599442005157471, 0.7501744627952576, 0.7459874153137207, 0.7592463493347168, 0.7404047250747681, 0.7522679567337036, 0.7411025762557983, 0.7411025762557983, 0.7424982786178589, 0.7522679567337036, 0.7292393445968628, 0.748778760433197, 0.7438939213752747, 0.7515701055526733, 0.7306350469589233, 0.7585484981536865]</t>
-  </si>
-  <si>
-    <t>[0.7992916107177734, 0.798701286315918, 0.8116883039474487, 0.797520637512207, 0.8152302503585815, 0.820543110370636, 0.8158205151557922, 0.8116883039474487, 0.8110979795455933, 0.8022432327270508, 0.8181818127632141, 0.762691855430603, 0.8051947951316833, 0.8075560927391052, 0.8187721371650696, 0.8004722595214844, 0.8087367415428162, 0.8087367415428162, 0.7992916107177734, 0.798701286315918, 0.8069657683372498]</t>
-  </si>
-  <si>
-    <t>[0.7058823704719543, 0.6999255418777466, 0.6932241320610046, 0.6917349100112915, 0.6917349100112915, 0.6947133541107178, 0.7021593451499939, 0.6835442781448364, 0.6984363198280334, 0.6746090650558472, 0.7014147639274597, 0.6962025165557861, 0.6917349100112915, 0.7021593451499939, 0.6850335001945496, 0.6790766716003418]</t>
-  </si>
-  <si>
-    <t>[0.7748041749000549, 0.7885117530822754, 0.7480417490005493, 0.7552219033241272, 0.7284595370292664, 0.772193193435669, 0.7584856152534485, 0.7402088642120361, 0.7519582509994507, 0.7545691728591919, 0.7343342304229736, 0.7395561337471008, 0.7637075781822205, 0.7597911357879639, 0.7571801543235779, 0.7552219033241272, 0.7715404629707336]</t>
-  </si>
-  <si>
-    <t>[[166   7   7]
- [ 79  31  28]
- [ 20  57 117]]</t>
-  </si>
-  <si>
-    <t>[[319  35  13]
- [ 19  31  22]
- [ 28  41 206]]</t>
-  </si>
-  <si>
-    <t>[[417  13  11]
- [ 48  46  26]
- [ 22  20 121]]</t>
-  </si>
-  <si>
-    <t>[[543  32  34]
- [ 40  46  68]
- [ 45  27 213]]</t>
-  </si>
-  <si>
-    <t>[[427  46  12]
- [ 43  41  34]
- [ 17  17 148]]</t>
-  </si>
-  <si>
-    <t>[[390  17   4]
- [ 20  32  27]
- [ 34  31 219]]</t>
-  </si>
-  <si>
-    <t>[[277  19  10]
- [ 11  42  17]
- [ 16  16  91]]</t>
-  </si>
-  <si>
-    <t>[[421  30  20]
- [ 42  55  53]
- [ 31  75  92]]</t>
-  </si>
-  <si>
-    <t>[[237   2   3]
- [ 36  23  14]
- [ 91  46 135]]</t>
-  </si>
-  <si>
-    <t>[[314   6   9]
- [ 27  39   7]
- [ 22  55 119]]</t>
-  </si>
-  <si>
-    <t>[[652  18  14]
- [ 84  37  24]
- [ 17  34 186]]</t>
+    <t>0_12</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>1_3</t>
+  </si>
+  <si>
+    <t>1_4</t>
+  </si>
+  <si>
+    <t>1_5</t>
+  </si>
+  <si>
+    <t>1_6</t>
+  </si>
+  <si>
+    <t>1_7</t>
+  </si>
+  <si>
+    <t>1_8</t>
+  </si>
+  <si>
+    <t>1_9</t>
+  </si>
+  <si>
+    <t>1_10</t>
+  </si>
+  <si>
+    <t>1_11</t>
+  </si>
+  <si>
+    <t>1_12</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>2_3</t>
+  </si>
+  <si>
+    <t>2_4</t>
+  </si>
+  <si>
+    <t>2_5</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>2_7</t>
+  </si>
+  <si>
+    <t>2_8</t>
+  </si>
+  <si>
+    <t>2_9</t>
+  </si>
+  <si>
+    <t>2_10</t>
+  </si>
+  <si>
+    <t>2_11</t>
+  </si>
+  <si>
+    <t>2_12</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>3_3</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>3_5</t>
+  </si>
+  <si>
+    <t>3_6</t>
+  </si>
+  <si>
+    <t>3_7</t>
+  </si>
+  <si>
+    <t>3_8</t>
+  </si>
+  <si>
+    <t>3_9</t>
+  </si>
+  <si>
+    <t>3_10</t>
+  </si>
+  <si>
+    <t>3_11</t>
+  </si>
+  <si>
+    <t>3_12</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>4_3</t>
+  </si>
+  <si>
+    <t>4_4</t>
+  </si>
+  <si>
+    <t>4_5</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>4_7</t>
+  </si>
+  <si>
+    <t>4_8</t>
+  </si>
+  <si>
+    <t>4_9</t>
+  </si>
+  <si>
+    <t>4_10</t>
+  </si>
+  <si>
+    <t>4_11</t>
+  </si>
+  <si>
+    <t>4_12</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>5_3</t>
+  </si>
+  <si>
+    <t>5_4</t>
+  </si>
+  <si>
+    <t>5_5</t>
+  </si>
+  <si>
+    <t>5_6</t>
+  </si>
+  <si>
+    <t>5_7</t>
+  </si>
+  <si>
+    <t>5_8</t>
+  </si>
+  <si>
+    <t>5_9</t>
+  </si>
+  <si>
+    <t>5_10</t>
+  </si>
+  <si>
+    <t>5_11</t>
+  </si>
+  <si>
+    <t>5_12</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>6_3</t>
+  </si>
+  <si>
+    <t>6_4</t>
+  </si>
+  <si>
+    <t>6_5</t>
+  </si>
+  <si>
+    <t>6_6</t>
+  </si>
+  <si>
+    <t>6_7</t>
+  </si>
+  <si>
+    <t>6_8</t>
+  </si>
+  <si>
+    <t>6_9</t>
+  </si>
+  <si>
+    <t>6_10</t>
+  </si>
+  <si>
+    <t>6_11</t>
+  </si>
+  <si>
+    <t>6_12</t>
+  </si>
+  <si>
+    <t>7_1</t>
+  </si>
+  <si>
+    <t>7_2</t>
+  </si>
+  <si>
+    <t>7_3</t>
+  </si>
+  <si>
+    <t>7_4</t>
+  </si>
+  <si>
+    <t>7_5</t>
+  </si>
+  <si>
+    <t>7_6</t>
+  </si>
+  <si>
+    <t>7_7</t>
+  </si>
+  <si>
+    <t>7_8</t>
+  </si>
+  <si>
+    <t>7_9</t>
+  </si>
+  <si>
+    <t>7_10</t>
+  </si>
+  <si>
+    <t>7_11</t>
+  </si>
+  <si>
+    <t>7_12</t>
+  </si>
+  <si>
+    <t>8_1</t>
+  </si>
+  <si>
+    <t>8_2</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>8_5</t>
+  </si>
+  <si>
+    <t>8_6</t>
+  </si>
+  <si>
+    <t>8_7</t>
+  </si>
+  <si>
+    <t>8_8</t>
+  </si>
+  <si>
+    <t>8_9</t>
+  </si>
+  <si>
+    <t>8_10</t>
+  </si>
+  <si>
+    <t>8_11</t>
+  </si>
+  <si>
+    <t>8_12</t>
+  </si>
+  <si>
+    <t>9_1</t>
+  </si>
+  <si>
+    <t>9_2</t>
+  </si>
+  <si>
+    <t>9_3</t>
+  </si>
+  <si>
+    <t>9_4</t>
+  </si>
+  <si>
+    <t>9_5</t>
+  </si>
+  <si>
+    <t>9_6</t>
+  </si>
+  <si>
+    <t>9_7</t>
+  </si>
+  <si>
+    <t>9_8</t>
+  </si>
+  <si>
+    <t>9_9</t>
+  </si>
+  <si>
+    <t>9_10</t>
+  </si>
+  <si>
+    <t>9_11</t>
+  </si>
+  <si>
+    <t>9_12</t>
+  </si>
+  <si>
+    <t>[323. 326. 314.]</t>
+  </si>
+  <si>
+    <t>[312. 310. 304.]</t>
+  </si>
+  <si>
+    <t>[342. 319. 346.]</t>
+  </si>
+  <si>
+    <t>[332. 309. 306.]</t>
+  </si>
+  <si>
+    <t>[313. 308. 318.]</t>
+  </si>
+  <si>
+    <t>[331. 320. 340.]</t>
+  </si>
+  <si>
+    <t>[301. 322. 307.]</t>
+  </si>
+  <si>
+    <t>[324. 317. 305.]</t>
+  </si>
+  <si>
+    <t>[300. 329. 327.]</t>
+  </si>
+  <si>
+    <t>[348. 315. 335.]</t>
+  </si>
+  <si>
+    <t>[321. 333. 344.]</t>
+  </si>
+  <si>
+    <t>[328. 302. 330.]</t>
+  </si>
+  <si>
+    <t>[301. 320. 328.]</t>
+  </si>
+  <si>
+    <t>[332. 313. 324.]</t>
+  </si>
+  <si>
+    <t>[342. 306. 330.]</t>
+  </si>
+  <si>
+    <t>[307. 318. 346.]</t>
+  </si>
+  <si>
+    <t>[302. 317. 309.]</t>
+  </si>
+  <si>
+    <t>[321. 340. 344.]</t>
+  </si>
+  <si>
+    <t>[322. 314. 329.]</t>
+  </si>
+  <si>
+    <t>[304. 319. 335.]</t>
+  </si>
+  <si>
+    <t>[308. 348. 323.]</t>
+  </si>
+  <si>
+    <t>[315. 305. 327.]</t>
+  </si>
+  <si>
+    <t>[300. 333. 310.]</t>
+  </si>
+  <si>
+    <t>[312. 326. 331.]</t>
+  </si>
+  <si>
+    <t>[321. 305. 306.]</t>
+  </si>
+  <si>
+    <t>[313. 300. 310.]</t>
+  </si>
+  <si>
+    <t>[340. 302. 344.]</t>
+  </si>
+  <si>
+    <t>[342. 333. 323.]</t>
+  </si>
+  <si>
+    <t>[301. 314. 330.]</t>
+  </si>
+  <si>
+    <t>[319. 312. 324.]</t>
+  </si>
+  <si>
+    <t>[308. 318. 307.]</t>
+  </si>
+  <si>
+    <t>[309. 348. 326.]</t>
+  </si>
+  <si>
+    <t>[317. 329. 322.]</t>
+  </si>
+  <si>
+    <t>[331. 332. 304.]</t>
+  </si>
+  <si>
+    <t>[320. 327. 335.]</t>
+  </si>
+  <si>
+    <t>[315. 328. 346.]</t>
+  </si>
+  <si>
+    <t>[315. 340. 326.]</t>
+  </si>
+  <si>
+    <t>[348. 328. 322.]</t>
+  </si>
+  <si>
+    <t>[330. 344. 332.]</t>
+  </si>
+  <si>
+    <t>[301. 306. 304.]</t>
+  </si>
+  <si>
+    <t>[307. 324. 305.]</t>
+  </si>
+  <si>
+    <t>[313. 302. 327.]</t>
+  </si>
+  <si>
+    <t>[323. 319. 346.]</t>
+  </si>
+  <si>
+    <t>[300. 335. 342.]</t>
+  </si>
+  <si>
+    <t>[308. 331. 312.]</t>
+  </si>
+  <si>
+    <t>[329. 320. 333.]</t>
+  </si>
+  <si>
+    <t>[318. 309. 314.]</t>
+  </si>
+  <si>
+    <t>[321. 310. 317.]</t>
+  </si>
+  <si>
+    <t>[302. 332. 335.]</t>
+  </si>
+  <si>
+    <t>[312. 310. 305.]</t>
+  </si>
+  <si>
+    <t>[333. 301. 331.]</t>
+  </si>
+  <si>
+    <t>[329. 326. 344.]</t>
+  </si>
+  <si>
+    <t>[327. 306. 314.]</t>
+  </si>
+  <si>
+    <t>[320. 346. 318.]</t>
+  </si>
+  <si>
+    <t>[340. 324. 321.]</t>
+  </si>
+  <si>
+    <t>[300. 307. 313.]</t>
+  </si>
+  <si>
+    <t>[323. 328. 348.]</t>
+  </si>
+  <si>
+    <t>[342. 315. 308.]</t>
+  </si>
+  <si>
+    <t>[317. 322. 330.]</t>
+  </si>
+  <si>
+    <t>[304. 309. 319.]</t>
+  </si>
+  <si>
+    <t>[310. 320. 302.]</t>
+  </si>
+  <si>
+    <t>[324. 329. 346.]</t>
+  </si>
+  <si>
+    <t>[315. 330. 331.]</t>
+  </si>
+  <si>
+    <t>[318. 304. 319.]</t>
+  </si>
+  <si>
+    <t>[340. 314. 313.]</t>
+  </si>
+  <si>
+    <t>[342. 348. 317.]</t>
+  </si>
+  <si>
+    <t>[326. 333. 332.]</t>
+  </si>
+  <si>
+    <t>[300. 335. 309.]</t>
+  </si>
+  <si>
+    <t>[322. 305. 344.]</t>
+  </si>
+  <si>
+    <t>[308. 301. 323.]</t>
+  </si>
+  <si>
+    <t>[307. 328. 312.]</t>
+  </si>
+  <si>
+    <t>[327. 321. 306.]</t>
+  </si>
+  <si>
+    <t>[335. 326. 315.]</t>
+  </si>
+  <si>
+    <t>[313. 332. 319.]</t>
+  </si>
+  <si>
+    <t>[318. 322. 344.]</t>
+  </si>
+  <si>
+    <t>[312. 342. 304.]</t>
+  </si>
+  <si>
+    <t>[346. 307. 314.]</t>
+  </si>
+  <si>
+    <t>[305. 340. 330.]</t>
+  </si>
+  <si>
+    <t>[328. 302. 331.]</t>
+  </si>
+  <si>
+    <t>[309. 308. 306.]</t>
+  </si>
+  <si>
+    <t>[300. 333. 301.]</t>
+  </si>
+  <si>
+    <t>[317. 327. 323.]</t>
+  </si>
+  <si>
+    <t>[310. 324. 320.]</t>
+  </si>
+  <si>
+    <t>[321. 329. 348.]</t>
+  </si>
+  <si>
+    <t>[300. 340. 335.]</t>
+  </si>
+  <si>
+    <t>[305. 346. 307.]</t>
+  </si>
+  <si>
+    <t>[302. 318. 312.]</t>
+  </si>
+  <si>
+    <t>[314. 342. 333.]</t>
+  </si>
+  <si>
+    <t>[327. 308. 332.]</t>
+  </si>
+  <si>
+    <t>[319. 321. 324.]</t>
+  </si>
+  <si>
+    <t>[344. 306. 326.]</t>
+  </si>
+  <si>
+    <t>[331. 329. 313.]</t>
+  </si>
+  <si>
+    <t>[315. 322. 309.]</t>
+  </si>
+  <si>
+    <t>[348. 330. 304.]</t>
+  </si>
+  <si>
+    <t>[310. 320. 328.]</t>
+  </si>
+  <si>
+    <t>[317. 323. 301.]</t>
+  </si>
+  <si>
+    <t>[307. 306. 348.]</t>
+  </si>
+  <si>
+    <t>[315. 335. 314.]</t>
+  </si>
+  <si>
+    <t>[301. 326. 309.]</t>
+  </si>
+  <si>
+    <t>[318. 327. 308.]</t>
+  </si>
+  <si>
+    <t>[300. 320. 331.]</t>
+  </si>
+  <si>
+    <t>[310. 329. 302.]</t>
+  </si>
+  <si>
+    <t>[342. 346. 312.]</t>
+  </si>
+  <si>
+    <t>[317. 319. 344.]</t>
+  </si>
+  <si>
+    <t>[305. 332. 330.]</t>
+  </si>
+  <si>
+    <t>[313. 321. 328.]</t>
+  </si>
+  <si>
+    <t>[304. 333. 323.]</t>
+  </si>
+  <si>
+    <t>[324. 340. 322.]</t>
+  </si>
+  <si>
+    <t>[308. 324. 328.]</t>
+  </si>
+  <si>
+    <t>[313. 302. 323.]</t>
+  </si>
+  <si>
+    <t>[320. 346. 310.]</t>
+  </si>
+  <si>
+    <t>[309. 301. 304.]</t>
+  </si>
+  <si>
+    <t>[348. 342. 319.]</t>
+  </si>
+  <si>
+    <t>[330. 312. 335.]</t>
+  </si>
+  <si>
+    <t>[305. 333. 317.]</t>
+  </si>
+  <si>
+    <t>[332. 340. 327.]</t>
+  </si>
+  <si>
+    <t>[326. 314. 322.]</t>
+  </si>
+  <si>
+    <t>[321. 344. 300.]</t>
+  </si>
+  <si>
+    <t>[318. 307. 306.]</t>
+  </si>
+  <si>
+    <t>[331. 329. 315.]</t>
+  </si>
+  <si>
+    <t>[328. 324. 319. 306. 305. 348.]</t>
+  </si>
+  <si>
+    <t>[314. 346. 332. 335. 340. 306.]</t>
+  </si>
+  <si>
+    <t>[320. 315. 321. 326. 304. 335.]</t>
+  </si>
+  <si>
+    <t>[312. 322. 330. 310. 329. 335.]</t>
+  </si>
+  <si>
+    <t>[300. 333. 324. 330. 344. 340.]</t>
+  </si>
+  <si>
+    <t>[319. 323. 300. 315. 346. 344.]</t>
+  </si>
+  <si>
+    <t>[306. 318. 309. 348. 330. 308.]</t>
+  </si>
+  <si>
+    <t>[333. 313. 315. 307. 321. 320.]</t>
+  </si>
+  <si>
+    <t>[308. 322. 326. 317. 315. 318.]</t>
+  </si>
+  <si>
+    <t>[320. 328. 306. 344. 301. 308.]</t>
+  </si>
+  <si>
+    <t>[308. 323. 317. 322. 302. 305.]</t>
+  </si>
+  <si>
+    <t>[313. 342. 321. 340. 304. 306.]</t>
+  </si>
+  <si>
+    <t>[348. 314. 330. 312. 333. 315.]</t>
+  </si>
+  <si>
+    <t>[342. 321. 300. 307. 317. 346.]</t>
+  </si>
+  <si>
+    <t>[344. 321. 331. 328. 305. 348.]</t>
+  </si>
+  <si>
+    <t>[313. 335. 320. 330. 348. 323.]</t>
+  </si>
+  <si>
+    <t>[307. 320. 313. 321. 328. 308.]</t>
+  </si>
+  <si>
+    <t>[324. 300. 306. 320. 312. 317.]</t>
+  </si>
+  <si>
+    <t>[300. 304. 315. 332. 328. 307.]</t>
+  </si>
+  <si>
+    <t>[323. 317. 322. 309. 326. 324.]</t>
+  </si>
+  <si>
+    <t>[320. 342. 310. 331. 305. 309.]</t>
+  </si>
+  <si>
+    <t>[307. 342. 340. 319. 333. 330.]</t>
+  </si>
+  <si>
+    <t>[331. 329. 313. 330. 312. 335.]</t>
+  </si>
+  <si>
+    <t>[346. 301. 329. 342. 328. 309.]</t>
+  </si>
+  <si>
+    <t>[323. 322. 335. 332. 320. 327.]</t>
+  </si>
+  <si>
+    <t>[322. 307. 323. 320. 312. 342.]</t>
+  </si>
+  <si>
+    <t>[333. 305. 321. 332. 322. 317.]</t>
+  </si>
+  <si>
+    <t>[322. 348. 331. 300. 307. 321.]</t>
+  </si>
+  <si>
+    <t>[328. 324. 318. 327. 319. 344.]</t>
+  </si>
+  <si>
+    <t>[322. 330. 323. 346. 305. 300.]</t>
+  </si>
+  <si>
+    <t>[310. 324. 301. 344. 322. 320.]</t>
+  </si>
+  <si>
+    <t>[313. 300. 323. 333. 319. 327.]</t>
+  </si>
+  <si>
+    <t>[309. 320. 306. 314. 300. 318.]</t>
+  </si>
+  <si>
+    <t>[314. 313. 320. 327. 306. 348.]</t>
+  </si>
+  <si>
+    <t>[310. 313. 300. 332. 306. 318.]</t>
+  </si>
+  <si>
+    <t>[329. 318. 310. 304. 309. 340.]</t>
+  </si>
+  <si>
+    <t>[335. 324. 330. 302. 331. 332.]</t>
+  </si>
+  <si>
+    <t>[319. 346. 308. 342. 333. 310.]</t>
+  </si>
+  <si>
+    <t>[315. 308. 320. 326. 305. 331.]</t>
+  </si>
+  <si>
+    <t>[330. 348. 317. 310. 323. 327.]</t>
+  </si>
+  <si>
+    <t>[327. 326. 309. 304. 323. 344.]</t>
+  </si>
+  <si>
+    <t>[331. 330. 307. 305. 309. 318.]</t>
+  </si>
+  <si>
+    <t>[308. 309. 306. 310. 335. 342.]</t>
+  </si>
+  <si>
+    <t>[346. 314. 340. 304. 344. 328.]</t>
+  </si>
+  <si>
+    <t>[320. 318. 340. 323. 300. 322.]</t>
+  </si>
+  <si>
+    <t>[331. 327. 314. 312. 344. 335.]</t>
+  </si>
+  <si>
+    <t>[323. 344. 322. 307. 332. 340.]</t>
+  </si>
+  <si>
+    <t>[331. 326. 328. 348. 344. 340.]</t>
+  </si>
+  <si>
+    <t>[321. 305. 312. 327. 324. 331.]</t>
+  </si>
+  <si>
+    <t>[342. 320. 330. 301. 346. 326.]</t>
+  </si>
+  <si>
+    <t>[313. 306. 314. 312. 319. 308.]</t>
+  </si>
+  <si>
+    <t>[304. 331. 342. 324. 320. 348.]</t>
+  </si>
+  <si>
+    <t>[323. 304. 320. 330. 335. 301.]</t>
+  </si>
+  <si>
+    <t>[302. 340. 332. 344. 329. 348.]</t>
+  </si>
+  <si>
+    <t>[318. 310. 301. 308. 346. 326.]</t>
+  </si>
+  <si>
+    <t>[323. 322. 309. 330. 329. 315.]</t>
+  </si>
+  <si>
+    <t>[312. 310. 324. 333. 342. 301.]</t>
+  </si>
+  <si>
+    <t>[323. 304. 317. 348. 320. 313.]</t>
+  </si>
+  <si>
+    <t>[318. 346. 314. 320. 302. 319.]</t>
+  </si>
+  <si>
+    <t>[322. 300. 344. 324. 346. 330.]</t>
+  </si>
+  <si>
+    <t>[301. 300. 305. 329. 342. 321.]</t>
+  </si>
+  <si>
+    <t>[333. 342. 312. 326. 314. 332.]</t>
+  </si>
+  <si>
+    <t>[313. 335. 307. 304. 333. 329.]</t>
+  </si>
+  <si>
+    <t>[321. 305. 344. 320. 309. 312.]</t>
+  </si>
+  <si>
+    <t>[310. 307. 319. 304. 335. 329.]</t>
+  </si>
+  <si>
+    <t>[301. 310. 346. 324. 300. 330.]</t>
+  </si>
+  <si>
+    <t>[321. 314. 322. 315. 323. 309.]</t>
+  </si>
+  <si>
+    <t>[312. 326. 333. 302. 324. 340.]</t>
+  </si>
+  <si>
+    <t>[321. 332. 313. 317. 346. 327.]</t>
+  </si>
+  <si>
+    <t>[317. 330. 321. 319. 302. 307.]</t>
+  </si>
+  <si>
+    <t>[333. 308. 319. 331. 320. 332.]</t>
+  </si>
+  <si>
+    <t>[310. 315. 326. 319. 328. 324.]</t>
+  </si>
+  <si>
+    <t>[348. 307. 327. 301. 340. 333.]</t>
+  </si>
+  <si>
+    <t>[326. 309. 305. 333. 307. 308.]</t>
+  </si>
+  <si>
+    <t>[324. 319. 302. 328. 320. 304.]</t>
+  </si>
+  <si>
+    <t>[331. 319. 306. 348. 326. 318.]</t>
+  </si>
+  <si>
+    <t>[321. 324. 333. 319. 320. 326.]</t>
+  </si>
+  <si>
+    <t>[304. 317. 326. 335. 302. 312.]</t>
+  </si>
+  <si>
+    <t>[330. 317. 340. 312. 333. 322.]</t>
+  </si>
+  <si>
+    <t>[305. 327. 335. 321. 320. 333.]</t>
+  </si>
+  <si>
+    <t>[314. 305. 321. 317. 307. 304.]</t>
+  </si>
+  <si>
+    <t>[309. 322. 324. 318. 320. 310.]</t>
+  </si>
+  <si>
+    <t>[307. 317. 309. 328. 308. 313.]</t>
+  </si>
+  <si>
+    <t>[320. 300. 307. 340. 322. 333.]</t>
+  </si>
+  <si>
+    <t>[307. 331. 328. 310. 317. 318.]</t>
+  </si>
+  <si>
+    <t>[304. 321. 313. 319. 320. 322.]</t>
+  </si>
+  <si>
+    <t>[315. 309. 321. 310. 327. 317.]</t>
+  </si>
+  <si>
+    <t>[310. 331. 309. 330. 326. 302.]</t>
+  </si>
+  <si>
+    <t>[317. 344. 320. 323. 330. 319.]</t>
+  </si>
+  <si>
+    <t>[327. 331. 315. 310. 344. 329.]</t>
+  </si>
+  <si>
+    <t>[331. 304. 335. 340. 300. 324.]</t>
+  </si>
+  <si>
+    <t>[335. 304. 328. 318. 324. 332.]</t>
+  </si>
+  <si>
+    <t>[319. 346. 327. 314. 328. 344.]</t>
+  </si>
+  <si>
+    <t>[346. 313. 300. 326. 318. 319.]</t>
+  </si>
+  <si>
+    <t>[335. 301. 324. 348. 309. 304.]</t>
+  </si>
+  <si>
+    <t>[309. 326. 300. 321. 335. 302.]</t>
+  </si>
+  <si>
+    <t>[308. 323. 324. 335. 330. 327.]</t>
+  </si>
+  <si>
+    <t>[302. 312. 300. 318. 344. 348.]</t>
+  </si>
+  <si>
+    <t>[306. 318. 330. 324. 323. 302.]</t>
+  </si>
+  <si>
+    <t>[329. 312. 342. 307. 320. 324.]</t>
+  </si>
+  <si>
+    <t>[305. 321. 319. 322. 323. 326.]</t>
+  </si>
+  <si>
+    <t>[318. 317. 327. 326. 340. 300.]</t>
+  </si>
+  <si>
+    <t>[319. 300. 320. 306. 307. 305.]</t>
+  </si>
+  <si>
+    <t>[314. 348. 320. 331. 301. 346.]</t>
+  </si>
+  <si>
+    <t>[315. 328. 320. 307. 346. 310.]</t>
+  </si>
+  <si>
+    <t>[327. 330. 344. 324. 326. 315.]</t>
+  </si>
+  <si>
+    <t>[309. 330. 320. 300. 306. 319.]</t>
+  </si>
+  <si>
+    <t>[310. 332. 329. 328. 317. 327.]</t>
+  </si>
+  <si>
+    <t>[344. 319. 333. 340. 348. 342.]</t>
+  </si>
+  <si>
+    <t>[348. 300. 335. 333. 329. 320.]</t>
+  </si>
+  <si>
+    <t>[348. 333. 324. 331. 300. 340.]</t>
+  </si>
+  <si>
+    <t>[330. 317. 342. 312. 328. 323.]</t>
+  </si>
+  <si>
+    <t>[331. 335. 306. 323. 318. 304.]</t>
+  </si>
+  <si>
+    <t>[348. 342. 318. 346. 307. 305.]</t>
+  </si>
+  <si>
+    <t>[346. 302. 318. 331. 315. 348.]</t>
+  </si>
+  <si>
+    <t>[321. 324. 301. 326. 300. 320.]</t>
+  </si>
+  <si>
+    <t>[328. 301. 315. 332. 340. 304.]</t>
+  </si>
+  <si>
+    <t>[333. 319. 328. 332. 320. 313.]</t>
+  </si>
+  <si>
+    <t>[320. 329. 344. 332. 308. 304.]</t>
+  </si>
+  <si>
+    <t>[306. 304. 307. 312. 327. 322.]</t>
+  </si>
+  <si>
+    <t>[0.7846771478652954, 0.8351868987083435, 0.8466172218322754, 0.8632993698120117, 0.8694779276847839, 0.8767377138137817, 0.8855421543121338, 0.9005251526832581, 0.8977448344230652, 0.905004620552063, 0.911492109298706, 0.9172073006629944, 0.924776017665863, 0.9321902990341187, 0.9278653264045715, 0.9324992299079895, 0.9341983199119568, 0.9445474147796631, 0.94439297914505, 0.9499536752700806, 0.9487179517745972, 0.9541242122650146, 0.9482545852661133, 0.9530429244041443, 0.9596849083900452, 0.9598393440246582, 0.9621562957763672, 0.9629286527633667, 0.962310791015625, 0.9674081206321716, 0.9660179018974304, 0.9613839983940125, 0.964782178401947, 0.9666357636451721, 0.9681804180145264, 0.9740500450134277, 0.9752857685089111, 0.9683348536491394, 0.970960795879364, 0.9745134115219116, 0.9785295128822327, 0.9766759276390076, 0.969261646270752, 0.9743589758872986, 0.9754402041435242, 0.9774482250213623, 0.9782205820083618]</t>
+  </si>
+  <si>
+    <t>[0.8043138384819031, 0.8483901023864746, 0.864176332950592, 0.8701156377792358, 0.8757424354553223, 0.8884026408195496, 0.8887152075767517, 0.8949671983718872, 0.9035636186599731, 0.9073147773742676, 0.911065936088562, 0.9152860045433044, 0.9176304936408997, 0.9268521666526794, 0.9351359605789185, 0.9370115399360657, 0.9391997456550598, 0.9431072473526001, 0.9456080198287964, 0.9474835991859436, 0.9543607234954834, 0.9568614959716797, 0.9571741223335266, 0.9615504741668701, 0.9585807919502258, 0.9638949632644653, 0.9654579758644104, 0.9682713150978088, 0.9662394523620605, 0.970928430557251, 0.971084713935852, 0.9718661904335022]</t>
+  </si>
+  <si>
+    <t>[0.7965252995491028, 0.8339332938194275, 0.8419157862663269, 0.8556894659996033, 0.86977618932724, 0.8747847676277161, 0.8835498690605164, 0.8910627365112305, 0.895758330821991, 0.9012364745140076, 0.9090624451637268, 0.9181405305862427, 0.9175145030021667, 0.9295664429664612, 0.9300360083580017, 0.9344185590744019, 0.9388010501861572, 0.9456878900527954, 0.9425575137138367, 0.9478791952133179, 0.9502269625663757, 0.9525747299194336]</t>
+  </si>
+  <si>
+    <t>[0.7866287231445312, 0.8232969641685486, 0.8384700417518616, 0.8561719655990601, 0.8558558821678162, 0.874822199344635, 0.8702386617660522, 0.8857278227806091, 0.8975818157196045, 0.9010589718818665, 0.9054844379425049, 0.9121226668357849, 0.9133870601654053, 0.9260312914848328, 0.9193930625915527, 0.9296665191650391, 0.9370949864387512, 0.9374110698699951, 0.944839596748352, 0.9418365955352783, 0.9446815252304077, 0.9530583024024963, 0.9503714442253113, 0.9532163739204407]</t>
+  </si>
+  <si>
+    <t>[0.7662421464920044, 0.8086409568786621, 0.8246009945869446, 0.841205894947052, 0.8491052985191345, 0.8618410229682922, 0.8669998645782471, 0.8707077503204346, 0.8784459233283997, 0.8908592462539673, 0.9037562608718872, 0.9053683876991272, 0.9110108017921448, 0.9100435376167297, 0.9176204800605774, 0.9243914484977722, 0.9310011267662048, 0.9253587126731873, 0.9321296215057373, 0.9421247839927673, 0.9440593123435974, 0.9458326697349548, 0.9392229318618774, 0.952925980091095, 0.9551829695701599, 0.9519587159156799, 0.9543769359588623, 0.9538933038711548, 0.9651781320571899, 0.962921142578125, 0.9632436037063599, 0.9616314768791199, 0.9643720984458923, 0.9656617641448975, 0.9701757431030273]</t>
+  </si>
+  <si>
+    <t>[0.7987032532691956, 0.8371531963348389, 0.8576598167419434, 0.8642943501472473, 0.8742460608482361, 0.881031334400177, 0.891284704208374, 0.9010856747627258, 0.9074185490608215, 0.9119421243667603, 0.9188781380653381, 0.924155592918396, 0.9244571924209595, 0.9333534240722656, 0.9354644417762756, 0.9408926367759705, 0.9440591335296631, 0.9473763704299927, 0.9439083337783813]</t>
+  </si>
+  <si>
+    <t>[0.7520134449005127, 0.809395968914032, 0.8256711363792419, 0.8483221530914307, 0.8500000238418579, 0.8686241507530212, 0.8744966387748718, 0.8835570216178894, 0.8870805501937866, 0.8951342105865479, 0.9092282056808472, 0.9043624401092529, 0.9120805263519287, 0.9179530143737793, 0.9239932894706726, 0.9266778230667114, 0.936241626739502, 0.937583863735199, 0.9412751793861389, 0.9434563517570496, 0.9471476674079895, 0.9493288397789001, 0.9521812200546265, 0.9575503468513489, 0.9541946053504944, 0.9553691148757935, 0.9602348804473877, 0.9620805382728577, 0.9642617702484131, 0.9657717943191528, 0.9691275358200073, 0.9644295573234558, 0.9632550477981567]</t>
+  </si>
+  <si>
+    <t>[0.7839015126228333, 0.8164889812469482, 0.8262501955032349, 0.8451719284057617, 0.8499774932861328, 0.8681483864784241, 0.8673974871635437, 0.8815137147903442, 0.8864694237709045, 0.8899233937263489, 0.891725480556488, 0.9013365507125854, 0.9029884338378906, 0.9077939391136169, 0.9187565445899963, 0.9214596748352051]</t>
+  </si>
+  <si>
+    <t>[0.7685540914535522, 0.8157389760017395, 0.8254958391189575, 0.8346129059791565, 0.8507677316665649, 0.8578054904937744, 0.8659628629684448, 0.8795585632324219, 0.8761996030807495, 0.8984324932098389, 0.8899552226066589, 0.9073896408081055, 0.9086692333221436, 0.9120281338691711, 0.9161868095397949, 0.9169865846633911, 0.9275431632995605, 0.9420985579490662, 0.9385796785354614, 0.9440178871154785, 0.9420985579490662, 0.9424183964729309, 0.9468969702720642, 0.9500959515571594]</t>
+  </si>
+  <si>
+    <t>[0.7913473844528198, 0.8330140709877014, 0.844348669052124, 0.8539271950721741, 0.868135392665863, 0.8743614554405212, 0.8833013772964478, 0.8909642696380615, 0.8925606608390808, 0.904533863067627, 0.9110791683197021, 0.9230523705482483, 0.9262452125549316, 0.9305555820465088, 0.9275223612785339, 0.9398148059844971, 0.935983419418335, 0.938697338104248, 0.9530651569366455, 0.9500319361686707, 0.9535440802574158, 0.9562579989433289, 0.9568965435028076, 0.9664750695228577, 0.9650382995605469, 0.9615261554718018, 0.9634419083595276]</t>
+  </si>
+  <si>
+    <t>[0.7800723314285278, 0.8230328559875488, 0.8409707546234131, 0.8515224456787109, 0.8705155253410339, 0.865239679813385, 0.8786554336547852, 0.8864938020706177, 0.8955381512641907, 0.9006632566452026, 0.9044317007064819, 0.9098582863807678, 0.9078987240791321, 0.9170937538146973, 0.9193548560142517, 0.9348809123039246]</t>
+  </si>
+  <si>
+    <t>[0.7721397876739502, 0.8201691508293152, 0.8337322473526001, 0.8468166589736938, 0.854316234588623, 0.863411545753479, 0.8640497922897339, 0.8787298798561096, 0.89101642370224, 0.8973990678787231, 0.901228666305542, 0.9095261096954346, 0.9159087538719177, 0.9216530919075012, 0.9256422519683838, 0.9315462112426758, 0.9387266635894775, 0.937450110912323, 0.9396840333938599, 0.939045786857605, 0.9521301984786987, 0.9521301984786987, 0.9518110752105713, 0.950374960899353, 0.9527684450149536]</t>
+  </si>
+  <si>
+    <t>[0.7862921953201294, 0.8264387249946594, 0.84613037109375, 0.8563578128814697, 0.8704014420509338, 0.8818501234054565, 0.8908563852310181, 0.890398383140564, 0.9010838270187378, 0.9067317843437195, 0.9113112688064575, 0.9221493005752563, 0.9293237924575806, 0.9297817349433899, 0.9329873323440552, 0.9409250617027283, 0.9369561672210693, 0.9433674216270447, 0.945199191570282, 0.9503892660140991]</t>
+  </si>
+  <si>
+    <t>[0.7930528521537781, 0.8217547535896301, 0.842302680015564, 0.8494781255722046, 0.8582844138145447, 0.8657860159873962, 0.8763861656188965, 0.8840509057044983, 0.89334636926651, 0.8938356041908264, 0.9068819284439087, 0.9081865549087524, 0.913241982460022, 0.9189497828483582, 0.9240052103996277, 0.9329745769500732, 0.933953046798706, 0.9373776912689209, 0.9424331188201904, 0.946183979511261, 0.9450423717498779, 0.9479778409004211, 0.946183979511261, 0.9499347805976868, 0.9536855816841125, 0.9535225033760071, 0.959393322467804, 0.9641226530075073]</t>
+  </si>
+  <si>
+    <t>[0.7903374433517456, 0.8279141187667847, 0.8374233245849609, 0.8526073694229126, 0.8650306463241577, 0.8670245409011841, 0.8762270212173462, 0.887116551399231, 0.8926380276679993, 0.8970859050750732, 0.9067484736442566, 0.9115030765533447, 0.9199386239051819, 0.9226993918418884, 0.9260736107826233, 0.9329754710197449, 0.9334355592727661, 0.9381901621818542, 0.9394171833992004, 0.9435582756996155]</t>
+  </si>
+  <si>
+    <t>[0.7738287448883057, 0.81728595495224, 0.8357027173042297, 0.8521809577941895, 0.8631663918495178, 0.8736671805381775, 0.8862681984901428, 0.8932148814201355, 0.8970921039581299, 0.9061389565467834, 0.9074313640594482, 0.9172859191894531, 0.9276251792907715, 0.9234248995780945, 0.9329563975334167, 0.9321486353874207]</t>
+  </si>
+  <si>
+    <t>[0.7829481363296509, 0.8140224814414978, 0.8272954225540161, 0.845721423625946, 0.85805743932724, 0.8669581413269043, 0.8771080374717712, 0.8852279782295227, 0.88944411277771, 0.8936601877212524, 0.9022486209869385, 0.9120861887931824, 0.9128669500350952, 0.9200499653816223, 0.9272329807281494, 0.9295752644538879, 0.9303560256958008, 0.9384759664535522, 0.9394128918647766, 0.9423797726631165, 0.9370706081390381, 0.9495627880096436, 0.9476889371871948, 0.9584634900093079, 0.9559650421142578, 0.959556519985199, 0.9526858329772949, 0.9653341770172119, 0.9681448936462402, 0.9628357291221619]</t>
+  </si>
+  <si>
+    <t>[0.7852135300636292, 0.8398661613464355, 0.8521351218223572, 0.8585085868835449, 0.8720522522926331, 0.8824091553688049, 0.8809751272201538, 0.8800191283226013, 0.8898980021476746, 0.9013702869415283, 0.908859133720398, 0.9098151922225952, 0.9059910774230957, 0.9147546291351318, 0.92829829454422, 0.9267048835754395, 0.9364244937896729, 0.9420012831687927, 0.9437539577484131, 0.9306883215904236, 0.9413639307022095, 0.9459847211837769, 0.9537922143936157, 0.95219886302948, 0.9514021873474121, 0.96144038438797, 0.959528386592865, 0.9598470330238342, 0.9555449485778809, 0.9649458527565002, 0.966220498085022, 0.963989794254303, 0.9694072604179382, 0.9716379642486572, 0.9673358798027039, 0.9719566702842712, 0.9725940227508545, 0.9725940227508545]</t>
+  </si>
+  <si>
+    <t>[0.7653894424438477, 0.8139133453369141, 0.8264761567115784, 0.8415514826774597, 0.8531721234321594, 0.8625942468643188, 0.8757851719856262, 0.8808103203773499, 0.884736180305481, 0.8877198696136475, 0.9057788848876953, 0.9120603203773499, 0.9133166074752808, 0.9222676157951355, 0.924466073513031, 0.9247801303863525, 0.9269786477088928, 0.9371859431266785, 0.9379711151123047, 0.9423680901527405, 0.9429962038993835, 0.9469221234321594, 0.9466080665588379, 0.9550879597663879, 0.9536746144294739, 0.9577575325965881, 0.9571294188499451, 0.953831672668457, 0.9605841636657715, 0.965452253818512, 0.96027010679245, 0.9640389680862427, 0.9645100235939026, 0.9698492288589478, 0.9729899764060974, 0.9695351719856262, 0.9696922302246094, 0.965452253818512]</t>
+  </si>
+  <si>
+    <t>[0.7965517044067383, 0.8310344815254211, 0.8396551609039307, 0.8514106869697571, 0.8594043850898743, 0.8684952855110168, 0.8703761696815491, 0.8815047144889832, 0.890752375125885, 0.8954545259475708, 0.8963949680328369, 0.899529755115509, 0.9094043970108032, 0.9246081709861755, 0.9266457557678223, 0.9316614270210266, 0.9315047264099121, 0.9352664351463318, 0.9415360689163208, 0.9459247589111328, 0.9442006349563599, 0.9487460851669312, 0.952194333076477, 0.9504702091217041]</t>
+  </si>
+  <si>
+    <t>[0.7919240593910217, 0.8392345905303955, 0.8565617203712463, 0.8546029925346375, 0.8772035837173462, 0.8781076073646545, 0.8871477842330933, 0.891667902469635, 0.895736038684845, 0.9055296182632446, 0.9106523990631104, 0.919843316078186, 0.9218020439147949, 0.9267741441726685, 0.9338556528091431, 0.9349103569984436, 0.9406358003616333, 0.9454572796821594, 0.9505800604820251, 0.9511827826499939]</t>
+  </si>
+  <si>
+    <t>[0.7698703408241272, 0.816939115524292, 0.8368094563484192, 0.8480834364891052, 0.8580890893936157, 0.863726019859314, 0.8738725781440735, 0.8826099038124084, 0.8885287642478943, 0.8968433141708374, 0.9064261317253113, 0.9089627861976624, 0.9122040867805481, 0.9178410172462463, 0.9168545603752136, 0.9303833246231079, 0.927423894405365, 0.9378523230552673, 0.9406707882881165, 0.9413754343986511, 0.9430665373802185, 0.9458850026130676, 0.9529312252998352, 0.9444757699966431, 0.953213095664978, 0.9578635692596436]</t>
+  </si>
+  <si>
+    <t>[0.7766858339309692, 0.8268823623657227, 0.8380707502365112, 0.8491079807281494, 0.8609011173248291, 0.8619594573974609, 0.8817659616470337, 0.8867553472518921, 0.890988826751709, 0.895827054977417, 0.8986997008323669, 0.912004828453064, 0.9157847166061401, 0.9182038307189941, 0.9275778532028198, 0.9237980246543884, 0.9357423782348633, 0.9328696727752686, 0.9455699920654297, 0.943906843662262, 0.9431508779525757, 0.9528273344039917, 0.9478379487991333, 0.9543392658233643, 0.9549440741539001]</t>
+  </si>
+  <si>
+    <t>[0.8032457232475281, 0.8372488617897034, 0.8472952246665955, 0.8632148504257202, 0.8687790036201477, 0.8782070875167847, 0.8845440745353699, 0.8874806761741638, 0.9004637002944946, 0.905409574508667, 0.9146831631660461, 0.914374053478241, 0.9287480711936951, 0.916537880897522, 0.9304482340812683, 0.9369397163391113, 0.9378671050071716, 0.9437403678894043, 0.9460587501525879, 0.951777458190918, 0.9520865678787231, 0.9489953517913818, 0.9513137340545654, 0.9588871598243713, 0.9595054388046265, 0.9595054388046265, 0.9656878113746643]</t>
+  </si>
+  <si>
+    <t>[0.7697427868843079, 0.8267776370048523, 0.8446293473243713, 0.8529500961303711, 0.8576399683952332, 0.8617246747016907, 0.874130129814148, 0.8829047083854675, 0.8944024443626404, 0.8993948698043823, 0.9089258909225464, 0.9158850312232971, 0.9148260354995728, 0.9219364523887634, 0.9264750480651855, 0.9290468692779541, 0.9366111755371094, 0.9402420520782471]</t>
+  </si>
+  <si>
+    <t>[0.8016815185546875, 0.8394328951835632, 0.8572370409965515, 0.865809440612793, 0.8664688467979431, 0.8814705014228821, 0.8857566714286804, 0.8926805257797241, 0.9068579077720642, 0.9126277565956116, 0.9151005744934082, 0.9179030656814575, 0.922683835029602, 0.92499178647995, 0.9330695867538452, 0.9365314841270447]</t>
+  </si>
+  <si>
+    <t>[0.773395299911499, 0.8150869607925415, 0.8317336440086365, 0.8495801091194153, 0.854529082775116, 0.8698260188102722, 0.8644270896911621, 0.8807738423347473, 0.8888722062110901, 0.8963707089424133, 0.9061187505722046, 0.9053689241409302, 0.9109178185462952, 0.9238152503967285, 0.9260647892951965, 0.9251649379730225, 0.9272645711898804]</t>
+  </si>
+  <si>
+    <t>[0.7573596239089966, 0.8169954419136047, 0.8335356712341309, 0.8471927046775818, 0.8553869724273682, 0.8590288162231445, 0.8738998770713806, 0.8805766105651855, 0.880273163318634, 0.8928679823875427, 0.8984825611114502, 0.9051593542098999, 0.9037936329841614, 0.9148710370063782, 0.9200303554534912, 0.9239757061004639, 0.9210925698280334, 0.9326251745223999, 0.9330804347991943, 0.9367222785949707, 0.936267077922821, 0.9341426491737366, 0.9417299032211304, 0.9523520469665527, 0.9500758647918701, 0.9544764757156372, 0.9544764757156372]</t>
+  </si>
+  <si>
+    <t>[0.7781192660331726, 0.8134603500366211, 0.8337430953979492, 0.8546404242515564, 0.8594037890434265, 0.8712354302406311, 0.8792255520820618, 0.8801475167274475, 0.8910571336746216, 0.8995082974433899, 0.9090350270271301, 0.9110325574874878, 0.9090350270271301, 0.9219422340393066, 0.9273202419281006, 0.925015389919281, 0.9370006322860718, 0.9340811371803284, 0.9443761706352234, 0.9483712315559387, 0.9443761706352234, 0.9565150737762451, 0.9505224227905273, 0.9551321268081665, 0.9589735865592957, 0.9608174562454224, 0.9586662650108337, 0.962968647480011, 0.9675783514976501, 0.9617394208908081, 0.96281498670578, 0.9637369513511658, 0.968192994594574]</t>
+  </si>
+  <si>
+    <t>[0.7703922390937805, 0.8291481733322144, 0.845068097114563, 0.8600032925605774, 0.8718200922012329, 0.8757590651512146, 0.8841293454170227, 0.8821598291397095, 0.8910225033760071, 0.8995568752288818, 0.9064500331878662, 0.907270610332489, 0.9210569262504578, 0.9210569262504578, 0.9231905341148376, 0.9231905341148376]</t>
+  </si>
+  <si>
+    <t>[0.7812286615371704, 0.8092150092124939, 0.8279863595962524, 0.8407849669456482, 0.8573378920555115, 0.8689419627189636, 0.8754266500473022, 0.8745733499526978, 0.8902730345726013, 0.9047781825065613, 0.9017064571380615, 0.9052901268005371, 0.9114334583282471, 0.9274743795394897, 0.9279863238334656, 0.9329351782798767, 0.9315699934959412, 0.9247440099716187, 0.9395904541015625, 0.9390785098075867]</t>
+  </si>
+  <si>
+    <t>[0.7896305322647095, 0.8273242115974426, 0.8456496000289917, 0.8517580628395081, 0.8620381355285645, 0.8678486347198486, 0.8800655603408813, 0.8837902545928955, 0.8979439735412598, 0.8970500826835632, 0.9016686677932739, 0.9159713983535767, 0.9138855934143066, 0.9177592396736145, 0.9246126413345337, 0.9341477751731873, 0.9325089454650879, 0.9344457983970642, 0.9410011768341064, 0.9411501884460449, 0.9521751999855042, 0.9494934678077698, 0.9460667371749878, 0.9542610049247742, 0.9558998942375183, 0.9599225521087646, 0.9579856991767883, 0.9602205157279968]</t>
+  </si>
+  <si>
+    <t>[0.8086101412773132, 0.8442437648773193, 0.8564978837966919, 0.8677845597267151, 0.8760077357292175, 0.8831022381782532, 0.8963237404823303, 0.9024507999420166, 0.9093840718269348, 0.9126088619232178, 0.9156723618507385, 0.9264753460884094, 0.9295388460159302, 0.9338923096656799, 0.9358271360397339, 0.9396968483924866, 0.9474363327026367, 0.9513060450553894, 0.9495323896408081, 0.9508222937583923, 0.9553369879722595, 0.9598516821861267, 0.9575943350791931, 0.9630764126777649, 0.9645275473594666, 0.9646888375282288, 0.9706546068191528]</t>
+  </si>
+  <si>
+    <t>[0.7762206196784973, 0.8254972696304321, 0.8432790637016296, 0.8520193099975586, 0.8630198836326599, 0.8688969016075134, 0.8838155269622803, 0.8966244459152222, 0.9014466404914856, 0.9053646922111511, 0.9098854660987854, 0.9186256527900696, 0.9220916032791138, 0.9257082343101501, 0.9326401352882385, 0.9377636909484863, 0.936558187007904, 0.9400241374969482, 0.9425858855247498, 0.9466546177864075, 0.9517781734466553, 0.9511753916740417, 0.9621760249137878, 0.9553948044776917, 0.9596142172813416, 0.9562989473342896, 0.961121141910553, 0.9691079258918762, 0.9713683128356934, 0.96232670545578, 0.96760094165802]</t>
+  </si>
+  <si>
+    <t>[0.78731769323349, 0.828117311000824, 0.845813512802124, 0.8546616435050964, 0.8687530755996704, 0.8748156428337097, 0.883336067199707, 0.8882516622543335, 0.8967720866203308, 0.9056201577186584, 0.9059479236602783, 0.9161068201065063, 0.9192200303077698, 0.9269211888313293, 0.9267573356628418, 0.9362608790397644, 0.9392102360725403, 0.9490414261817932, 0.9452728033065796, 0.9511715769767761, 0.9492052793502808, 0.9601835012435913, 0.9519908428192139]</t>
+  </si>
+  <si>
+    <t>[0.7956398725509644, 0.8313990235328674, 0.8499059081077576, 0.8546110391616821, 0.8718632459640503, 0.8784504532814026, 0.8828418850898743, 0.8864491581916809, 0.8988394141197205, 0.9044855833053589, 0.902917206287384, 0.9099749326705933, 0.9135822057723999, 0.921737790107727, 0.9250313639640808, 0.9289523363113403, 0.9377352595329285, 0.9377352595329285, 0.9447929859161377, 0.9414993524551392, 0.9480865597724915, 0.9447929859161377, 0.95138019323349, 0.9540464282035828]</t>
+  </si>
+  <si>
+    <t>[0.7715774774551392, 0.8168020844459534, 0.8229342103004456, 0.8414839506149292, 0.8468496203422546, 0.8506821990013123, 0.8730645179748535, 0.8712248802185059, 0.8827226758003235, 0.8897746205329895, 0.8900812268257141, 0.9026521444320679, 0.9041851758956909, 0.9147631525993347, 0.9152230620384216, 0.9212018847465515]</t>
+  </si>
+  <si>
+    <t>[0.7917071580886841, 0.8347910642623901, 0.8505021333694458, 0.8540654182434082, 0.8675088882446289, 0.8772270679473877, 0.8816002607345581, 0.8890508413314819, 0.8916423916816711, 0.9016844630241394, 0.9037901163101196, 0.9162617325782776, 0.9159377813339233, 0.9198250770568848, 0.9298672080039978, 0.932620644569397, 0.9340783953666687, 0.9402332305908203, 0.941690981388092, 0.9491415619850159, 0.9444444179534912, 0.945416271686554, 0.9525429010391235, 0.9523809552192688, 0.9548105001449585, 0.9580498933792114, 0.963718831539154, 0.9616132378578186, 0.9593456387519836, 0.9629089832305908, 0.964690625667572, 0.9648526310920715, 0.9689018726348877, 0.964690625667572, 0.967444121837616, 0.9690638184547424, 0.9732750058174133, 0.9697117209434509, 0.9689018726348877, 0.9703595638275146, 0.9753805994987488, 0.9739229083061218, 0.9750567078590393, 0.9768383502960205, 0.9776481986045837]</t>
+  </si>
+  <si>
+    <t>[0.749265730381012, 0.7982686758041382, 0.8192920088768005, 0.8257845044136047, 0.8492811918258667, 0.8545370101928711, 0.867058277130127, 0.8723140954971313, 0.8865357637405396, 0.8927191495895386, 0.8891637325286865, 0.9067862033843994, 0.9080228805541992, 0.905394971370697, 0.9228628873825073, 0.925027072429657, 0.9326016306877136, 0.9234812259674072, 0.9392487406730652]</t>
+  </si>
+  <si>
+    <t>[0.779071569442749, 0.8350904583930969, 0.8585366010665894, 0.8675059080123901, 0.8774193525314331, 0.881667971611023, 0.892053484916687, 0.8980330228805542, 0.9040125608444214, 0.9076318144798279, 0.9140834212303162, 0.9175452589988708, 0.9273013472557068, 0.9263572096824646, 0.9291896224021912, 0.9321793913841248, 0.9361132979393005, 0.9397324919700623, 0.9427222609519958, 0.9527930617332458, 0.9531077742576599, 0.9505900740623474, 0.9575137495994568, 0.958615243434906, 0.9575137495994568, 0.9603461623191833, 0.963650643825531, 0.9625491499900818, 0.9622344374656677, 0.9653815627098083, 0.969630241394043]</t>
+  </si>
+  <si>
+    <t>[0.7753633856773376, 0.8168739676475525, 0.830660879611969, 0.8451970815658569, 0.8517907857894897, 0.8564363718032837, 0.8747190237045288, 0.8741195797920227, 0.8882061839103699, 0.8998950719833374, 0.8950996398925781, 0.90394127368927, 0.90903639793396, 0.9145811200141907, 0.918927013874054, 0.9256706237792969, 0.9322643280029297, 0.9393076300621033, 0.9379589557647705, 0.942304790019989, 0.9482991099357605, 0.9472501277923584, 0.9445526599884033, 0.9514461159706116]</t>
+  </si>
+  <si>
+    <t>[0.7575666904449463, 0.8089601397514343, 0.8308360576629639, 0.8456697463989258, 0.8570572137832642, 0.8645489811897278, 0.870692253112793, 0.8822295665740967, 0.8882229328155518, 0.8961642384529114, 0.8997602462768555, 0.9074018597602844, 0.9105483889579773, 0.9174408316612244, 0.9231345653533936, 0.9165418148040771]</t>
+  </si>
+  <si>
+    <t>[0.7965838313102722, 0.840062141418457, 0.8529503345489502, 0.8672360181808472, 0.8712732791900635, 0.8777950406074524, 0.886956512928009, 0.893478274345398, 0.9027950167655945, 0.9077639579772949, 0.9083850979804993, 0.9127328991889954, 0.927173912525177, 0.9268633723258972, 0.9349378943443298, 0.9431676864624023, 0.9433229565620422, 0.9409937858581543, 0.9461179971694946, 0.9503105878829956, 0.9490683078765869, 0.9534161686897278, 0.949999988079071, 0.959782600402832, 0.95652174949646, 0.9641304612159729, 0.9635093212127686, 0.9641304612159729, 0.9642857313156128, 0.9712733030319214, 0.9700310826301575, 0.9717391133308411, 0.9694099426269531, 0.967391312122345, 0.971894383430481, 0.965062141418457, 0.9717391133308411]</t>
+  </si>
+  <si>
+    <t>[0.7904971241950989, 0.8359730243682861, 0.8518111705780029, 0.8593382239341736, 0.8671789169311523, 0.8717265129089355, 0.8731378316879272, 0.8922690749168396, 0.8943076729774475, 0.9007370471954346, 0.9027755856513977, 0.9134389162063599, 0.9124980568885803, 0.9234749674797058, 0.9228477478027344, 0.9308452010154724, 0.9317861199378967, 0.9306884407997131, 0.940567672252655, 0.9413517117500305, 0.9419789910316467, 0.9542104601860046, 0.9513878226280212, 0.954680860042572, 0.9559354186058044, 0.9595420956611633, 0.9618943333625793, 0.9622079133987427, 0.9634624719619751, 0.9620510935783386, 0.9614238739013672, 0.9623647332191467]</t>
+  </si>
+  <si>
+    <t>[0.7952404022216797, 0.8326146006584167, 0.8460310101509094, 0.8509822487831116, 0.8674333095550537, 0.866634726524353, 0.8808497190475464, 0.8893148303031921, 0.8976202011108398, 0.9092796444892883, 0.9183836579322815, 0.9210988879203796, 0.9265292882919312, 0.9297236800193787, 0.9333972334861755, 0.9369110465049744, 0.9442580938339233, 0.9380290508270264, 0.950007975101471]</t>
+  </si>
+  <si>
+    <t>[0.7965962290763855, 0.8252813816070557, 0.8418885469436646, 0.8635739684104919, 0.8656327128410339, 0.880730152130127, 0.8825144171714783, 0.8881416320800781, 0.8941805958747864, 0.9007685780525208, 0.9068076014518738, 0.9131210446357727, 0.9155915379524231, 0.9262970089912415, 0.9280812740325928, 0.9309635162353516, 0.9338457584381104, 0.935492753982544, 0.9413944482803345, 0.9467471837997437, 0.9488059282302856, 0.9482569098472595, 0.9507274031639099, 0.9545704126358032, 0.9600604176521301, 0.95539391040802, 0.9597858786582947, 0.9612956643104553]</t>
+  </si>
+  <si>
+    <t>[0.7904245853424072, 0.8242999315261841, 0.8355916738510132, 0.8602830767631531, 0.8638964295387268, 0.8748871088027954, 0.8794037699699402, 0.8861788511276245, 0.8929539322853088, 0.9010840058326721, 0.9081602096557617, 0.9143330454826355, 0.9185486435890198, 0.9266787171363831, 0.9284853935241699, 0.934959352016449, 0.9379705190658569, 0.9426377415657043, 0.9470039010047913]</t>
+  </si>
+  <si>
+    <t>[0.7845683693885803, 0.8271963596343994, 0.8476699590682983, 0.8524064421653748, 0.860045850276947, 0.8655462265014648, 0.8759358525276184, 0.8799083232879639, 0.8840336203575134, 0.8954927325248718, 0.8970206379890442, 0.9072574377059937, 0.9148968458175659, 0.9239113926887512, 0.9214667677879333, 0.9239113926887512, 0.9350649118423462, 0.9353705048561096, 0.9396485686302185, 0.941940426826477, 0.9440794587135315, 0.9483575224876404, 0.9483575224876404, 0.948204755783081, 0.9567608833312988, 0.9584415555000305]</t>
+  </si>
+  <si>
+    <t>[0.7779555320739746, 0.8220154047012329, 0.829576849937439, 0.8448451161384583, 0.8573505878448486, 0.8625854253768921, 0.8721826672554016, 0.8793078660964966, 0.8827977180480957, 0.8979206085205078, 0.9043187499046326, 0.908971905708313, 0.913334310054779, 0.9130434989929199, 0.9182783365249634, 0.924240231513977, 0.9360185861587524, 0.9331103563308716, 0.9402355551719666, 0.9421259164810181, 0.9434346556663513, 0.9476515650749207]</t>
+  </si>
+  <si>
+    <t>[0.7765176892280579, 0.8315543532371521, 0.8480653762817383, 0.8640760779380798, 0.8789193034172058, 0.8857571482658386, 0.8930953741073608, 0.8937625288963318, 0.9007672071456909, 0.9109406471252441, 0.9127751588821411, 0.9174449443817139, 0.9266177415847778, 0.9314543008804321, 0.9317878484725952, 0.9302868843078613, 0.9357905387878418, 0.9434623122215271, 0.9466310739517212, 0.9479653239250183, 0.954136073589325, 0.9528018832206726, 0.9564709663391113, 0.955136775970459, 0.9583055377006531, 0.9643095135688782, 0.9668111801147461, 0.9649766683578491, 0.9643095135688782, 0.9654769897460938]</t>
+  </si>
+  <si>
+    <t>[0.7744793891906738, 0.8348840475082397, 0.8474376201629639, 0.8636833429336548, 0.8710677623748779, 0.8756461143493652, 0.8867228031158447, 0.8871658444404602, 0.901196300983429, 0.9065130949020386, 0.9162605404853821, 0.9195096492767334, 0.9134544134140015, 0.9311770796775818, 0.9276325702667236, 0.9348692893981934, 0.9332447052001953, 0.9424014091491699, 0.9450598359107971, 0.944025993347168, 0.9536257386207581, 0.9531826972961426, 0.9522965550422668, 0.9599763751029968, 0.9551026225090027, 0.963520884513855, 0.9624871015548706, 0.9660316109657288, 0.9664746522903442]</t>
+  </si>
+  <si>
+    <t>[0.7768440842628479, 0.8215063810348511, 0.8320884108543396, 0.8492063283920288, 0.8569872379302979, 0.8622782230377197, 0.8759726285934448, 0.8823529481887817, 0.8946467638015747, 0.9039838314056396, 0.9055399894714355, 0.9112978577613831, 0.9189231395721436, 0.9281045794487, 0.9270152449607849, 0.9335511922836304]</t>
+  </si>
+  <si>
+    <t>[0.7933383584022522, 0.8327025175094604, 0.8508705496788025, 0.8622255921363831, 0.8785768151283264, 0.8784254193305969, 0.8911430835723877, 0.895079493522644, 0.9037092924118042, 0.9053747057914734, 0.9085541367530823, 0.9203633666038513, 0.9206661581993103, 0.9271763563156128, 0.9338380098342896, 0.9368659853935242, 0.9383800029754639, 0.9467070698738098, 0.9432248473167419, 0.9539742469787598, 0.9501892328262329, 0.9491294622421265, 0.955034077167511, 0.9514004588127136]</t>
+  </si>
+  <si>
+    <t>[0.7754424810409546, 0.8280657529830933, 0.8448166847229004, 0.8590391874313354, 0.8599873781204224, 0.8775284290313721, 0.8814791440963745, 0.888590395450592, 0.8998103737831116, 0.9042351245880127, 0.9119784832000732, 0.9197218418121338, 0.9268330931663513, 0.9255688786506653, 0.9315739274024963, 0.9390012621879578]</t>
+  </si>
+  <si>
+    <t>[0.7507944703102112, 0.8255560994148254, 0.8447901010513306, 0.8571667671203613, 0.8564977645874023, 0.8683726191520691, 0.8794112801551819, 0.8847633600234985, 0.8958019614219666, 0.8951329588890076, 0.900652289390564, 0.9131962060928345, 0.9185482263565063, 0.923231303691864, 0.9262418746948242, 0.9324301481246948, 0.9396219849586487, 0.9357752203941345, 0.9453085660934448, 0.9481518864631653, 0.9484863877296448, 0.9525004029273987, 0.9536711573600769, 0.9596922397613525, 0.959357738494873, 0.9615320563316345, 0.9650443196296692, 0.9653788208961487, 0.9652115702629089]</t>
+  </si>
+  <si>
+    <t>[0.7729536294937134, 0.8165265917778015, 0.8339558243751526, 0.8481170535087585, 0.853563666343689, 0.8649237751960754, 0.8728602528572083, 0.8828197717666626, 0.8909119367599487, 0.8916900157928467, 0.9039838314056396, 0.9019607901573181, 0.9148770570755005, 0.9172113537788391, 0.928415834903717, 0.9312169551849365, 0.9318394064903259, 0.9335511922836304]</t>
+  </si>
+  <si>
+    <t>[0.7968115210533142, 0.8316661715507507, 0.8510472178459167, 0.8651140928268433, 0.871834933757782, 0.8758987188339233, 0.881994366645813, 0.8905907869338989, 0.8941856622695923, 0.902782142162323, 0.9071584939956665, 0.9137230515480042, 0.9209128022193909, 0.9276336431503296, 0.9306033253669739, 0.9320099949836731]</t>
+  </si>
+  <si>
+    <t>[0.7859922051429749, 0.8283268213272095, 0.8381323218345642, 0.8463813066482544, 0.8614786267280579, 0.869416356086731, 0.8759533166885376, 0.8814007639884949, 0.8915175199508667, 0.8994552493095398, 0.905525267124176, 0.903968870639801, 0.9195330739021301, 0.9176653623580933, 0.9218677282333374, 0.9277821183204651, 0.9322957396507263, 0.9385213851928711, 0.938832700252533, 0.9402334690093994, 0.9417898654937744, 0.946770429611206, 0.9487937688827515, 0.9537743330001831, 0.9528404474258423, 0.9601556658744812, 0.95875483751297, 0.9603112936019897]</t>
+  </si>
+  <si>
+    <t>[0.7835931181907654, 0.8342903852462769, 0.8572600483894348, 0.8703855872154236, 0.8812140822410583, 0.8943396210670471, 0.8989335298538208, 0.904347836971283, 0.9109106063842773, 0.9189499616622925, 0.9138638377189636, 0.9325676560401917, 0.933552086353302, 0.9340443015098572, 0.9438884258270264, 0.9399507641792297]</t>
+  </si>
+  <si>
+    <t>[0.786375105381012, 0.8215306997299194, 0.834482729434967, 0.8418839573860168, 0.8544995784759521, 0.8622371554374695, 0.8640874624252319, 0.8793944716453552, 0.88158118724823, 0.8886459469795227, 0.904793918132782, 0.9059714078903198, 0.9096720218658447, 0.9187552332878113, 0.9226240515708923, 0.9241379499435425, 0.9318755269050598, 0.9343986511230469, 0.9379310607910156, 0.9362489581108093, 0.945668637752533, 0.9503784775733948, 0.9518923759460449, 0.951724112033844, 0.9485281705856323, 0.9586206674575806, 0.9601345658302307, 0.9656854271888733, 0.9567704200744629, 0.9577796459197998, 0.961816668510437, 0.9661900997161865, 0.9641715884208679, 0.965349018573761, 0.9628258943557739]</t>
+  </si>
+  <si>
+    <t>[0.7803138494491577, 0.8315105438232422, 0.8483119606971741, 0.863528311252594, 0.8747820854187012, 0.883024275302887, 0.8931685090065002, 0.8979235887527466, 0.9087018370628357, 0.9125059247016907, 0.9180535674095154, 0.905214786529541, 0.9251862168312073, 0.9367570281028748, 0.9378665685653687, 0.9216991662979126, 0.9419876337051392, 0.9446821808815002, 0.9503883123397827]</t>
+  </si>
+  <si>
+    <t>[0.7953714728355408, 0.8376979231834412, 0.852770984172821, 0.8593178987503052, 0.8640377521514893, 0.8751522302627563, 0.8830694556236267, 0.8900730609893799, 0.8946406841278076, 0.8985992670059204, 0.9080389738082886, 0.9103227853775024, 0.9205237627029419, 0.9232643246650696, 0.9296589493751526, 0.9320949912071228, 0.9292021989822388, 0.9348355531692505, 0.9447320103645325, 0.9465590715408325, 0.9441230297088623, 0.9453410506248474, 0.9538672566413879]</t>
+  </si>
+  <si>
+    <t>[0.7639634609222412, 0.8025532960891724, 0.8196721076965332, 0.8385318517684937, 0.843319296836853, 0.8604381084442139, 0.8642100691795349, 0.8758160471916199, 0.8853909969329834, 0.8936602473258972, 0.888002336025238, 0.9039605259895325, 0.9103438258171082, 0.9184679985046387, 0.9210793375968933, 0.9232555031776428, 0.9352966547012329, 0.9260119199752808, 0.9344262480735779]</t>
+  </si>
+  <si>
+    <t>[0.7733577489852905, 0.8247218132019043, 0.8416399955749512, 0.8439262509346008, 0.8577960729598999, 0.8701417446136475, 0.8680078983306885, 0.8834019303321838, 0.8826398253440857, 0.8837067484855652, 0.8827922344207764, 0.8885840773582458, 0.9071787595748901, 0.9100747108459473, 0.908093273639679, 0.9041304588317871, 0.9134278297424316, 0.9073312282562256, 0.9227252006530762, 0.9196768999099731, 0.9300411343574524, 0.9311080574989319, 0.9272976517677307, 0.932327389717102, 0.9294314980506897, 0.929279088973999]</t>
+  </si>
+  <si>
+    <t>[0.7912359833717346, 0.8269034624099731, 0.8414616584777832, 0.8528169989585876, 0.8599504828453064, 0.8637356162071228, 0.8777114748954773, 0.884844958782196, 0.8918328881263733, 0.8986752033233643, 0.9126510620117188, 0.9135245084762573, 0.9177464246749878, 0.9167273044586182, 0.9260445237159729, 0.9270636439323425, 0.9375454783439636, 0.9397292137145996, 0.9440966844558716, 0.9451157450675964]</t>
+  </si>
+  <si>
+    <t>[0.803123950958252, 0.8386542797088623, 0.8508410453796387, 0.8649159073829651, 0.8728115558624268, 0.8781325221061707, 0.8934088349342346, 0.8970133662223816, 0.893923819065094, 0.8978716135025024, 0.8911774754524231, 0.9016478061676025, 0.916580855846405, 0.9229316711425781, 0.923789918422699, 0.9364916086196899]</t>
+  </si>
+  <si>
+    <t>[0.7816464900970459, 0.8270876407623291, 0.8418412804603577, 0.8536441326141357, 0.8652995228767395, 0.8740041255950928, 0.8779876232147217, 0.8937739729881287, 0.8928887844085693, 0.9012983441352844, 0.9046916365623474, 0.9132487177848816, 0.9139864444732666, 0.9259368777275085, 0.9278548359870911, 0.9346414804458618]</t>
+  </si>
+  <si>
+    <t>[0.7770364880561829, 0.818463921546936, 0.826997697353363, 0.8510473370552063, 0.8640806674957275, 0.871373176574707, 0.8747866749763489, 0.8865787386894226, 0.8906129002571106, 0.895733118057251, 0.9010085463523865, 0.9098526239395142, 0.9216446876525879, 0.9194724559783936, 0.9166796207427979, 0.9262994527816772, 0.9332816004753113, 0.9349883794784546, 0.9430566430091858, 0.939643144607544, 0.9463149905204773]</t>
+  </si>
+  <si>
+    <t>[0.7761286497116089, 0.8203462958335876, 0.831632673740387, 0.8521954417228699, 0.8614718317985535, 0.871675968170166, 0.8809523582458496, 0.8882189393043518, 0.8927025198936462, 0.8985776305198669, 0.905689537525177, 0.9094001054763794, 0.9169758558273315, 0.9197587966918945, 0.9299628734588623, 0.930272102355957, 0.9369202256202698, 0.9349103569984436, 0.9440321326255798, 0.939393937587738, 0.9384663105010986, 0.9522263407707214, 0.948515772819519]</t>
+  </si>
+  <si>
+    <t>[0.7573820352554321, 0.8176560401916504, 0.841248095035553, 0.8511415719985962, 0.8619482517242432, 0.8722983002662659, 0.8768645524978638, 0.8818873763084412, 0.8992389440536499, 0.8969558477401733, 0.8998478055000305, 0.9095890522003174, 0.9149162769317627, 0.9207001328468323, 0.9266362190246582, 0.9304413795471191]</t>
+  </si>
+  <si>
+    <t>[0.7775959372520447, 0.8182088732719421, 0.8275810480117798, 0.8424575924873352, 0.8439452648162842, 0.8579291701316833, 0.8678964376449585, 0.8747396469116211, 0.8793513774871826, 0.8842606544494629, 0.8800951838493347, 0.8948229551315308, 0.905236542224884, 0.8937816023826599, 0.9040464162826538, 0.9190717339515686, 0.8937816023826599, 0.9233859181404114, 0.9205593466758728]</t>
+  </si>
+  <si>
+    <t>[0.8026766180992126, 0.8348895311355591, 0.8465608358383179, 0.8529411554336548, 0.8616557717323303, 0.8731715083122253, 0.8787737488746643, 0.8859321475028992, 0.8952692151069641, 0.8934018015861511, 0.9055399894714355, 0.9080298542976379, 0.9134765267372131, 0.920634925365448, 0.9333955645561218, 0.9232804179191589, 0.9307500720024109, 0.9391534328460693, 0.9357298612594604, 0.9458450078964233, 0.9484905004501343, 0.9554933309555054, 0.9534702897071838, 0.9551820755004883, 0.9601618647575378, 0.9610955715179443, 0.9617180228233337, 0.9603174328804016, 0.9612511396408081, 0.9654528498649597]</t>
+  </si>
+  <si>
+    <t>[0.7834961414337158, 0.8203819990158081, 0.8298586010932922, 0.8477911949157715, 0.8485202193260193, 0.8606210947036743, 0.8683481812477112, 0.8776789903640747, 0.8867181539535522, 0.8903630375862122, 0.8989648818969727, 0.9005686044692993, 0.9104825854301453, 0.9138358235359192, 0.9132526516914368, 0.9247703552246094]</t>
+  </si>
+  <si>
+    <t>[0.7597899436950684, 0.8030007481575012, 0.8291072845458984, 0.8405101299285889, 0.8480120301246643, 0.8628657460212708, 0.8712677955627441, 0.8745686411857605, 0.8757689595222473, 0.8961740732192993, 0.8951237797737122, 0.9029257297515869, 0.9059264659881592, 0.9101275205612183, 0.9201800227165222, 0.9221305251121521, 0.931432843208313, 0.9380345344543457, 0.9315828680992126, 0.9398349523544312, 0.9432858228683472, 0.9407351613044739, 0.9497374296188354, 0.9543886184692383]</t>
+  </si>
+  <si>
+    <t>[0.7768998146057129, 0.8209482431411743, 0.8367518782615662, 0.8522192239761353, 0.8631472587585449, 0.874579668045044, 0.8759247064590454, 0.8902152180671692, 0.8994619846343994, 0.8992938995361328, 0.9098857045173645, 0.9129118919372559, 0.9191324710845947, 0.9214861989021301, 0.935104250907898, 0.9339273571968079, 0.9315736293792725]</t>
+  </si>
+  <si>
+    <t>[0.7856915593147278, 0.8209856748580933, 0.8403815627098083, 0.85914146900177, 0.865500807762146, 0.8764705657958984, 0.8745627999305725, 0.8961844444274902, 0.888553261756897, 0.8955484628677368, 0.9034976363182068, 0.908267080783844, 0.9170111417770386, 0.9200317859649658, 0.9246422648429871, 0.9338632822036743, 0.9292528033256531, 0.9308425784111023, 0.9435611963272095, 0.9354531168937683, 0.9476947784423828, 0.9537360668182373, 0.9476947784423828, 0.9499205350875854, 0.9502384662628174, 0.9597774147987366, 0.9620031714439392]</t>
+  </si>
+  <si>
+    <t>[0.7901498675346375, 0.8314469456672668, 0.8487305045127869, 0.8557662963867188, 0.8698378801345825, 0.8780972957611084, 0.882379949092865, 0.8910982012748718, 0.8966044783592224, 0.8950749635696411, 0.9092994928359985, 0.9108290076255798, 0.9158763885498047, 0.9195472598075867, 0.9360660910606384, 0.937901496887207, 0.9394310116767883, 0.9458550214767456, 0.9472315907478333, 0.9501376748085022]</t>
+  </si>
+  <si>
+    <t>[0.7812790870666504, 0.8148090839385986, 0.8374728560447693, 0.843837320804596, 0.8550139665603638, 0.8613784313201904, 0.8674324750900269, 0.8727103471755981, 0.8814032673835754, 0.8880782127380371, 0.8935113549232483, 0.9045327305793762, 0.903911828994751, 0.912294328212738, 0.9136914014816284, 0.91990065574646, 0.9254889488220215, 0.9275069832801819, 0.9310773015022278, 0.9410120844841003]</t>
+  </si>
+  <si>
+    <t>[0.7868276238441467, 0.8282396197319031, 0.8415342569351196, 0.8529950976371765, 0.8592603802680969, 0.8768337368965149, 0.8835574388504028, 0.8921149373054504, 0.8901283740997314, 0.9012836217880249, 0.9067848324775696, 0.906173586845398, 0.9167175889015198, 0.9197738170623779, 0.9342909455299377, 0.9353606104850769, 0.9375, 0.9365831017494202, 0.9396393895149231, 0.9410146474838257, 0.9506418108940125, 0.9541564583778381, 0.9506418108940125, 0.9533924460411072, 0.9593520760536194, 0.9593520760536194, 0.9654645323753357]</t>
+  </si>
+  <si>
+    <t>[0.7752874493598938, 0.8177849054336548, 0.8365594744682312, 0.8530054092407227, 0.8653762340545654, 0.8720710277557373, 0.8840052485466003, 0.8857517242431641, 0.8978314399719238, 0.9048173427581787, 0.9071459770202637, 0.916023850440979, 0.9135497212409973, 0.929267942905426, 0.9209722280502319, 0.9301411509513855, 0.9401834011077881, 0.9413477182388306, 0.9417843222618103, 0.9496434330940247, 0.9513899087905884, 0.9499344825744629, 0.957793653011322, 0.956192672252655, 0.9579391479492188, 0.9553194642066956, 0.9672536849975586, 0.9636151790618896, 0.9601222276687622, 0.9663804173469543, 0.9672536849975586, 0.9646339416503906]</t>
+  </si>
+  <si>
+    <t>[0.7845945358276367, 0.8240880370140076, 0.8482062220573425, 0.8575519919395447, 0.8644859790802002, 0.8712692260742188, 0.8774495124816895, 0.884082019329071, 0.8914681673049927, 0.8965933322906494, 0.9029243588447571, 0.903979480266571, 0.9193548560142517, 0.9211636781692505, 0.9176967144012451, 0.9276454448699951, 0.9315646886825562]</t>
+  </si>
+  <si>
+    <t>[0.7855440974235535, 0.8440032005310059, 0.8521048426628113, 0.8671962022781372, 0.8670373558998108, 0.8735504150390625, 0.8883240818977356, 0.8962668776512146, 0.9021445512771606, 0.9123113751411438, 0.91993647813797, 0.9216838479042053, 0.9316918253898621, 0.9320095181465149, 0.9315329790115356, 0.9444003105163574, 0.9486894607543945, 0.9499602913856506, 0.9472597241401672, 0.9505957365036011, 0.9593328237533569, 0.9583796858787537, 0.9642573595046997, 0.9618744850158691, 0.9677521586418152, 0.9658458828926086, 0.9707704782485962, 0.968546450138092, 0.9677521586418152, 0.9671167731285095, 0.9742652773857117, 0.9725178480148315, 0.9758538603782654, 0.9723590016365051]</t>
+  </si>
+  <si>
+    <t>[0.7747457027435303, 0.8314225673675537, 0.8396576642990112, 0.8532213568687439, 0.8579040765762329, 0.8695301413536072, 0.8863232731819153, 0.89213627576828, 0.8969804644584656, 0.9040852785110474, 0.9110285639762878, 0.9100597500801086, 0.9213628172874451, 0.9266914129257202, 0.9310511946678162, 0.9365412592887878, 0.9362183213233948, 0.9436460733413696, 0.9415469169616699, 0.9557564854621887, 0.954626202583313]</t>
+  </si>
+  <si>
+    <t>[0.7807568311691284, 0.8258005380630493, 0.835759162902832, 0.8527654409408569, 0.8618047833442688, 0.8682396411895752, 0.8844798803329468, 0.8922935724258423, 0.8950513005256653, 0.9033246636390686, 0.9031714200973511, 0.9151217937469482, 0.9189520478248596, 0.9247739911079407, 0.9318216443061829, 0.9387161135673523, 0.9370307922363281, 0.9390225410461426, 0.9449977278709412, 0.9434655904769897, 0.9497472047805786, 0.9485215544700623, 0.95587557554245]</t>
+  </si>
+  <si>
+    <t>[0.7670588493347168, 0.8269804120063782, 0.8374902009963989, 0.8453333377838135, 0.8500392436981201, 0.8658823370933533, 0.8748235106468201, 0.8756078481674194, 0.8931764960289001, 0.8925490379333496, 0.902274489402771, 0.909333348274231, 0.916549026966095, 0.9195294380187988, 0.9259607791900635, 0.9303529262542725, 0.9283137321472168, 0.9414901733398438, 0.9447843432426453, 0.9430588483810425, 0.9515293836593628, 0.9466666579246521, 0.9394509792327881]</t>
+  </si>
+  <si>
+    <t>[0.7691197395324707, 0.820907473564148, 0.8369408249855042, 0.85489821434021, 0.8614718317985535, 0.8783068656921387, 0.8863235712051392, 0.8919352293014526, 0.8981882333755493, 0.9110149145126343, 0.9174282550811768, 0.9145422577857971, 0.9196729063987732, 0.9267275929450989, 0.9316979050636292, 0.9403559565544128, 0.936026930809021, 0.9392336010932922, 0.9461279511451721, 0.9543049335479736, 0.9535033106803894]</t>
+  </si>
+  <si>
+    <t>[0.7833358645439148, 0.8307970762252808, 0.8396866321563721, 0.8555070161819458, 0.8668072819709778, 0.8711767196655273, 0.8851891160011292, 0.8894078731536865, 0.8945306539535522, 0.9035708904266357, 0.903118908405304, 0.913063108921051, 0.919843316078186, 0.9266234636306763, 0.9290341734886169, 0.9285821914672852, 0.9299381971359253, 0.9343076944351196, 0.9422932267189026, 0.9431972503662109, 0.9522374272346497, 0.952538788318634, 0.9546481966972351, 0.9529908299446106, 0.9647430777549744, 0.9587162733078003, 0.9603736400604248]</t>
+  </si>
+  <si>
+    <t>[0.7938082218170166, 0.8253682255744934, 0.8390442132949829, 0.8515178561210632, 0.8681995868682861, 0.8760144114494324, 0.8776675462722778, 0.8925458192825317, 0.8976555466651917, 0.9036669731140137, 0.9108806848526001, 0.9140366911888123, 0.9198977947235107, 0.9283137917518616, 0.9388337731361389, 0.941088080406189, 0.9398857951164246, 0.945746898651123, 0.9478509426116943, 0.9464983344078064, 0.9564172029495239, 0.9525097608566284, 0.9540126323699951, 0.9601743221282959]</t>
+  </si>
+  <si>
+    <t>[0.7805059552192688, 0.8218749761581421, 0.8413690328598022, 0.8565475940704346, 0.8635416626930237, 0.8772321343421936, 0.8819940686225891, 0.890625, 0.893750011920929, 0.8961309790611267, 0.9114583134651184, 0.9127976298332214, 0.918749988079071, 0.929315447807312, 0.9330357313156128, 0.9339285492897034]</t>
+  </si>
+  <si>
+    <t>[0.7640369534492493, 0.815209686756134, 0.8332622647285461, 0.8470504879951477, 0.8538734912872314, 0.8658137917518616, 0.874626874923706, 0.879886269569397, 0.8918265700340271, 0.9006396532058716, 0.9029139876365662, 0.911442756652832, 0.9149964451789856, 0.9171286225318909, 0.9226723313331604, 0.9255152940750122, 0.9333333373069763, 0.9360341429710388, 0.9390192031860352, 0.943425714969635]</t>
+  </si>
+  <si>
+    <t>[0.7640108466148376, 0.8216509819030762, 0.827558696269989, 0.8467188477516174, 0.8553408980369568, 0.8705093264579773, 0.8738623857498169, 0.8815264105796814, 0.8851987719535828, 0.8882324695587158, 0.8896694779396057, 0.8995689153671265, 0.9070732593536377, 0.9136196970939636, 0.9216030836105347, 0.919687032699585, 0.9319815039634705, 0.9327797889709473, 0.934695839881897, 0.935174822807312, 0.944595217704773, 0.9458726048469543, 0.947628915309906, 0.9463515877723694, 0.9528979659080505, 0.9528979659080505]</t>
+  </si>
+  <si>
+    <t>[0.7562946677207947, 0.7968604564666748, 0.8169101476669312, 0.8319863080978394, 0.8366490602493286, 0.8501709699630737, 0.8576313257217407, 0.8680447340011597, 0.8608952164649963, 0.8820329308509827, 0.8904258608818054, 0.8885607719421387, 0.8949331641197205, 0.9135841131210327, 0.9184022545814514, 0.9064345955848694, 0.9221324324607849]</t>
+  </si>
+  <si>
+    <t>[0.8084979057312012, 0.8417115211486816, 0.8444045186042786, 0.8610113859176636, 0.8687911629676819, 0.8780670166015625, 0.8791143298149109, 0.8895870447158813, 0.8951227068901062, 0.9030520915985107, 0.9054458141326904, 0.9090365171432495, 0.9172651171684265, 0.9232495427131653, 0.9250448942184448, 0.9323758482933044, 0.931926965713501, 0.937462568283081, 0.938210666179657, 0.9449431300163269, 0.9480849504470825, 0.9474865198135376, 0.9513764381408691, 0.9542190432548523, 0.9564632177352905, 0.9533213376998901, 0.9603530764579773, 0.96499103307724, 0.9655894637107849, 0.9618492126464844]</t>
+  </si>
+  <si>
+    <t>[0.7735035419464111, 0.8117992281913757, 0.8276695013046265, 0.8409522175788879, 0.8502673506736755, 0.8609625697135925, 0.8737277984619141, 0.8792479038238525, 0.8820079565048218, 0.9004657864570618, 0.9030532836914062, 0.9146109819412231, 0.9130584597587585, 0.9015007615089417, 0.9208211302757263, 0.9237536787986755, 0.9192686080932617, 0.9332413077354431, 0.9332413077354431, 0.9468690752983093, 0.9430739879608154, 0.94479900598526, 0.9522166848182678, 0.947904109954834]</t>
+  </si>
+  <si>
+    <t>[0.7866449356079102, 0.831107497215271, 0.8447882533073425, 0.8579804301261902, 0.8674266934394836, 0.8754071593284607, 0.8776872754096985, 0.8920195698738098, 0.8947882652282715, 0.9027687311172485, 0.9050488471984863, 0.9110749363899231, 0.9149836897850037, 0.9242671132087708, 0.9281758666038513, 0.9314332008361816, 0.9345276951789856]</t>
+  </si>
+  <si>
+    <t>[0.785937488079071, 0.8378124833106995, 0.8556249737739563, 0.858593761920929, 0.8728125095367432, 0.8774999976158142, 0.88671875, 0.897656261920929, 0.9026562571525574, 0.9060937762260437, 0.907031238079071, 0.9181249737739563, 0.9225000143051147, 0.9278125166893005, 0.9317187666893005, 0.9271875023841858, 0.9339062571525574, 0.9415624737739563]</t>
+  </si>
+  <si>
+    <t>[0.7830217480659485, 0.8170395493507385, 0.8360404372215271, 0.8527428507804871, 0.8604045510292053, 0.8680661916732788, 0.8722034692764282, 0.880018413066864, 0.8935028910636902, 0.8973337411880493, 0.9056083559989929, 0.9079068303108215, 0.9097456336021423, 0.9272142052650452, 0.9252221584320068, 0.9342629313468933, 0.9334967732429504, 0.9356420636177063, 0.9377872943878174, 0.9472877979278564, 0.9457554221153259]</t>
+  </si>
+  <si>
+    <t>[0.7788176536560059, 0.8232725262641907, 0.8318514823913574, 0.8482295870780945, 0.8555607795715332, 0.8588363528251648, 0.8705350160598755, 0.8794260025024414, 0.8816097378730774, 0.8923724889755249, 0.8986117839813232, 0.9034472107887268, 0.9110903143882751, 0.9174855947494507, 0.9209171533584595, 0.922944962978363, 0.9270004630088806, 0.9347995519638062, 0.9404149055480957, 0.9357354640960693, 0.9443144798278809, 0.9399469494819641, 0.9438465237617493, 0.95024174451828, 0.9542973041534424, 0.953985333442688, 0.9505537152290344, 0.9535173773765564, 0.9542973041534424, 0.9613164663314819, 0.9673997759819031, 0.9602246284484863, 0.9639681577682495, 0.9622523784637451, 0.9663078784942627]</t>
+  </si>
+  <si>
+    <t>[0.7711864113807678, 0.8205384016036987, 0.8310070037841797, 0.8477899432182312, 0.8497839570045471, 0.8575938940048218, 0.8617480993270874, 0.871718168258667, 0.8841807842254639, 0.8866733312606812, 0.8934862017631531, 0.8929877281188965, 0.9029577970504761, 0.9026254415512085, 0.9071120023727417, 0.9172482490539551]</t>
+  </si>
+  <si>
+    <t>[0.7676164507865906, 0.8125, 0.8252144455909729, 0.8417585492134094, 0.8520220518112183, 0.8648896813392639, 0.8711703419685364, 0.8763786554336548, 0.884650707244873, 0.8932291865348816, 0.8962928652763367, 0.8993566036224365, 0.9088541865348816, 0.9120710492134094, 0.9154411554336548, 0.9244791865348816, 0.930912971496582, 0.9367340803146362, 0.9399510025978088, 0.9358149766921997, 0.9462316036224365, 0.9439338445663452, 0.946537971496582, 0.954350471496582, 0.946537971496582]</t>
+  </si>
+  <si>
+    <t>[0.781361997127533, 0.8265544772148132, 0.8355929851531982, 0.8489948511123657, 0.8583450317382812, 0.8715910911560059, 0.8807854056358337, 0.8893563747406006, 0.8920056223869324, 0.8969923853874207, 0.8993299007415771, 0.9127318263053894, 0.9153810143470764, 0.9152252078056335, 0.9248870015144348, 0.9329904913902283, 0.9300296306610107, 0.9373539090156555, 0.9420289993286133, 0.9504441618919373, 0.9470157623291016, 0.9534050226211548, 0.9471715688705444, 0.9560542106628418, 0.9583917856216431, 0.9549633860588074, 0.9562100768089294, 0.959794282913208]</t>
+  </si>
+  <si>
+    <t>[0.7970468401908875, 0.8251649141311646, 0.8476279973983765, 0.8518692851066589, 0.8653785586357117, 0.8697769641876221, 0.8825007677078247, 0.886584997177124, 0.8927112817764282, 0.8972667455673218, 0.9038642644882202, 0.9129751920700073, 0.917373538017273, 0.9228715300559998, 0.928840696811676, 0.9283694624900818, 0.9417216181755066, 0.9415645599365234, 0.9431353807449341, 0.9492617249488831, 0.9505183696746826]</t>
+  </si>
+  <si>
+    <t>[0.8026528358459473, 0.8374312520027161, 0.8529602289199829, 0.8657392263412476, 0.8725331425666809, 0.8772242069244385, 0.8866062760353088, 0.8934001922607422, 0.8940472602844238, 0.9073115587234497, 0.912973165512085, 0.9173406958580017, 0.9158848524093628, 0.9301196932792664, 0.9346489906311035, 0.9356195330619812, 0.9238110780715942, 0.9453251361846924, 0.9501779079437256, 0.9547072052955627, 0.9509867429733276, 0.9548689723014832, 0.960368812084198, 0.9611775875091553, 0.9595600366592407, 0.9618246555328369, 0.9645745754241943, 0.9653833508491516, 0.9682950377464294, 0.9639275074005127, 0.9725008010864258, 0.972177267074585, 0.960368812084198]</t>
+  </si>
+  <si>
+    <t>[0.8033333420753479, 0.8448485136032104, 0.8598484992980957, 0.8683333396911621, 0.8736363649368286, 0.8824242353439331, 0.8912121057510376, 0.892575740814209, 0.9063636660575867, 0.9125757813453674, 0.9153030514717102, 0.9206060767173767, 0.9284848570823669, 0.9248484969139099, 0.939242422580719, 0.9380303025245667]</t>
+  </si>
+  <si>
+    <t>[0.7784072756767273, 0.8253480195999146, 0.8405632972717285, 0.8389446139335632, 0.8546454906463623, 0.8624150156974792, 0.8627387285232544, 0.8601489067077637, 0.8756878972053528, 0.8790870904922485, 0.8878277540206909, 0.8939786553382874, 0.8973777890205383, 0.8980252742767334, 0.9074134230613708, 0.9148591756820679, 0.9004532098770142, 0.9242473244667053, 0.9109744429588318, 0.9189057946205139, 0.9342829585075378, 0.92279052734375, 0.9397863149642944, 0.9326642751693726, 0.9449660181999207, 0.946422815322876, 0.9485270380973816, 0.9391388893127441, 0.9354159832000732, 0.954030454158783, 0.9609906077384949, 0.9606668949127197, 0.9493363499641418, 0.953868567943573, 0.9668177366256714, 0.9664940237998962, 0.9619618058204651, 0.9609906077384949, 0.94221431016922, 0.9611524939537048, 0.9687601327896118, 0.9532210826873779, 0.9603431820869446, 0.946099042892456, 0.9588863849639893, 0.9651991128921509, 0.9711880683898926, 0.9677889347076416, 0.96147620677948]</t>
+  </si>
+  <si>
+    <t>[0.752095639705658, 0.8061161041259766, 0.8309531211853027, 0.8415088653564453, 0.8525302410125732, 0.8588947653770447, 0.871623694896698, 0.8748835921287537, 0.8837317824363708, 0.8888543844223022, 0.9025147557258606, 0.9022042751312256, 0.9090344905853271, 0.9150884747505188, 0.919590175151825, 0.9261099100112915, 0.9327848553657532, 0.931698203086853, 0.9357342720031738, 0.9470661282539368, 0.9467556476593018, 0.9447376728057861, 0.9459795355796814, 0.9478422999382019, 0.9537410736083984]</t>
+  </si>
+  <si>
+    <t>[0.7617486119270325, 0.830288827419281, 0.8488680720329285, 0.8610460758209229, 0.8755659461021423, 0.8796253204345703, 0.8832162618637085, 0.8992974162101746, 0.8955503702163696, 0.9035128951072693, 0.9072599411010742, 0.9136611819267273, 0.9189695715904236, 0.9220921397209167, 0.9366120100021362, 0.9364559054374695, 0.9411397576332092, 0.940827488899231, 0.9450429081916809, 0.9469164609909058, 0.9433255195617676, 0.9503512978553772, 0.9501951336860657, 0.9558157920837402]</t>
+  </si>
+  <si>
+    <t>[0.778803288936615, 0.8271034955978394, 0.8387940526008606, 0.8492539525032043, 0.8612521290779114, 0.8720197081565857, 0.8795570135116577, 0.8875557780265808, 0.8874019384384155, 0.9046300649642944, 0.9046300649642944, 0.9118596911430359, 0.9173973202705383, 0.917243480682373, 0.9249346256256104, 0.9293954968452454, 0.9327795505523682, 0.9369328022003174, 0.9421627521514893, 0.9472388625144958, 0.9423165917396545, 0.9395477771759033, 0.9443162679672241, 0.9569296836853027, 0.9629287719726562]</t>
+  </si>
+  <si>
+    <t>[0.7816317081451416, 0.8247624635696411, 0.831096351146698, 0.8351681232452393, 0.8537173867225647, 0.8592972159385681, 0.8689488768577576, 0.8795053362846375, 0.8811642527580261, 0.8837279677391052, 0.8849344253540039, 0.8989594578742981, 0.8977530002593994, 0.904237687587738, 0.9135876893997192, 0.9265570640563965, 0.9214296340942383, 0.926255464553833, 0.9288191795349121, 0.9365103244781494, 0.9426934123039246, 0.9405820965766907, 0.9443522691726685, 0.9458603262901306, 0.9466143846511841, 0.9521942138671875, 0.9562660455703735, 0.9515910148620605, 0.9524958729743958, 0.9564168453216553, 0.964409589767456, 0.9452571272850037, 0.9636555314064026]</t>
+  </si>
+  <si>
+    <t>[0.7857251763343811, 0.8254451155662537, 0.8440115451812744, 0.8580124974250793, 0.8706437349319458, 0.8771876692771912, 0.8878405094146729, 0.8943844437599182, 0.8952975273132324, 0.9121899008750916, 0.9173641800880432, 0.9232993721961975, 0.9252777099609375, 0.9348652958869934, 0.9339522123336792, 0.9377568364143372, 0.9406483173370361, 0.9471921920776367, 0.953127384185791, 0.9532795548439026]</t>
+  </si>
+  <si>
+    <t>[0.7953748106956482, 0.8393939137458801, 0.8500797152519226, 0.8652312755584717, 0.8677830696105957, 0.8813397288322449, 0.8888357281684875, 0.8956937789916992, 0.8985645771026611, 0.9059011340141296, 0.9135566353797913, 0.9218500852584839, 0.9264752864837646, 0.9296650886535645, 0.9298245906829834, 0.9362041354179382, 0.9419457912445068, 0.9437001347541809, 0.9464114904403687, 0.9535885453224182, 0.9489633440971375, 0.9555023908615112, 0.9590111374855042, 0.95885169506073, 0.960606038570404, 0.9631578922271729]</t>
+  </si>
+  <si>
+    <t>[0.7900388836860657, 0.8280155658721924, 0.8507393002510071, 0.8583657741546631, 0.8683268427848816, 0.8745525479316711, 0.8753307461738586, 0.8809338808059692, 0.8905836343765259, 0.9013229608535767, 0.9042801260948181, 0.9083268642425537, 0.9164202213287354, 0.9201556444168091, 0.9266926050186157, 0.9293385148048401, 0.9369649887084961, 0.9413229823112488, 0.9422568082809448, 0.9456809163093567, 0.9371206164360046, 0.9537743330001831, 0.9551751017570496, 0.9520622491836548, 0.95564204454422, 0.9562646150588989, 0.9584435820579529, 0.9654474854469299, 0.9609338641166687, 0.9668482542037964, 0.9670038819313049, 0.9680933952331543]</t>
+  </si>
+  <si>
+    <t>[0.8019500374794006, 0.8260207176208496, 0.8394271731376648, 0.8549664616584778, 0.8606032729148865, 0.8688299655914307, 0.8703534603118896, 0.8828458189964294, 0.8893967270851135, 0.8991468548774719, 0.9035648703575134, 0.9076782464981079, 0.9099634289741516, 0.9184948205947876, 0.9157525897026062, 0.9227604866027832, 0.9226081371307373, 0.934948205947876]</t>
+  </si>
+  <si>
+    <t>[0.7731761932373047, 0.8214399218559265, 0.834820032119751, 0.8451735973358154, 0.8588722348213196, 0.8580757975578308, 0.8689072728157043, 0.8798980712890625, 0.8864287734031677, 0.893437385559082, 0.8916852474212646, 0.9080917239189148, 0.91111820936203, 0.9182860851287842, 0.9205160737037659, 0.9233832359313965, 0.9299139976501465, 0.9372411370277405, 0.9241796731948853, 0.9394711852073669]</t>
+  </si>
+  <si>
+    <t>[0.7784221172332764, 0.8245078325271606, 0.8444986939430237, 0.8515183925628662, 0.858232855796814, 0.8773081302642822, 0.8815809488296509, 0.8852434158325195, 0.8939417004585266, 0.8965359330177307, 0.9073706865310669, 0.909964919090271, 0.9156111478805542, 0.924767255783081, 0.9265984892845154, 0.9354494214057922, 0.9310239553451538]</t>
+  </si>
+  <si>
+    <t>[0.7626662254333496, 0.8196643590927124, 0.8392969965934753, 0.8478467464447021, 0.8549715280532837, 0.8736541867256165, 0.877770721912384, 0.883787214756012, 0.8951868414878845, 0.9000949859619141, 0.9086447358131409, 0.909119725227356, 0.9225775599479675, 0.9175111055374146, 0.9203609824180603, 0.933502197265625]</t>
+  </si>
+  <si>
+    <t>[0.795584499835968, 0.826715350151062, 0.8397395014762878, 0.845139741897583, 0.853875458240509, 0.8656289577484131, 0.8648348450660706, 0.8730940222740173, 0.8823062181472778, 0.8926302194595337, 0.8953303694725037, 0.9045425653457642, 0.9113723039627075, 0.9139136075973511, 0.9259847402572632, 0.9174078702926636, 0.933290958404541, 0.936308741569519, 0.932973325252533, 0.9405971765518188, 0.9458386301994324, 0.947744607925415]</t>
+  </si>
+  <si>
+    <t>[0.7668112516403198, 0.8221257925033569, 0.8315773010253906, 0.8455221652984619, 0.850635290145874, 0.8701580166816711, 0.8732569217681885, 0.8847226500511169, 0.888441264629364, 0.8960334658622742, 0.9076541662216187, 0.9062596559524536, 0.9186550974845886, 0.9223737120628357, 0.9188100695610046, 0.9339944124221802, 0.9347691535949707, 0.9344592690467834, 0.9389525651931763, 0.9479392766952515, 0.9470096230506897]</t>
+  </si>
+  <si>
+    <t>[0.7506792545318604, 0.804538905620575, 0.8280326128005981, 0.8452932834625244, 0.8528048396110535, 0.8615950345993042, 0.8740610480308533, 0.8841297626495361, 0.889244019985199, 0.9012306332588196, 0.9073038101196289, 0.910340428352356, 0.9160939455032349, 0.9258430600166321, 0.9287198185920715, 0.9317564368247986, 0.9394278526306152]</t>
+  </si>
+  <si>
+    <t>[0.7824274301528931, 0.82323157787323, 0.837378978729248, 0.8434847593307495, 0.8507818579673767, 0.861355185508728, 0.8695458173751831, 0.8759493827819824, 0.8878629803657532, 0.8897989392280579, 0.8935219645500183, 0.9021593332290649, 0.9046909809112549, 0.914519727230072, 0.9241995811462402, 0.9264333844184875, 0.9259865880012512, 0.9347729086875916, 0.9423678517341614, 0.9346239566802979, 0.9389426708221436, 0.9539836049079895, 0.953536868095398, 0.952792227268219, 0.9437081217765808, 0.9566642045974731, 0.9630677700042725, 0.9599404335021973, 0.9609828591346741, 0.9600893259048462, 0.9614296555519104, 0.9626209735870361]</t>
+  </si>
+  <si>
+    <t>[0.8166134357452393, 0.8217252492904663, 0.8268370628356934, 0.8281149864196777, 0.8217252492904663, 0.8332268595695496, 0.8223642110824585, 0.8281149864196777, 0.8376996517181396, 0.8313099145889282, 0.8319488763809204, 0.8287540078163147, 0.8217252492904663, 0.8287540078163147, 0.8313099145889282, 0.839616596698761, 0.8178913593292236, 0.8370606899261475, 0.8325878381729126, 0.8178913593292236, 0.8370606899261475, 0.8242811560630798, 0.8421725034713745, 0.8146964907646179, 0.8236421942710876, 0.8351437449455261, 0.8345047831535339, 0.840255618095398, 0.8319488763809204, 0.8357827663421631, 0.8261981010437012, 0.8428115248680115, 0.8408945798873901, 0.8268370628356934, 0.8300319314002991, 0.8338658213615417, 0.8281149864196777, 0.8287540078163147, 0.8230031728744507, 0.8223642110824585, 0.8178913593292236, 0.8204472661018372, 0.8325878381729126, 0.8281149864196777, 0.824920117855072, 0.8191693425178528, 0.8281149864196777]</t>
+  </si>
+  <si>
+    <t>[0.7339181303977966, 0.75, 0.753654956817627, 0.7551169395446777, 0.75, 0.75, 0.7587719559669495, 0.7558479309082031, 0.7580409646034241, 0.761695921421051, 0.7456140518188477, 0.7638888955116272, 0.7609649300575256, 0.7733917832374573, 0.7638888955116272, 0.7587719559669495, 0.7792397737503052, 0.753654956817627, 0.7675438523292542, 0.7624269127845764, 0.7602339386940002, 0.7558479309082031, 0.7755848169326782, 0.7434210777282715, 0.7397660613059998, 0.7638888955116272, 0.7609649300575256, 0.7682748436927795, 0.7573099136352539, 0.7478070259094238, 0.7573099136352539, 0.7485380172729492]</t>
+  </si>
+  <si>
+    <t>[0.8596610426902771, 0.8542372584342957, 0.8630508184432983, 0.849491536617279, 0.8569491505622864, 0.8610169291496277, 0.8738983273506165, 0.8596610426902771, 0.8352542519569397, 0.8583050966262817, 0.8542372584342957, 0.8603389859199524, 0.8677965998649597, 0.8562712073326111, 0.8501694798469543, 0.8244068026542664, 0.8684746026992798, 0.8657627105712891, 0.8610169291496277, 0.846101701259613, 0.849491536617279, 0.8705084919929504]</t>
+  </si>
+  <si>
+    <t>[0.7985705137252808, 0.8161143660545349, 0.8180636763572693, 0.8141650557518005, 0.8375568389892578, 0.8167641162872314, 0.8102664351463318, 0.8323586583137512, 0.8434048295021057, 0.8265107274055481, 0.8369070887565613, 0.8167641162872314, 0.8271604776382446, 0.829109787940979, 0.794671893119812, 0.8271604776382446, 0.8356075286865234, 0.821962296962738, 0.8330084681510925, 0.8154646158218384, 0.8265107274055481, 0.8271604776382446, 0.820662796497345, 0.8232618570327759]</t>
+  </si>
+  <si>
+    <t>[0.8602006435394287, 0.852173924446106, 0.8642140626907349, 0.8662207126617432, 0.8635451793670654, 0.8628762364387512, 0.8535116910934448, 0.8615384697914124, 0.8408026695251465, 0.8682274222373962, 0.8535116910934448, 0.857525110244751, 0.8207358121871948, 0.8602006435394287, 0.8448160290718079, 0.848829448223114, 0.838127076625824, 0.8655518293380737, 0.8561872839927673, 0.8688963055610657, 0.8662207126617432, 0.8354514837265015, 0.8481605648994446, 0.8608695864677429, 0.8675585389137268, 0.8588628768920898, 0.8561872839927673, 0.8568561673164368, 0.8287625312805176, 0.8421404957771301, 0.8448160290718079, 0.8474916219711304, 0.8408026695251465, 0.8468227386474609, 0.8428093791007996]</t>
+  </si>
+  <si>
+    <t>[0.8051947951316833, 0.8051947951316833, 0.7860560417175293, 0.8113465309143066, 0.7983595132827759, 0.8106630444526672, 0.782638430595398, 0.7306903600692749, 0.8051947951316833, 0.7833219170570374, 0.7963089346885681, 0.7915242910385132, 0.8045112490653992, 0.7881066203117371, 0.8045112490653992, 0.8106630444526672, 0.7853724956512451, 0.8024606704711914, 0.7634996771812439]</t>
+  </si>
+  <si>
+    <t>[0.8507807850837708, 0.8473106026649475, 0.8525158762931824, 0.8415268659591675, 0.8548293709754944, 0.8484673500061035, 0.8542510271072388, 0.8010410666465759, 0.8409485220909119, 0.8473106026649475, 0.8484673500061035, 0.8241758346557617, 0.829959511756897, 0.8409485220909119, 0.8235974311828613, 0.8502024412155151, 0.8513591885566711, 0.8635048866271973, 0.8328513503074646, 0.8449971079826355, 0.8293811678886414, 0.8409485220909119, 0.8455754518508911, 0.8374783396720886, 0.828802764415741, 0.8467321991920471, 0.8525158762931824, 0.8415268659591675, 0.8259109258651733, 0.827646017074585, 0.8253325819969177, 0.8519375324249268, 0.8438403606414795]</t>
+  </si>
+  <si>
+    <t>[0.8760129809379578, 0.8703403472900391, 0.8606159090995789, 0.8525121808052063, 0.8727715015411377, 0.8760129809379578, 0.8598055243492126, 0.8654780983924866, 0.7965964078903198, 0.8517017960548401, 0.8557536602020264, 0.8468395471572876, 0.8508914113044739, 0.8533225059509277, 0.857374370098114, 0.8517017960548401]</t>
+  </si>
+  <si>
+    <t>[0.8528114557266235, 0.8616317510604858, 0.8561190962791443, 0.8610804677009583, 0.8528114557266235, 0.8610804677009583, 0.8577728867530823, 0.8616317510604858, 0.8665931820869446, 0.8445424437522888, 0.8654906153678894, 0.8583241701126099, 0.866041898727417, 0.8610804677009583, 0.8621830344200134, 0.8191841244697571, 0.8335170745849609, 0.852260172367096, 0.8555678129196167, 0.8467475175857544, 0.8461962342262268, 0.8274531364440918, 0.8594266772270203, 0.845645010471344]</t>
+  </si>
+  <si>
+    <t>[0.8234285712242126, 0.8268571496009827, 0.8091428279876709, 0.831428587436676, 0.829714298248291, 0.833142876625061, 0.821142852306366, 0.8114285469055176, 0.8142856955528259, 0.8154285550117493, 0.8171428442001343, 0.8342857360839844, 0.8257142901420593, 0.8285714387893677, 0.8148571252822876, 0.7954285740852356, 0.8137142658233643, 0.8159999847412109, 0.8108571171760559, 0.829714298248291, 0.7960000038146973, 0.8188571333885193, 0.824571430683136, 0.8091428279876709, 0.8171428442001343, 0.8131428360939026, 0.8028571605682373]</t>
+  </si>
+  <si>
+    <t>[0.8200395703315735, 0.7870797514915466, 0.7851021885871887, 0.7890573740005493, 0.7758734226226807, 0.7857613563537598, 0.8094924092292786, 0.7587343454360962, 0.7844429612159729, 0.7679631114006042, 0.7765326499938965, 0.7851021885871887, 0.7732366323471069, 0.7877389788627625, 0.7495055794715881, 0.7633486986160278]</t>
+  </si>
+  <si>
+    <t>[0.8118131756782532, 0.8214285969734192, 0.8282967209815979, 0.8200549483299255, 0.8296703100204468, 0.8317307829856873, 0.8276098966598511, 0.8248626589775085, 0.8228021860122681, 0.8379120826721191, 0.8303571343421936, 0.8324176073074341, 0.8317307829856873, 0.8166208863258362, 0.8379120826721191, 0.8358516693115234, 0.8344780206680298, 0.8310439586639404, 0.8255494236946106, 0.8186812996864319, 0.8296703100204468, 0.8379120826721191, 0.8344780206680298, 0.8221153616905212, 0.8331043720245361]</t>
+  </si>
+  <si>
+    <t>[0.8264248967170715, 0.8151986002922058, 0.829879105091095, 0.8091537356376648, 0.8307426571846008, 0.8290155529975891, 0.8169257044792175, 0.7996546030044556, 0.8108808398246765, 0.8264248967170715, 0.8221070766448975, 0.8143350481987, 0.8221070766448975, 0.8195164203643799, 0.8195164203643799, 0.8048359155654907, 0.8221070766448975, 0.8126079440116882, 0.8195164203643799, 0.8281520009040833]</t>
+  </si>
+  <si>
+    <t>[0.8094362616539001, 0.8069853186607361, 0.8026960492134094, 0.813112735748291, 0.8223039507865906, 0.8229166865348816, 0.8216911554336548, 0.8149510025978088, 0.8241421580314636, 0.8272058963775635, 0.8241421580314636, 0.8155637383460999, 0.8296568393707275, 0.8247548937797546, 0.8253676295280457, 0.8272058963775635, 0.8192402124404907, 0.8100489974021912, 0.8161764740943909, 0.8235294222831726, 0.7959558963775635, 0.8155637383460999, 0.813725471496582, 0.811887264251709, 0.8229166865348816, 0.8229166865348816, 0.8069853186607361, 0.8155637383460999]</t>
+  </si>
+  <si>
+    <t>[0.8601973652839661, 0.8527960777282715, 0.8708881735801697, 0.8569079041481018, 0.8733552694320679, 0.8626644611358643, 0.8585526347160339, 0.8692434430122375, 0.8626644611358643, 0.8667762875556946, 0.8651315569877625, 0.84375, 0.8634868264198303, 0.8684210777282715, 0.8684210777282715, 0.8626644611358643, 0.8717105388641357, 0.8486841917037964, 0.8626644611358643, 0.8347039222717285]</t>
+  </si>
+  <si>
+    <t>[0.835149884223938, 0.7799727320671082, 0.8099455237388611, 0.8126702904701233, 0.8297002911567688, 0.8160762786865234, 0.8140326738357544, 0.8072206974029541, 0.803133487701416, 0.805858314037323, 0.8297002911567688, 0.8010899424552917, 0.8194822669029236, 0.779291570186615, 0.8167575001716614, 0.8106266856193542]</t>
+  </si>
+  <si>
+    <t>[0.8626053333282471, 0.8846403360366821, 0.8839921951293945, 0.8859364986419678, 0.853532075881958, 0.8762151598930359, 0.8846403360366821, 0.8833441138267517, 0.8826960325241089, 0.8476992845535278, 0.8820479512214661, 0.8794556260108948, 0.8781594038009644, 0.8749189972877502, 0.8878807425498962, 0.8781594038009644, 0.8794556260108948, 0.8651976585388184, 0.8697342872619629, 0.866493821144104, 0.8639014959335327, 0.8690862059593201, 0.8489954471588135, 0.8613091111183167, 0.8651976585388184, 0.8762151598930359, 0.8736228346824646, 0.8723266124725342, 0.8768632411956787, 0.8801037073135376]</t>
+  </si>
+  <si>
+    <t>[0.7862181067466736, 0.7927292585372925, 0.7845903635025024, 0.7824199795722961, 0.8024959564208984, 0.7948996424674988, 0.7911014556884766, 0.7965273857116699, 0.7965273857116699, 0.7932718396186829, 0.7921866774559021, 0.7943570017814636, 0.7856755256652832, 0.8057515025138855, 0.7997829914093018, 0.7976126074790955, 0.8052089214324951, 0.7992403507232666, 0.7889310717582703, 0.7911014556884766, 0.7954422235488892, 0.8035811185836792, 0.8084644675254822, 0.7965273857116699, 0.7943570017814636, 0.7992403507232666, 0.7862181067466736, 0.7943570017814636, 0.7948996424674988, 0.7986977696418762, 0.7970699667930603, 0.7981551885604858, 0.7921866774559021, 0.7981551885604858, 0.7943570017814636, 0.7954422235488892, 0.7900162935256958, 0.8073792457580566]</t>
+  </si>
+  <si>
+    <t>[0.8932448625564575, 0.891435444355011, 0.8811821341514587, 0.8636912107467651, 0.8872135281562805, 0.8811821341514587, 0.8202653527259827, 0.9016887545585632, 0.8860072493553162, 0.850422203540802, 0.8841978311538696, 0.9010856747627258, 0.8878166675567627, 0.8938480019569397, 0.8932448625564575, 0.885404109954834, 0.8829915523529053, 0.8956574201583862, 0.8956574201583862, 0.8739445209503174, 0.895054280757904, 0.8600723743438721, 0.9089264273643494, 0.8709288239479065, 0.889022946357727, 0.8745476603507996, 0.8956574201583862, 0.8443908095359802, 0.872738242149353, 0.889022946357727, 0.8685162663459778, 0.8920385837554932, 0.895054280757904, 0.8685162663459778, 0.8998793959617615, 0.8582629561424255, 0.8655006289482117, 0.895054280757904]</t>
+  </si>
+  <si>
+    <t>[0.7861093878746033, 0.7775046229362488, 0.7830362915992737, 0.7891825437545776, 0.8094652891159058, 0.7940995693206787, 0.8131530284881592, 0.8039336204528809, 0.8180700540542603, 0.7965580821037292, 0.7965580821037292, 0.7867240309715271, 0.8057774901390076, 0.8051628470420837, 0.8014751076698303, 0.7953288555145264, 0.7977873682975769, 0.7793484926223755, 0.7947142124176025, 0.8027043342590332, 0.7842655181884766, 0.8014751076698303, 0.8002458214759827, 0.7910264134407043]</t>
+  </si>
+  <si>
+    <t>[0.7923663854598999, 0.79465651512146, 0.767175555229187, 0.8022900819778442, 0.8045801520347595, 0.7809160351753235, 0.7778626084327698, 0.7709923386573792, 0.7717557549476624, 0.7961832284927368, 0.8007633686065674, 0.7809160351753235, 0.7885496020317078, 0.7893129587173462, 0.7412213683128357, 0.7816793918609619, 0.7801526784896851, 0.7900763154029846, 0.7824427485466003, 0.7893129587173462]</t>
+  </si>
+  <si>
+    <t>[0.874666690826416, 0.8782222270965576, 0.8737778067588806, 0.8799999952316284, 0.8755555748939514, 0.8728888630867004, 0.879111111164093, 0.8737778067588806, 0.8595555424690247, 0.8826666474342346, 0.8871111273765564, 0.8782222270965576, 0.8728888630867004, 0.8808888792991638, 0.8773333430290222, 0.879111111164093, 0.8844444155693054, 0.8711110949516296, 0.8684444427490234, 0.8666666746139526, 0.8737778067588806, 0.8506666421890259, 0.8693333268165588, 0.8728888630867004, 0.8702222108840942, 0.8568888902664185]</t>
+  </si>
+  <si>
+    <t>[0.8343347907066345, 0.8557940125465393, 0.8351931571960449, 0.8643776774406433, 0.8532189130783081, 0.8789699673652649, 0.8712446093559265, 0.8643776774406433, 0.8695278763771057, 0.8806867003440857, 0.8652360439300537, 0.8643776774406433, 0.8557940125465393, 0.8772532343864441, 0.8351931571960449, 0.8652360439300537, 0.8600858449935913, 0.8643776774406433, 0.8557940125465393, 0.8532189130783081, 0.8557940125465393, 0.8557940125465393, 0.8703862428665161, 0.8566523790359497, 0.8540772795677185]</t>
+  </si>
+  <si>
+    <t>[0.7805536985397339, 0.7656988501548767, 0.7643483877182007, 0.7785280346870422, 0.7717758417129517, 0.7636731863021851, 0.7771775722503662, 0.7488183379173279, 0.7798784375190735, 0.7785280346870422, 0.7900067567825317, 0.7947332859039307, 0.7609723210334778, 0.7508440017700195, 0.7562457919120789, 0.7711005806922913, 0.7819041013717651, 0.7717758417129517, 0.7670493125915527, 0.7656988501548767, 0.7886562943458557, 0.7711005806922913, 0.7596218585968018, 0.7481431365013123, 0.7535449266433716, 0.744091808795929, 0.7582714557647705]</t>
+  </si>
+  <si>
+    <t>[0.8156508803367615, 0.8299473524093628, 0.8374717831611633, 0.8224228620529175, 0.821670413017273, 0.8209179639816284, 0.8186606764793396, 0.8066214919090271, 0.8051166534423828, 0.8141459822654724, 0.8186606764793396, 0.8036117553710938, 0.8088788390159607, 0.8201655149459839, 0.8103837370872498, 0.7870579361915588, 0.7938299179077148, 0.7870579361915588]</t>
+  </si>
+  <si>
+    <t>[0.8051013946533203, 0.7965990900993347, 0.7959450483322144, 0.8005232214927673, 0.7848266959190369, 0.7933290004730225, 0.8018312454223633, 0.8024852871894836, 0.8037933111190796, 0.7704381942749023, 0.8051013946533203, 0.7959450483322144, 0.8051013946533203, 0.769784152507782, 0.8037933111190796, 0.7959450483322144]</t>
+  </si>
+  <si>
+    <t>[0.8488284349441528, 0.8556311130523682, 0.8473166823387146, 0.853363573551178, 0.8518518805503845, 0.8405140042304993, 0.853363573551178, 0.851095974445343, 0.853363573551178, 0.8450491428375244, 0.839002251625061, 0.8374905586242676, 0.8450491428375244, 0.8473166823387146, 0.8495842814445496, 0.8442932963371277, 0.8420256972312927]</t>
+  </si>
+  <si>
+    <t>[0.8513082265853882, 0.863433301448822, 0.8506700992584229, 0.8615188002586365, 0.860242486000061, 0.8436502814292908, 0.8608806729316711, 0.869814932346344, 0.863433301448822, 0.8615188002586365, 0.8621569871902466, 0.8742820620536804, 0.8723675608634949, 0.8564135432243347, 0.8538608551025391, 0.8513082265853882, 0.8589661717414856, 0.8449265956878662, 0.8455647826194763, 0.8442884683609009, 0.8436502814292908, 0.8436502814292908, 0.8691767454147339, 0.8679004311561584, 0.8468410968780518, 0.8379068374633789, 0.8557753562927246]</t>
+  </si>
+  <si>
+    <t>[0.8610914349555969, 0.8667611479759216, 0.8724309206008911, 0.8667611479759216, 0.8766831755638123, 0.8710134625434875, 0.8781006336212158, 0.8788093328475952, 0.8795180916786194, 0.869596004486084, 0.8405386209487915, 0.8596739768981934, 0.8610914349555969, 0.8667611479759216, 0.8738483190536499, 0.8773919343948364, 0.8724309206008911, 0.8844791054725647, 0.8688873052597046, 0.8653437495231628, 0.8582565784454346, 0.8490432500839233, 0.856839120388031, 0.8632175922393799, 0.858965277671814, 0.8717221617698669, 0.8610914349555969, 0.8660524487495422, 0.8752657771110535, 0.8653437495231628, 0.854712963104248, 0.8540042638778687, 0.8724309206008911]</t>
+  </si>
+  <si>
+    <t>[0.8333333134651184, 0.8295207023620605, 0.8213507533073425, 0.8082788586616516, 0.8088235259056091, 0.8001089096069336, 0.8044662475585938, 0.8082788586616516, 0.8099128603935242, 0.7941176295280457, 0.7979303002357483, 0.8044662475585938, 0.7903050184249878, 0.8115468621253967, 0.7957516312599182, 0.7913943529129028]</t>
+  </si>
+  <si>
+    <t>[0.8078740239143372, 0.7889763712882996, 0.8041994571685791, 0.778477668762207, 0.8194225430488586, 0.7149606347084045, 0.7811023592948914, 0.7711285948753357, 0.8015748262405396, 0.7774277925491333, 0.7942256927490234, 0.7795275449752808, 0.7711285948753357, 0.7931758761405945, 0.7721784710884094, 0.7963254451751709, 0.6619422435760498, 0.7837270498275757, 0.7884514331817627, 0.778477668762207]</t>
+  </si>
+  <si>
+    <t>[0.8352627158164978, 0.829029381275177, 0.8406054973602295, 0.829029381275177, 0.8334817290306091, 0.8325912952423096, 0.8379340767860413, 0.8388245701789856, 0.8370436429977417, 0.822796106338501, 0.8317008018493652, 0.8388245701789856, 0.8432769179344177, 0.8308103084564209, 0.8219056129455566, 0.8352627158164978, 0.8210151195526123, 0.8343722224235535, 0.8005343079566956, 0.8032057285308838, 0.8263579607009888, 0.8085485100746155, 0.8245770335197449, 0.8192341923713684, 0.8254675269126892, 0.8201246857643127, 0.8183436989784241, 0.8049866557121277]</t>
+  </si>
+  <si>
+    <t>[0.7727272510528564, 0.7804014086723328, 0.7567886710166931, 0.790436863899231, 0.7880755662918091, 0.7886658906936646, 0.7685950398445129, 0.7774498462677002, 0.7750885486602783, 0.790436863899231, 0.790436863899231, 0.7933884263038635, 0.7709563374519348, 0.7798110842704773, 0.7774498462677002, 0.7833530306816101, 0.7656434178352356, 0.7756788730621338, 0.7432113289833069, 0.7910271286964417, 0.7880755662918091, 0.7922077775001526, 0.7739078998565674, 0.7845336198806763, 0.7780401706695557, 0.7910271286964417, 0.7750885486602783]</t>
+  </si>
+  <si>
+    <t>[0.7550260424613953, 0.7721518874168396, 0.7617274522781372, 0.7699180841445923, 0.7684288620948792, 0.767684280872345, 0.7617274522781372, 0.7632166743278503, 0.7624720931053162, 0.7602382898330688, 0.7632166743278503, 0.7684288620948792, 0.7691735029220581, 0.7602382898330688, 0.767684280872345, 0.7743856906890869, 0.7580044865608215, 0.7706627249717712, 0.7416232228279114, 0.7386448383331299, 0.7706627249717712, 0.7483246326446533, 0.7535368800163269, 0.760982871055603, 0.7632166743278503, 0.7535368800163269, 0.7706627249717712, 0.7654504776000977, 0.7542814612388611, 0.7654504776000977, 0.7319434285163879]</t>
+  </si>
+  <si>
+    <t>[0.8277247548103333, 0.8277247548103333, 0.8528377413749695, 0.8493219614028931, 0.8468106389045715, 0.8422902822494507, 0.8538423180580139, 0.8603716492652893, 0.8463084101676941, 0.8422902822494507, 0.8573580980300903, 0.8478151559829712, 0.8156704902648926, 0.8442993760108948, 0.8397790193557739, 0.8548468351364136, 0.8483174443244934, 0.8422902822494507, 0.8468106389045715, 0.8277247548103333, 0.8468106389045715, 0.8493219614028931, 0.8463084101676941]</t>
+  </si>
+  <si>
+    <t>[0.814254879951477, 0.8200144171714783, 0.839452862739563, 0.8430525660514832, 0.8322533965110779, 0.8272138237953186, 0.7897768020629883, 0.8192944526672363, 0.8516918420791626, 0.811375081539154, 0.8171346187591553, 0.8264938592910767, 0.841612696647644, 0.8200144171714783, 0.8207343220710754, 0.8300936222076416, 0.7998560070991516, 0.8272138237953186, 0.8171346187591553, 0.8149747848510742, 0.8164147138595581, 0.8185744881629944, 0.8372930288314819, 0.8279337882995605]</t>
+  </si>
+  <si>
+    <t>[0.9007633328437805, 0.8979874849319458, 0.8834142684936523, 0.8806384205818176, 0.8792505264282227, 0.8827203512191772, 0.8702290058135986, 0.8799445033073425, 0.8764746785163879, 0.8861901164054871, 0.8917418718338013, 0.85773766040802, 0.8591256141662598, 0.8750867247581482, 0.8431644439697266, 0.8646773099899292]</t>
+  </si>
+  <si>
+    <t>[0.7890784740447998, 0.7918089032173157, 0.7979522347450256, 0.788395881652832, 0.8027303814888, 0.7822525501251221, 0.7952218651771545, 0.7931740880012512, 0.7924914956092834, 0.7877132892608643, 0.8047781586647034, 0.7952218651771545, 0.8013651967048645, 0.7843003273010254, 0.7986348271369934, 0.7774744033813477, 0.800000011920929, 0.7959044575691223, 0.7904436588287354, 0.7993174195289612, 0.8027303814888, 0.7924914956092834, 0.7924914956092834, 0.7959044575691223, 0.8095563054084778, 0.8068259358406067, 0.7972696423530579, 0.8006826043128967, 0.8027303814888, 0.8136518597602844, 0.8027303814888, 0.7924914956092834, 0.8020477890968323, 0.8040955662727356, 0.8075085282325745, 0.7767918109893799, 0.7979522347450256, 0.8040955662727356, 0.80887371301651, 0.8006826043128967, 0.8040955662727356, 0.7931740880012512, 0.7747440338134766, 0.8047781586647034, 0.8116040825843811]</t>
+  </si>
+  <si>
+    <t>[0.8700361251831055, 0.8772563338279724, 0.8671480417251587, 0.8808664083480835, 0.860649824142456, 0.8642598986625671, 0.8592057824134827, 0.8801444172859192, 0.80361008644104, 0.8722021579742432, 0.8592057824134827, 0.85270756483078, 0.8440433144569397, 0.849097490310669, 0.8447653651237488, 0.8743682503700256, 0.8808664083480835, 0.8563176989555359, 0.859927773475647]</t>
+  </si>
+  <si>
+    <t>[0.7505703568458557, 0.7612167596817017, 0.7665399312973022, 0.727756679058075, 0.7688212990760803, 0.7627376317977905, 0.7589353322982788, 0.7673003673553467, 0.7680608630180359, 0.7498098611831665, 0.7650189995765686, 0.7771863341331482, 0.7885931730270386, 0.7718631029129028, 0.7688212990760803, 0.8007604479789734, 0.7787072062492371, 0.7634981274604797, 0.7642585635185242, 0.7749049663543701, 0.7771863341331482, 0.7642585635185242, 0.7756654024124146, 0.776425838470459, 0.7650189995765686, 0.7794677019119263, 0.7498098611831665, 0.7688212990760803, 0.7749049663543701, 0.7604562640190125, 0.772623598575592]</t>
+  </si>
+  <si>
+    <t>[0.8346905708312988, 0.8232899308204651, 0.8306189179420471, 0.8346905708312988, 0.8452768921852112, 0.8501628637313843, 0.844462513923645, 0.8306189179420471, 0.8509771823883057, 0.846905529499054, 0.8428338766098022, 0.837133526802063, 0.8420195579528809, 0.8094462752342224, 0.846905529499054, 0.829804539680481, 0.8403908610343933, 0.8314332365989685, 0.8485342264175415, 0.8346905708312988, 0.7752442955970764, 0.8127036094665527, 0.8395765423774719, 0.8175895810127258]</t>
+  </si>
+  <si>
+    <t>[0.8899773955345154, 0.8824415802955627, 0.8688771724700928, 0.8741522431373596, 0.8862094879150391, 0.8688771724700928, 0.8636021018028259, 0.8590806126594543, 0.8839487433433533, 0.8809344172477722, 0.8425018787384033, 0.8470233678817749, 0.8304446339607239, 0.8515448570251465, 0.8093444108963013, 0.8138658404350281]</t>
+  </si>
+  <si>
+    <t>[0.789370059967041, 0.7939632534980774, 0.7998687624931335, 0.8123359680175781, 0.8116797804832458, 0.8293963074684143, 0.8254593014717102, 0.8123359680175781, 0.8241469860076904, 0.8293963074684143, 0.8044619560241699, 0.8143044710159302, 0.808398962020874, 0.8300524950027466, 0.8202099800109863, 0.817585289478302, 0.8136482834815979, 0.8051180839538574, 0.81561678647995, 0.8143044710159302, 0.8123359680175781, 0.834645688533783, 0.8169291615486145, 0.8202099800109863, 0.8274278044700623, 0.8149606585502625, 0.8248031735420227, 0.8169291615486145, 0.81561678647995, 0.8129921555519104, 0.8123359680175781, 0.817585289478302, 0.8110235929489136, 0.808398962020874, 0.8129921555519104, 0.817585289478302, 0.8293963074684143]</t>
+  </si>
+  <si>
+    <t>[0.7642105221748352, 0.7719298005104065, 0.7838596701622009, 0.7740350961685181, 0.7824561595916748, 0.7894737124443054, 0.7943859696388245, 0.7908771634101868, 0.785263180732727, 0.7908771634101868, 0.7957894802093506, 0.7908771634101868, 0.7782456278800964, 0.7866666913032532, 0.7768421173095703, 0.785263180732727, 0.8056140542030334, 0.7908771634101868, 0.7873684167861938, 0.7992982268333435, 0.7985965013504028, 0.7985965013504028, 0.7866666913032532, 0.793684184551239, 0.7838596701622009, 0.7831578850746155, 0.78877192735672, 0.7950876951217651, 0.7838596701622009, 0.7768421173095703, 0.7894737124443054, 0.7859649062156677]</t>
+  </si>
+  <si>
+    <t>[0.8211060762405396, 0.821670413017273, 0.8205417394638062, 0.8374717831611633, 0.8250564336776733, 0.8256207704544067, 0.8290067911148071, 0.8143340945243835, 0.8069977164268494, 0.8211060762405396, 0.8036117553710938, 0.8227990865707397, 0.8132054209709167, 0.7878103852272034, 0.8177201151847839, 0.8013544082641602, 0.7765237092971802, 0.8126410841941833, 0.8058691024780273]</t>
+  </si>
+  <si>
+    <t>[0.7819905281066895, 0.778436005115509, 0.7926540374755859, 0.7890995144844055, 0.799763023853302, 0.7831753492355347, 0.7843601703643799, 0.7962085604667664, 0.7890995144844055, 0.8104265332221985, 0.8033175468444824, 0.7926540374755859, 0.8116113543510437, 0.799763023853302, 0.8056871891021729, 0.7938388586044312, 0.7926540374755859, 0.7973933815956116, 0.7890995144844055, 0.7867298722267151, 0.7914692163467407, 0.7867298722267151, 0.7902843356132507, 0.7831753492355347, 0.8056871891021729, 0.7950236797332764, 0.8009478449821472, 0.7902843356132507]</t>
+  </si>
+  <si>
+    <t>[0.8384955525398254, 0.8289085626602173, 0.8451327681541443, 0.8517699241638184, 0.8311209678649902, 0.8178465962409973, 0.7920354008674622, 0.8060472011566162, 0.8193215131759644, 0.8215339183807373, 0.8244837522506714, 0.8296459913253784, 0.8082596063613892, 0.8045722842216492, 0.8171091675758362, 0.8311209678649902, 0.8185840845108032, 0.8134218454360962, 0.8193215131759644]</t>
+  </si>
+  <si>
+    <t>[0.8217167854309082, 0.8275862336158752, 0.8429933786392212, 0.8547322154045105, 0.8606016039848328, 0.866470992565155, 0.8092443346977234, 0.8444607257843018, 0.8708730936050415, 0.8716067671775818, 0.8767424821853638, 0.8642699718475342, 0.8385913372039795, 0.8620689511299133, 0.866470992565155, 0.8576669096946716, 0.8679383993148804, 0.8591342568397522, 0.8532648682594299, 0.8503301739692688, 0.8620689511299133, 0.8598679304122925, 0.8422597050666809, 0.8657373189926147, 0.8532648682594299, 0.8341892957687378]</t>
+  </si>
+  <si>
+    <t>[0.8362234830856323, 0.8439306616783142, 0.8362234830856323, 0.8246628046035767, 0.8294797539710999, 0.8227360248565674, 0.849711000919342, 0.8352600932121277, 0.8333333134651184, 0.8314065337181091, 0.8188824653625488, 0.8448940515518188, 0.8333333134651184, 0.8391136527061462, 0.8304431438446045, 0.8400770425796509, 0.8448940515518188, 0.8352600932121277, 0.8400770425796509, 0.849711000919342, 0.8150289058685303, 0.8468208312988281]</t>
+  </si>
+  <si>
+    <t>[0.8117088675498962, 0.7964134812355042, 0.8106539845466614, 0.7811181545257568, 0.7827004194259644, 0.7842826843261719, 0.8117088675498962, 0.7943037748336792, 0.7932489514350891, 0.8074894547462463, 0.7257384061813354, 0.8022152185440063, 0.7895569801330566, 0.6793248653411865, 0.8122363090515137, 0.7921940684318542, 0.7911392450332642, 0.8011603355407715, 0.7906118035316467, 0.7937763929367065, 0.8095991611480713, 0.7605485320091248, 0.7542194128036499, 0.7879746556282043, 0.8074894547462463, 0.7874472737312317, 0.7885020971298218, 0.7863923907279968, 0.7848101258277893, 0.7921940684318542]</t>
+  </si>
+  <si>
+    <t>[0.7709867358207703, 0.7857142686843872, 0.7930780649185181, 0.7901325225830078, 0.7967599630355835, 0.7916052937507629, 0.7923416495323181, 0.8004418015480042, 0.8048601150512695, 0.7879233956336975, 0.8063328266143799, 0.7879233956336975, 0.8004418015480042, 0.8188512325286865, 0.8048601150512695, 0.7960235476493835, 0.7989690899848938, 0.8070692420005798, 0.8004418015480042, 0.8055964708328247, 0.8129602074623108, 0.8100147247314453, 0.7952871918678284, 0.807805597782135, 0.8085419535636902, 0.7923416495323181, 0.7967599630355835, 0.7901325225830078, 0.8151693940162659]</t>
+  </si>
+  <si>
+    <t>[0.8424479365348816, 0.8294270634651184, 0.828125, 0.8391926884651184, 0.810546875, 0.828125, 0.8372395634651184, 0.8216145634651184, 0.787109375, 0.802734375, 0.8118489384651184, 0.8209635615348816, 0.798828125, 0.8177083134651184, 0.8352864384651184, 0.8046875]</t>
+  </si>
+  <si>
+    <t>[0.7431372404098511, 0.8248366117477417, 0.8124182820320129, 0.8071895241737366, 0.8104575276374817, 0.8006535768508911, 0.7549019455909729, 0.7797385454177856, 0.8326797485351562, 0.8124182820320129, 0.8254901766777039, 0.8202614188194275, 0.8104575276374817, 0.7836601138114929, 0.7908496856689453, 0.7986928224563599, 0.8084967136383057, 0.7960784435272217, 0.7888888716697693, 0.784967303276062, 0.799346387386322, 0.770588219165802, 0.8039215803146362, 0.7954248189926147]</t>
+  </si>
+  <si>
+    <t>[0.880355715751648, 0.8690379858016968, 0.8682295680046082, 0.8658043742179871, 0.8649959564208984, 0.8787388801574707, 0.8480194211006165, 0.8310428261756897, 0.8569118976593018, 0.8423605561256409, 0.8577203154563904, 0.8682295680046082, 0.8593370914459229, 0.8577203154563904, 0.82780921459198, 0.8148747086524963]</t>
+  </si>
+  <si>
+    <t>[0.8116658329963684, 0.8205634951591492, 0.8171033263206482, 0.8171033263206482, 0.8161146640777588, 0.8195748925209045, 0.7993079423904419, 0.7775580883026123, 0.8047454357147217, 0.8091942667961121, 0.8200691938400269, 0.8086999654769897, 0.8057340383529663, 0.8284725546836853, 0.7968363761901855, 0.7963420748710632, 0.7968363761901855, 0.8146317601203918, 0.7968363761901855, 0.8027681708335876, 0.8274839520454407, 0.8037567734718323, 0.8027681708335876, 0.8220464587211609, 0.7909045815467834, 0.8175976276397705, 0.8225407600402832, 0.8166090250015259, 0.8096885681152344]</t>
+  </si>
+  <si>
+    <t>[0.8189588189125061, 0.8298368453979492, 0.8329448103904724, 0.7956488132476807, 0.7645687460899353, 0.811965823173523, 0.7886558175086975, 0.8057498335838318, 0.8135198354721069, 0.807303786277771, 0.7979797720909119, 0.7909867763519287, 0.7987567782402039, 0.7816627621650696, 0.8026418089866638, 0.8010877966880798, 0.7661227583885193, 0.808080792427063]</t>
+  </si>
+  <si>
+    <t>[0.8127464056015015, 0.7969776391983032, 0.7003942131996155, 0.7660972476005554, 0.7516425848007202, 0.7450722455978394, 0.7785808444023132, 0.7463863492012024, 0.8055190443992615, 0.7582128643989563, 0.8035479784011841, 0.7752956748008728, 0.7010512351989746, 0.7943495512008667, 0.7844941020011902, 0.8074901700019836]</t>
+  </si>
+  <si>
+    <t>[0.7887789011001587, 0.7716171741485596, 0.7788779139518738, 0.7722772359848022, 0.7709571123123169, 0.7729372978210449, 0.7524752616882324, 0.7788779139518738, 0.7643564343452454, 0.7808580994606018, 0.7927392721176147, 0.7669966816902161, 0.7960395812988281, 0.7841584086418152, 0.7887789011001587, 0.7821782231330872, 0.7491748929023743, 0.7689769268035889, 0.7940593957901001, 0.7709571123123169, 0.7617161870002747, 0.7676567435264587, 0.7735973596572876, 0.7570956945419312, 0.7834983468055725, 0.7636963725090027, 0.7557755708694458, 0.7683168053627014]</t>
+  </si>
+  <si>
+    <t>[0.7694251537322998, 0.7498420476913452, 0.7504737973213196, 0.7536323666572571, 0.7530006170272827, 0.7580543160438538, 0.7277321815490723, 0.7561591863632202, 0.7466835379600525, 0.7599494457244873, 0.7637397050857544, 0.7460517883300781, 0.7561591863632202, 0.7605811953544617, 0.7567908763885498, 0.7498420476913452]</t>
+  </si>
+  <si>
+    <t>[0.8384913206100464, 0.8293036818504333, 0.8360735177993774, 0.8341392874717712, 0.835106372833252, 0.8394584059715271, 0.8457446694374084, 0.8278530240058899, 0.8293036818504333, 0.8370406031608582, 0.8370406031608582, 0.8409090638160706, 0.844294011592865, 0.8500967025756836, 0.8433268666267395, 0.8457446694374084, 0.8438104391098022, 0.8283365368843079, 0.8205996155738831, 0.8558993935585022, 0.8467118144035339, 0.8235009908676147, 0.8380077481269836, 0.8278530240058899, 0.8471953868865967, 0.8520309329032898, 0.8370406031608582, 0.8380077481269836, 0.8249516487121582, 0.8181818127632141, 0.832205057144165, 0.8384913206100464, 0.8259187340736389, 0.8264023065567017, 0.8438104391098022]</t>
+  </si>
+  <si>
+    <t>[0.8513708710670471, 0.8333333134651184, 0.8124098181724548, 0.8520923256874084, 0.7950937747955322, 0.817460298538208, 0.8138527870178223, 0.8001443147659302, 0.8282828330993652, 0.8102453351020813, 0.7979797720909119, 0.7958152890205383, 0.7842712998390198, 0.8044732809066772, 0.7727272510528564, 0.8066378235816956, 0.8059163093566895, 0.8030303120613098, 0.7943723201751709]</t>
+  </si>
+  <si>
+    <t>[0.8115016222000122, 0.8138977885246277, 0.8186901211738586, 0.8266773223876953, 0.829872190952301, 0.8290734887123108, 0.8314696550369263, 0.8426517844200134, 0.8370606899261475, 0.8314696550369263, 0.8338658213615417, 0.8234824538230896, 0.8218849897384644, 0.8282747864723206, 0.8218849897384644, 0.8138977885246277, 0.8250798583030701, 0.8123003244400024, 0.8322683572769165, 0.8266773223876953, 0.8123003244400024, 0.8202875256538391, 0.8290734887123108]</t>
+  </si>
+  <si>
+    <t>[0.9057908654212952, 0.9075194597244263, 0.898876428604126, 0.9118409752845764, 0.9092480540275574, 0.8833189010620117, 0.8997406959533691, 0.8764045238494873, 0.8971477746963501, 0.9031979441642761, 0.8876404762268066, 0.9066551327705383, 0.9066551327705383, 0.9057908654212952, 0.9057908654212952, 0.8677614331245422, 0.8910976648330688, 0.9057908654212952, 0.8738116025924683]</t>
+  </si>
+  <si>
+    <t>[0.8092948794364929, 0.8213140964508057, 0.8293269276618958, 0.8253205418586731, 0.8277243375778198, 0.8165063858032227, 0.8261218070983887, 0.8205128312110901, 0.8181089758872986, 0.8245192170143127, 0.8325320482254028, 0.8125, 0.8261218070983887, 0.8165063858032227, 0.8020833134651184, 0.8197115659713745, 0.807692289352417, 0.8181089758872986, 0.8285256624221802, 0.8116987347602844, 0.8189102411270142, 0.8084936141967773, 0.8060897588729858, 0.7948718070983887, 0.8277243375778198, 0.7884615659713745]</t>
+  </si>
+  <si>
+    <t>[0.8459696769714355, 0.8419792652130127, 0.8659217953681946, 0.8747007250785828, 0.8778930306434631, 0.8683160543441772, 0.8579409122467041, 0.8627294301986694, 0.8627294301986694, 0.8715083599090576, 0.8715083599090576, 0.8611332774162292, 0.8707103133201599, 0.8347964882850647, 0.8579409122467041, 0.8491619825363159, 0.8651236891746521, 0.8515562415122986, 0.8683160543441772, 0.8587390184402466]</t>
+  </si>
+  <si>
+    <t>[0.8298795223236084, 0.8279517889022827, 0.7546988129615784, 0.7898795008659363, 0.7778313159942627, 0.7696385383605957, 0.7937349677085876, 0.792289137840271, 0.8101204633712769, 0.8106024265289307, 0.774939775466919, 0.8019276857376099, 0.7898795008659363, 0.7556626796722412, 0.7860240936279297, 0.7932530045509338]</t>
+  </si>
+  <si>
+    <t>[0.7637795209884644, 0.7637795209884644, 0.7375327944755554, 0.7445319294929504, 0.7427821755409241, 0.7489063739776611, 0.7524059414863586, 0.7541557550430298, 0.7462817430496216, 0.748031497001648, 0.7454068064689636, 0.7279090285301208, 0.6946631669998169, 0.7366579174995422, 0.7322834730148315, 0.7139107584953308]</t>
+  </si>
+  <si>
+    <t>[0.8248072862625122, 0.8206026554107666, 0.8206026554107666, 0.8156972527503967, 0.8227049708366394, 0.8311142325401306, 0.8227049708366394, 0.8114926218986511, 0.7904695272445679, 0.8044849038124084, 0.8304134607315063, 0.8199018836021423, 0.8093903064727783, 0.8297126889228821, 0.8142957091331482, 0.8255080580711365, 0.8156972527503967, 0.8283111453056335, 0.7953749299049377, 0.8206026554107666, 0.8142957091331482]</t>
+  </si>
+  <si>
+    <t>[0.8019287586212158, 0.7989614009857178, 0.8019287586212158, 0.8086053133010864, 0.8063797950744629, 0.8204748034477234, 0.8197329640388489, 0.828635036945343, 0.7262611389160156, 0.8204748034477234, 0.8234421610832214, 0.8115726709365845, 0.8152819275856018, 0.8048961162567139, 0.8182492852210999, 0.8145400881767273, 0.812314510345459, 0.8234421610832214, 0.8137982487678528, 0.81083083152771, 0.8264095187187195, 0.8152819275856018, 0.8063797950744629]</t>
+  </si>
+  <si>
+    <t>[0.8624812960624695, 0.841554582118988, 0.841554582118988, 0.8333333134651184, 0.8288490176200867, 0.8243647217750549, 0.8131539821624756, 0.8408071994781494, 0.812406599521637, 0.8579970002174377, 0.8146487474441528, 0.8251121044158936, 0.8101644515991211, 0.8266068696975708, 0.7914798259735107, 0.7914798259735107]</t>
+  </si>
+  <si>
+    <t>[0.8933792114257812, 0.8925193548202515, 0.8882201313972473, 0.8942390084266663, 0.8942390084266663, 0.8710232377052307, 0.8916594982147217, 0.8830610513687134, 0.8615649342536926, 0.8899397850036621, 0.8779019713401794, 0.8675838112831116, 0.8693035244941711, 0.8779019713401794, 0.8641444444656372, 0.7360275387763977, 0.8779019713401794, 0.8701633810997009, 0.879621684551239]</t>
+  </si>
+  <si>
+    <t>[0.8126906752586365, 0.8157413005828857, 0.8200122117996216, 0.841366708278656, 0.818791925907135, 0.8261134624481201, 0.8316046595573425, 0.8395363092422485, 0.8291641473770142, 0.8334349989891052, 0.8364856839179993, 0.8230628371238708, 0.8395363092422485, 0.8242831230163574, 0.8438072204589844, 0.830384373664856, 0.8334349989891052, 0.8334349989891052, 0.8236729502677917, 0.838316023349762, 0.8059792518615723, 0.8279438614845276, 0.8255033493041992, 0.8194020986557007, 0.8053691387176514, 0.8285539746284485, 0.8120805621147156, 0.8071995377540588, 0.8236729502677917, 0.8236729502677917]</t>
+  </si>
+  <si>
+    <t>[0.8598306775093079, 0.8466603755950928, 0.8447789549827576, 0.7836312055587769, 0.8174976706504822, 0.8476011157035828, 0.8212605714797974, 0.8033866286277771, 0.8532455563545227, 0.8334901332855225, 0.8410159945487976, 0.8071495890617371, 0.8174976706504822, 0.8381937742233276, 0.8203198313713074, 0.7864534258842468]</t>
+  </si>
+  <si>
+    <t>[0.8936335444450378, 0.8928571343421936, 0.9037266969680786, 0.8920807242393494, 0.8998447060585022, 0.89673912525177, 0.8982919454574585, 0.9021739363670349, 0.9091615080833435, 0.9060559272766113, 0.8897515535354614, 0.9006211161613464, 0.8936335444450378, 0.9045031070709229, 0.8944099545478821, 0.9006211161613464, 0.8998447060585022, 0.9083850979804993, 0.8951863646507263, 0.8850931525230408, 0.8788819909095764, 0.8913043737411499, 0.8866459727287292, 0.8812111616134644]</t>
+  </si>
+  <si>
+    <t>[0.8288610577583313, 0.8348240852355957, 0.8282647728919983, 0.8133571743965149, 0.8288610577583313, 0.8240906596183777, 0.8193202018737793, 0.8187239170074463, 0.8151460886001587, 0.8073941469192505, 0.8175312876701355, 0.8228980302810669, 0.8187239170074463, 0.8127608895301819, 0.8050089478492737, 0.7930828928947449, 0.8175312876701355]</t>
+  </si>
+  <si>
+    <t>[0.8270820379257202, 0.8397965431213379, 0.8410680294036865, 0.8455181121826172, 0.8442466855049133, 0.8461538553237915, 0.8467895984649658, 0.843610942363739, 0.8455181121826172, 0.843610942363739, 0.8455181121826172, 0.8569612503051758, 0.8353464603424072, 0.848696768283844, 0.8493325114250183, 0.8442466855049133, 0.853782594203949, 0.8467895984649658, 0.8467895984649658, 0.8410680294036865, 0.8359822034835815, 0.833439290523529, 0.8340750336647034, 0.8480610251426697, 0.8467895984649658, 0.8455181121826172, 0.8499681949615479]</t>
+  </si>
+  <si>
+    <t>[0.8468146324157715, 0.8554044365882874, 0.851109504699707, 0.856120228767395, 0.8661417365074158, 0.8582677245140076, 0.8582677245140076, 0.8618468046188354, 0.856120228767395, 0.8554044365882874, 0.8532570004463196, 0.851109504699707, 0.8618468046188354, 0.8468146324157715, 0.8382247686386108, 0.8425197005271912, 0.8575518727302551, 0.839656412601471, 0.8482462167739868, 0.8532570004463196]</t>
+  </si>
+  <si>
+    <t>[0.8245054483413696, 0.8200383186340332, 0.8162093162536621, 0.821952760219574, 0.8308870196342468, 0.8200383186340332, 0.8232290744781494, 0.828972578048706, 0.8206764459609985, 0.8276962637901306, 0.8213146328926086, 0.8168475031852722, 0.8162093162536621, 0.8245054483413696, 0.8130185008049011, 0.825143575668335, 0.8098276853561401, 0.8206764459609985, 0.8264198899269104, 0.8059987425804138]</t>
+  </si>
+  <si>
+    <t>[0.807747483253479, 0.8063127398490906, 0.7962697148323059, 0.8020086288452148, 0.8034433126449585, 0.8098995685577393, 0.7998565435409546, 0.7955523729324341, 0.7955523729324341, 0.8027259707450867, 0.8127689957618713, 0.8142037391662598, 0.7847919464111328, 0.799139142036438, 0.7984218001365662, 0.7912482023239136, 0.7998565435409546, 0.8005738854408264, 0.7539454698562622, 0.7826398611068726, 0.7962697148323059, 0.7969871163368225, 0.7941176295280457, 0.7740315794944763, 0.7948350310325623, 0.8034433126449585, 0.7941176295280457]</t>
+  </si>
+  <si>
+    <t>[0.8562564849853516, 0.8541882038116455, 0.8273009061813354, 0.8603929877281189, 0.8335056900978088, 0.8603929877281189, 0.8210961818695068, 0.8614270687103271, 0.8479834794998169, 0.8490175604820251, 0.8262668251991272, 0.8386763334274292, 0.8500517010688782, 0.8521199822425842, 0.8479834794998169, 0.8552223443984985, 0.8634953498840332, 0.8283350467681885, 0.8231644034385681, 0.8293691873550415, 0.8417786955833435, 0.8479834794998169, 0.8335056900978088, 0.8231644034385681, 0.8283350467681885, 0.8448810577392578, 0.8386763334274292, 0.8076525330543518, 0.8159255385398865, 0.8324715495109558, 0.8438469767570496, 0.8066183924674988]</t>
+  </si>
+  <si>
+    <t>[0.82337886095047, 0.8259385824203491, 0.8242321014404297, 0.8225256204605103, 0.8259385824203491, 0.8105801939964294, 0.8114334344863892, 0.814846396446228, 0.8191125988960266, 0.8046075105667114, 0.82337886095047, 0.8199658989906311, 0.8216723799705505, 0.8122866749763489, 0.7952218651771545, 0.814846396446228, 0.7781569957733154]</t>
+  </si>
+  <si>
+    <t>[0.8057291507720947, 0.807812511920929, 0.8130208253860474, 0.8140624761581421, 0.809374988079071, 0.8291666507720947, 0.8135416507720947, 0.8286458253860474, 0.7942708134651184, 0.828125, 0.7958333492279053, 0.823437511920929, 0.8057291507720947, 0.7927083373069763, 0.815625011920929, 0.7770833373069763, 0.8109375238418579, 0.800000011920929, 0.831250011920929, 0.7713541388511658, 0.8192708492279053, 0.815625011920929, 0.8114583492279053, 0.8098958134651184, 0.8130208253860474, 0.8062499761581421, 0.8265625238418579, 0.7958333492279053, 0.8010416626930237, 0.8046875, 0.8161458373069763, 0.8145833611488342, 0.8119791746139526, 0.8177083134651184]</t>
+  </si>
+  <si>
+    <t>[0.8439425230026245, 0.8528405427932739, 0.8501026630401611, 0.8555783629417419, 0.8528405427932739, 0.8596851229667664, 0.8576317429542542, 0.8535249829292297, 0.8548939228057861, 0.8487337231636047, 0.8576317429542542, 0.8569473028182983, 0.8555783629417419, 0.8562628626823425, 0.8507871031761169, 0.8473648428916931, 0.8501026630401611, 0.8569473028182983, 0.8425735831260681, 0.8275154232978821, 0.8432580232620239]</t>
+  </si>
+  <si>
+    <t>[0.8220392465591431, 0.8315389752388, 0.8359721302986145, 0.8442052006721497, 0.836605429649353, 0.820772647857666, 0.8429385423660278, 0.8480050563812256, 0.8423052430152893, 0.8410386443138123, 0.8385053873062134, 0.8397719860076904, 0.8429385423660278, 0.8321722745895386, 0.8290057182312012, 0.8201393485069275, 0.84610515832901, 0.836605429649353, 0.8271057605743408, 0.8220392465591431, 0.8125395774841309, 0.8258391618728638, 0.8340721726417542]</t>
+  </si>
+  <si>
+    <t>[0.8095238208770752, 0.8153946399688721, 0.8219178318977356, 0.8238747715950012, 0.825179398059845, 0.83039790391922, 0.8330071568489075, 0.8414872884750366, 0.8375734090805054, 0.8382257223129272, 0.8401826620101929, 0.8238747715950012, 0.8336594700813293, 0.8199608325958252, 0.8277886509895325, 0.816046953201294, 0.8219178318977356, 0.8349640965461731, 0.8082191944122314, 0.8186562061309814, 0.8343117833137512, 0.8232224583625793, 0.8264840245246887]</t>
+  </si>
+  <si>
+    <t>[0.8356079459190369, 0.8455334901809692, 0.8529776930809021, 0.8529776930809021, 0.8542183637619019, 0.8554590344429016, 0.8362283110618591, 0.8343672752380371, 0.8436724543571472, 0.8455334901809692, 0.8542183637619019, 0.8455334901809692, 0.8169975280761719, 0.8213399648666382, 0.8294044733047485, 0.8480148911476135, 0.8405707478523254, 0.8424317836761475, 0.8405707478523254, 0.8362283110618591, 0.6445409655570984]</t>
+  </si>
+  <si>
+    <t>[0.7775768637657166, 0.7830017805099487, 0.79294753074646, 0.7730560302734375, 0.7667269706726074, 0.7875226140022278, 0.7848101258277893, 0.7965642213821411, 0.7884267568588257, 0.7947558760643005, 0.7730560302734375, 0.797468364238739, 0.7793851494789124, 0.7766727209091187, 0.7811934947967529, 0.7857142686843872, 0.7658227682113647, 0.7766727209091187, 0.7893308997154236, 0.7866184711456299, 0.7793851494789124, 0.7694393992424011, 0.7766727209091187, 0.7712477445602417, 0.7839059829711914, 0.780289351940155, 0.7658227682113647]</t>
+  </si>
+  <si>
+    <t>[0.8279430866241455, 0.8337645530700684, 0.828589916229248, 0.8324708938598633, 0.8473479747772217, 0.8279430866241455, 0.8020698428153992, 0.835705041885376, 0.8479948043823242, 0.8331177234649658, 0.8292367458343506, 0.8247089385986328, 0.8376455307006836, 0.8337645530700684, 0.8337645530700684, 0.8253557682037354, 0.844113826751709, 0.8363518714904785, 0.8350582122802734, 0.8234152793884277, 0.8214747905731201, 0.8305304050445557, 0.8363518714904785, 0.8175938129425049]</t>
+  </si>
+  <si>
+    <t>[0.7929216623306274, 0.7530120611190796, 0.7515060305595398, 0.7507529854774475, 0.7439758777618408, 0.7560241222381592, 0.7356927990913391, 0.7387048006057739, 0.7454819083213806, 0.7605421543121338, 0.7515060305595398, 0.7545180916786194, 0.7673192620277405, 0.7326807379722595, 0.7462349534034729, 0.7379518151283264]</t>
+  </si>
+  <si>
+    <t>[0.8301886916160583, 0.8144654035568237, 0.849056601524353, 0.8280922174453735, 0.8637316823005676, 0.848008394241333, 0.8343815803527832, 0.7861635088920593, 0.802935004234314, 0.8364779949188232, 0.8333333134651184, 0.8322851061820984, 0.8417190909385681, 0.8322851061820984, 0.8532494902610779, 0.8364779949188232, 0.8312368988990784, 0.8333333134651184, 0.8364779949188232, 0.8060796856880188]</t>
+  </si>
+  <si>
+    <t>[0.8462603688240051, 0.8518005609512329, 0.8518005609512329, 0.8559556603431702, 0.8434903025627136, 0.8601108193397522, 0.8566482067108154, 0.8566482067108154, 0.8594182729721069, 0.8621883392333984, 0.8677285313606262, 0.8317174315452576, 0.8538781404495239, 0.8566482067108154, 0.8566482067108154, 0.8594182729721069, 0.8476454019546509, 0.8573406934738159, 0.8573406934738159, 0.8677285313606262, 0.8545706272125244, 0.8580332398414612, 0.8608033061027527, 0.8566482067108154, 0.8324099779129028, 0.863573431968689]</t>
+  </si>
+  <si>
+    <t>[0.8887601494789124, 0.8904982805252075, 0.887601375579834, 0.8383545875549316, 0.8881807923316956, 0.8702201843261719, 0.8748551607131958, 0.8707995414733887, 0.8592120409011841, 0.8679026365280151, 0.8783314228057861, 0.8684820532798767, 0.8650057911872864, 0.8377752304077148, 0.8539977073669434, 0.8458864688873291, 0.8371958136558533]</t>
+  </si>
+  <si>
+    <t>[0.7369308471679688, 0.748735249042511, 0.7360876798629761, 0.7495784163475037, 0.7529510855674744, 0.7428330779075623, 0.7470489144325256, 0.7495784163475037, 0.7596964836120605, 0.7639123201370239, 0.7470489144325256, 0.7495784163475037, 0.7495784163475037, 0.7563237547874451, 0.7706576585769653, 0.7580100893974304, 0.7588533163070679, 0.7521079182624817, 0.7698144912719727, 0.7588533163070679, 0.7605396509170532, 0.7613828182220459, 0.7478920817375183, 0.7554805874824524, 0.7588533163070679, 0.7622259855270386, 0.7613828182220459, 0.7436762452125549, 0.7596964836120605, 0.7546374201774597]</t>
+  </si>
+  <si>
+    <t>[0.8347870707511902, 0.8337609171867371, 0.8414571285247803, 0.839404821395874, 0.8404309749603271, 0.8491533994674683, 0.8481272459030151, 0.8542842268943787, 0.8578758239746094, 0.8522319197654724, 0.845048725605011, 0.8419702649116516, 0.8363263010978699, 0.8486403226852417, 0.8465880155563354, 0.845048725605011, 0.8435094952583313, 0.8388917446136475, 0.8404309749603271, 0.847101092338562, 0.8399178981781006, 0.8373525142669678, 0.8342739939689636, 0.8501795530319214]</t>
+  </si>
+  <si>
+    <t>[0.8372243642807007, 0.8430609703063965, 0.813878059387207, 0.8177691102027893, 0.7840467095375061, 0.811284065246582, 0.8359273672103882, 0.7996109127998352, 0.8145266175270081, 0.8060959577560425, 0.8359273672103882, 0.8352788686752319, 0.8216601610183716, 0.8022049069404602, 0.8151751160621643, 0.8067445158958435, 0.8313878178596497]</t>
+  </si>
+  <si>
+    <t>[0.8501920700073242, 0.820742666721344, 0.8591549396514893, 0.8457106351852417, 0.8444302082061768, 0.8437899947166443, 0.8572342991828918, 0.8213828206062317, 0.8565940856933594, 0.8469910621643066, 0.8380281925201416, 0.8412292003631592, 0.8476312160491943, 0.8386683464050293, 0.8527528643608093, 0.8348271250724792, 0.8175415992736816, 0.8431497812271118]</t>
+  </si>
+  <si>
+    <t>[0.8695993423461914, 0.8554595708847046, 0.8633149862289429, 0.8633149862289429, 0.8664571642875671, 0.886881411075592, 0.8860958218574524, 0.883739173412323, 0.8774548172950745, 0.8821681141853333, 0.8735271096229553, 0.8719559907913208, 0.8805969953536987, 0.8711704611778259, 0.862529456615448, 0.8586017489433289, 0.8743126392364502, 0.8805969953536987, 0.8853102922439575, 0.8680282831192017, 0.8750981688499451]</t>
+  </si>
+  <si>
+    <t>[0.8323016166687012, 0.8328644037246704, 0.8598762154579163, 0.846370279788971, 0.8553742170333862, 0.8486212491989136, 0.8514350056648254, 0.8497467637062073, 0.8384918570518494, 0.8418683409690857, 0.8548114895820618, 0.8548114895820618, 0.8503094911575317, 0.8531232476234436, 0.8441193103790283, 0.8486212491989136, 0.8598762154579163, 0.8610016703605652, 0.8626899123191833, 0.8660663962364197, 0.8570624589920044, 0.8486212491989136, 0.8396173119544983, 0.8379290699958801, 0.850872278213501, 0.8216094374656677, 0.8390545845031738, 0.8531232476234436, 0.840742826461792, 0.8514350056648254, 0.8514350056648254, 0.836240828037262, 0.8339898586273193, 0.8328644037246704, 0.8491840362548828]</t>
+  </si>
+  <si>
+    <t>[0.8458942770957947, 0.8177728056907654, 0.8127109408378601, 0.8256468176841736, 0.8160855174064636, 0.8205849528312683, 0.8132733702659607, 0.83183354139328, 0.8256468176841736, 0.8233970999717712, 0.8217098116874695, 0.8093363046646118, 0.8076490163803101, 0.8239595293998718, 0.825084388256073, 0.8031495809555054]</t>
+  </si>
+  <si>
+    <t>[0.8255897164344788, 0.8270192742347717, 0.8177269697189331, 0.8320228457450867, 0.822730541229248, 0.824160099029541, 0.8177269697189331, 0.8456040024757385, 0.8284488916397095, 0.849892795085907, 0.8491779565811157, 0.8391708135604858, 0.8334524631500244, 0.8270192742347717, 0.8084346055984497, 0.8456040024757385, 0.8391708135604858, 0.8127233982086182, 0.8341672420501709, 0.7934238910675049, 0.7977126240730286, 0.8427448272705078, 0.8205861449241638, 0.8284488916397095, 0.8334524631500244]</t>
+  </si>
+  <si>
+    <t>[0.8317757248878479, 0.8202731609344482, 0.8310567736625671, 0.8281811475753784, 0.84112149477005, 0.8238677382469177, 0.8382458686828613, 0.841840386390686, 0.8281811475753784, 0.8396836519241333, 0.8389647603034973, 0.8310567736625671, 0.8432782292366028, 0.84112149477005, 0.8346513509750366, 0.8432782292366028, 0.841840386390686, 0.8382458686828613, 0.8116462826728821, 0.8353702425956726, 0.8404026031494141, 0.8425593376159668, 0.8375269770622253, 0.8159597516059875, 0.8195542693138123, 0.8152408599853516, 0.8260244131088257, 0.822429895401001]</t>
+  </si>
+  <si>
+    <t>[0.8331177234649658, 0.81888747215271, 0.8091849684715271, 0.828589916229248, 0.81888747215271, 0.8337645530700684, 0.8175938129425049, 0.8247089385986328, 0.8169469833374023, 0.8234152793884277, 0.8337645530700684, 0.8150064945220947, 0.8059508204460144, 0.8227684497833252, 0.7852522730827332, 0.8117722868919373, 0.8292367458343506, 0.7360931634902954, 0.828589916229248, 0.8027166724205017, 0.8111254572868347]</t>
+  </si>
+  <si>
+    <t>[0.8258426785469055, 0.8252184987068176, 0.8327091336250305, 0.8308364748954773, 0.8358302116394043, 0.824594259262085, 0.8233458399772644, 0.836454451084137, 0.8252184987068176, 0.8333333134651184, 0.836454451084137, 0.8377028703689575, 0.8277153372764587, 0.8220973610877991, 0.8345817923545837, 0.8270911574363708, 0.8345817923545837, 0.8395755290985107, 0.8270911574363708, 0.836454451084137, 0.8358302116394043, 0.812734067440033, 0.836454451084137, 0.8345817923545837, 0.8339575529098511, 0.8302122354507446, 0.8358302116394043, 0.8289638161659241, 0.8202247023582458, 0.8314606547355652, 0.8270911574363708, 0.8345817923545837, 0.8339575529098511]</t>
+  </si>
+  <si>
+    <t>[0.7766251564025879, 0.7627938985824585, 0.7475795149803162, 0.7475795149803162, 0.7399723529815674, 0.7538036108016968, 0.7413554787635803, 0.7351313829421997, 0.7510373592376709, 0.7669432759284973, 0.7510373592376709, 0.7316735982894897, 0.7614107728004456, 0.7434301376342773, 0.7475795149803162, 0.7427386045455933]</t>
+  </si>
+  <si>
+    <t>[0.7803738117218018, 0.7932242751121521, 0.792640209197998, 0.7873831987380981, 0.78387850522995, 0.77862149477005, 0.7751168012619019, 0.7949766516685486, 0.7336448431015015, 0.7844626307487488, 0.802570104598999, 0.7797897458076477, 0.7938084006309509, 0.7856308221817017, 0.8084112405776978, 0.8037382960319519, 0.7914719581604004, 0.8101635575294495, 0.7914719581604004, 0.7943925261497498, 0.8206775784492493, 0.802570104598999, 0.8078271150588989, 0.7908878326416016, 0.8014018535614014, 0.8060747385025024, 0.8031542301177979, 0.7932242751121521, 0.8084112405776978, 0.797897219657898, 0.7908878326416016, 0.8160046935081482, 0.7990654110908508, 0.827102780342102, 0.7920560836791992, 0.8037382960319519, 0.8066588640213013, 0.7949766516685486, 0.798481285572052, 0.7961448431015015, 0.7920560836791992, 0.8031542301177979, 0.7955607771873474, 0.8078271150588989, 0.8002336621284485, 0.7862149477005005, 0.7914719581604004, 0.7932242751121521, 0.7914719581604004]</t>
+  </si>
+  <si>
+    <t>[0.8913649320602417, 0.8948467969894409, 0.8955431580543518, 0.8913649320602417, 0.882311999797821, 0.8892757892608643, 0.8899721503257751, 0.8642061352729797, 0.878830075263977, 0.8976323008537292, 0.8669916391372681, 0.890668511390686, 0.8781337141990662, 0.8857938647270203, 0.8913649320602417, 0.8760445713996887, 0.8864902257919312, 0.8683844208717346, 0.8934540152549744, 0.8732590675354004, 0.8913649320602417, 0.8844011425971985, 0.8844011425971985, 0.8837047219276428, 0.8767409324645996]</t>
+  </si>
+  <si>
+    <t>[0.808080792427063, 0.8092691898345947, 0.8057041168212891, 0.8027332425117493, 0.7979797720909119, 0.8110516667366028, 0.8086749911308289, 0.8175876140594482, 0.8235294222831726, 0.8205585479736328, 0.8229352235794067, 0.8074866533279419, 0.8122400641441345, 0.8152109384536743, 0.8181818127632141, 0.8039215803146362, 0.7759952545166016, 0.8045157194137573, 0.8062982559204102, 0.8175876140594482, 0.8110516667366028, 0.8062982559204102, 0.8146167397499084, 0.8128342032432556]</t>
+  </si>
+  <si>
+    <t>[0.7923015356063843, 0.8035284876823425, 0.7826784253120422, 0.7914996147155762, 0.8155573606491089, 0.7947072982788086, 0.8035284876823425, 0.7955092191696167, 0.8211708068847656, 0.8259823322296143, 0.8155573606491089, 0.8227746486663818, 0.7971130609512329, 0.797914981842041, 0.806736171245575, 0.7874899506568909, 0.8211708068847656, 0.8083400130271912, 0.7866880297660828, 0.7939053773880005, 0.788291871547699, 0.8011226654052734, 0.7530072331428528, 0.8075380921363831, 0.8051323294639587]</t>
+  </si>
+  <si>
+    <t>[0.8411818742752075, 0.8291782140731812, 0.8448753356933594, 0.8439520001411438, 0.8356417417526245, 0.8531855940818787, 0.8541089296340942, 0.8448753356933594, 0.838411808013916, 0.8467220664024353, 0.8531855940818787, 0.8421052694320679, 0.8522622585296631, 0.8587257862091064, 0.861495852470398, 0.8651893138885498, 0.8301015496253967, 0.8661126494407654, 0.8421052694320679, 0.8374884724617004, 0.8485687971115112, 0.8264081478118896, 0.8254847526550293, 0.8467220664024353, 0.8264081478118896, 0.8319482803344727, 0.790397047996521, 0.8467220664024353, 0.8531855940818787, 0.8457987308502197, 0.8107109665870667, 0.8208679556846619, 0.8411818742752075]</t>
+  </si>
+  <si>
+    <t>[0.8381588459014893, 0.841128408908844, 0.834446907043457, 0.8470675349235535, 0.8567186594009399, 0.846325159072876, 0.851521909236908, 0.8418708443641663, 0.8507795333862305, 0.8559762239456177, 0.846325159072876, 0.8403860330581665, 0.8455827832221985, 0.844840407371521, 0.8322197198867798, 0.8440979719161987, 0.8374164700508118, 0.8500370979309082, 0.8478099703788757, 0.8426132202148438]</t>
+  </si>
+  <si>
+    <t>[0.8438438177108765, 0.8393393158912659, 0.8551051020622253, 0.8490990996360779, 0.8536036014556885, 0.8566066026687622, 0.8558558821678162, 0.8521021008491516, 0.8468468189239502, 0.8490990996360779, 0.8626126050949097, 0.8490990996360779, 0.8348348140716553, 0.8355855941772461, 0.837837815284729, 0.8303303122520447, 0.8596096038818359, 0.827327311038971, 0.7897897958755493, 0.8430930972099304, 0.8445945978164673, 0.825075089931488, 0.8183183073997498, 0.8130630850791931, 0.8348348140716553, 0.8325825929641724]</t>
+  </si>
+  <si>
+    <t>[0.7740350961685181, 0.7564912438392639, 0.7677192687988281, 0.7810526490211487, 0.7859649062156677, 0.7866666913032532, 0.777543842792511, 0.7873684167861938, 0.7922806739807129, 0.7901754379272461, 0.7873684167861938, 0.7817543745040894, 0.7628070116043091, 0.7817543745040894, 0.7726315855979919, 0.7880702018737793, 0.7985965013504028, 0.7845613956451416, 0.7880702018737793, 0.7950876951217651, 0.7943859696388245, 0.7789473533630371, 0.7908771634101868, 0.7817543745040894, 0.7866666913032532, 0.7964912056922913, 0.793684184551239, 0.7978947162628174, 0.793684184551239, 0.7831578850746155, 0.7894737124443054, 0.7831578850746155]</t>
+  </si>
+  <si>
+    <t>[0.8369795083999634, 0.8341566920280457, 0.8426252603530884, 0.8270995020866394, 0.8405081033706665, 0.837685227394104, 0.8207480311393738, 0.804516613483429, 0.8327452540397644, 0.8369795083999634, 0.8115737438201904, 0.837685227394104, 0.8285109400749207, 0.8292166590690613, 0.8214537501335144, 0.8143966197967529, 0.8228651881217957, 0.7925193905830383]</t>
+  </si>
+  <si>
+    <t>[0.8468084931373596, 0.8486322164535522, 0.8431611061096191, 0.8522796630859375, 0.8534954190254211, 0.8310030102729797, 0.8449848294258118, 0.8510638475418091, 0.8534954190254211, 0.8455926775932312, 0.848024308681488, 0.8425531983375549, 0.8522796630859375, 0.8364741802215576, 0.8389057517051697, 0.8449848294258118, 0.8389057517051697, 0.8395136594772339, 0.8340425491333008, 0.8401215672492981]</t>
+  </si>
+  <si>
+    <t>[0.8379923701286316, 0.8437103033065796, 0.8125793933868408, 0.8030495643615723, 0.804320216178894, 0.8214739561080933, 0.7979669570922852, 0.7833545207977295, 0.8202033042907715, 0.8011435866355896, 0.8335450887680054, 0.8106734156608582, 0.8182973265647888, 0.8005082607269287, 0.7966963052749634, 0.8265565633773804, 0.8163913488388062]</t>
+  </si>
+  <si>
+    <t>[0.8461948037147522, 0.8328898549079895, 0.8185204863548279, 0.8100053071975708, 0.8025545477867126, 0.8387439846992493, 0.78924959897995, 0.8296966552734375, 0.7764768600463867, 0.8078765273094177, 0.7967003583908081, 0.8020223379135132, 0.791378378868103, 0.7812666296958923, 0.8211814761161804, 0.8084087371826172]</t>
+  </si>
+  <si>
+    <t>[0.8686730265617371, 0.8686730265617371, 0.8611491322517395, 0.8720930218696594, 0.8570451140403748, 0.8789329528808594, 0.8809849619865417, 0.8679890632629395, 0.8392612934112549, 0.8679890632629395, 0.8611491322517395, 0.8488371968269348, 0.8536251783370972, 0.8426812291145325, 0.8385772705078125, 0.798905611038208, 0.8645690679550171, 0.8502051830291748, 0.8488371968269348, 0.7660738825798035, 0.8187414407730103, 0.8686730265617371]</t>
+  </si>
+  <si>
+    <t>[0.8417997360229492, 0.8577648997306824, 0.8563135266304016, 0.8526850342750549, 0.862844705581665, 0.8730043768882751, 0.8671988248825073, 0.8599419593811035, 0.8693758845329285, 0.8657474517822266, 0.8555877804756165, 0.857039213180542, 0.8664731383323669, 0.8548620939254761, 0.857039213180542, 0.8613933324813843, 0.8534107208251953, 0.8417997360229492, 0.8599419593811035, 0.8664731383323669, 0.8592162728309631]</t>
+  </si>
+  <si>
+    <t>[0.8867269158363342, 0.9068797826766968, 0.9034051299095154, 0.8874218463897705, 0.9013203382492065, 0.8999305367469788, 0.9006254076957703, 0.8964558839797974, 0.892981231212616, 0.8464211225509644, 0.8957609534263611, 0.8658790588378906, 0.8561500906944275, 0.8797776103019714, 0.8818624019622803, 0.8603196740150452, 0.8978457450866699]</t>
+  </si>
+  <si>
+    <t>[0.8254990577697754, 0.8254990577697754, 0.8306503295898438, 0.837089478969574, 0.8377334475517273, 0.837089478969574, 0.8390212655067444, 0.8441725969314575, 0.8480360507965088, 0.8480360507965088, 0.8435286283493042, 0.8390212655067444, 0.8461043238639832, 0.8390212655067444, 0.8551191091537476, 0.8461043238639832, 0.8654217720031738, 0.8473921418190002, 0.8325821161270142, 0.8518995642662048, 0.8415969014167786, 0.8531873822212219, 0.8448165059089661, 0.8486799597740173, 0.8486799597740173, 0.8441725969314575, 0.8435286283493042, 0.8461043238639832, 0.8499677777290344, 0.8415969014167786, 0.8319382071495056, 0.8448165059089661]</t>
+  </si>
+  <si>
+    <t>[[328   3   8]
+ [ 72  23  15]
+ [ 50   5  81]]</t>
+  </si>
+  <si>
+    <t>[[553   8  31]
+ [ 36  28  61]
+ [ 23   3 115]]</t>
+  </si>
+  <si>
+    <t>[[394   5  11]
+ [ 41  25  82]
+ [ 17   4 181]]</t>
+  </si>
+  <si>
+    <t>[[368  17  46]
+ [ 59   7  13]
+ [  8   5 235]]</t>
+  </si>
+  <si>
+    <t>[[474  10   5]
+ [  7  11  12]
+ [ 49  32 326]]</t>
+  </si>
+  <si>
+    <t>[[244  20  47]
+ [  1  12   7]
+ [ 38  21 139]]</t>
+  </si>
+  <si>
+    <t>[[513  26  27]
+ [ 25  17  21]
+ [ 49  18 239]]</t>
+  </si>
+  <si>
+    <t>[[431   7  14]
+ [ 26  13   1]
+ [ 65  26 148]]</t>
+  </si>
+  <si>
+    <t>[[350   2   7]
+ [ 23  10   8]
+ [ 32  19 107]]</t>
+  </si>
+  <si>
+    <t>[[320  20  17]
+ [  8  10   5]
+ [ 19  29 182]]</t>
+  </si>
+  <si>
+    <t>[[287   7   6]
+ [  0   0   6]
+ [ 27   5 135]]</t>
+  </si>
+  <si>
+    <t>[[576   8   5]
+ [ 50  41   6]
+ [ 31  29 155]]</t>
+  </si>
+  <si>
+    <t>[[512  26  48]
+ [ 30  27   6]
+ [ 50  24 192]]</t>
+  </si>
+  <si>
+    <t>[[507  11   9]
+ [  4   1  15]
+ [ 51   7 255]]</t>
+  </si>
+  <si>
+    <t>[[633   5  18]
+ [ 83  20  21]
+ [ 13  16  79]]</t>
+  </si>
+  <si>
+    <t>[[442   9   8]
+ [ 21  34  48]
+ [ 30  14 360]]</t>
+  </si>
+  <si>
+    <t>[[268  15  26]
+ [ 27  17  19]
+ [ 44  30 231]]</t>
+  </si>
+  <si>
+    <t>[[278  12  26]
+ [  0   8  17]
+ [ 12  13 139]]</t>
+  </si>
+  <si>
+    <t>[[326   5  15]
+ [ 97   9  34]
+ [  8   2 102]]</t>
+  </si>
+  <si>
+    <t>[[358   7   7]
+ [ 24  11  12]
+ [ 16  14 168]]</t>
+  </si>
+  <si>
+    <t>[[355   3  12]
+ [  0   0   0]
+ [ 79  10 218]]</t>
+  </si>
+  <si>
+    <t>[[205   8   9]
+ [  1   2   6]
+ [ 27  14 131]]</t>
+  </si>
+  <si>
+    <t>[[528  15  15]
+ [ 36  53  19]
+ [ 46   3 130]]</t>
+  </si>
+  <si>
+    <t>[[440  12  22]
+ [ 11  22  47]
+ [ 20   2  97]]</t>
+  </si>
+  <si>
+    <t>[[430   6  16]
+ [ 66   7   8]
+ [ 26  17 109]]</t>
+  </si>
+  <si>
+    <t>[[652  18  16]
+ [ 41  25  58]
+ [ 52   3 164]]</t>
+  </si>
+  <si>
+    <t>[[307  13   8]
+ [  4  30   9]
+ [ 25  78 159]]</t>
+  </si>
+  <si>
+    <t>[[249   8   3]
+ [ 13   7  17]
+ [ 75   3  92]]</t>
+  </si>
+  <si>
+    <t>[[476  16   6]
+ [ 74   9   1]
+ [ 39  36  48]]</t>
+  </si>
+  <si>
+    <t>[[439   8   7]
+ [ 22  14  30]
+ [ 35   3 137]]</t>
+  </si>
+  <si>
+    <t>[[373  11   7]
+ [  4   7   2]
+ [ 22  13 420]]</t>
+  </si>
+  <si>
+    <t>[[493  20  31]
+ [ 15  18   9]
+ [ 35  12 156]]</t>
+  </si>
+  <si>
+    <t>[[397   6  27]
+ [ 71  15  20]
+ [ 41  16 135]]</t>
+  </si>
+  <si>
+    <t>[[373   9   4]
+ [  7   1   1]
+ [ 14 152  84]]</t>
+  </si>
+  <si>
+    <t>[[259   7  34]
+ [  6   8   4]
+ [ 41   5 166]]</t>
+  </si>
+  <si>
+    <t>[[449   5  12]
+ [ 56  47  56]
+ [ 34   9 191]]</t>
+  </si>
+  <si>
+    <t>[[381  10  25]
+ [  9  34  23]
+ [ 16  12 150]]</t>
+  </si>
+  <si>
+    <t>[[625   9  34]
+ [ 74  23  27]
+ [ 37   3 153]]</t>
+  </si>
+  <si>
+    <t>[[524  13   1]
+ [ 11   1   0]
+ [ 20  31 169]]</t>
+  </si>
+  <si>
+    <t>[[593  24  28]
+ [ 64   4  18]
+ [ 31  16 176]]</t>
+  </si>
+  <si>
+    <t>[[422   4   6]
+ [  0   2   1]
+ [ 57  40 191]]</t>
+  </si>
+  <si>
+    <t>[[298  11  11]
+ [ 19  16   7]
+ [ 59  55 147]]</t>
+  </si>
+  <si>
+    <t>[[299   2  10]
+ [ 39  10  63]
+ [ 76   5 156]]</t>
+  </si>
+  <si>
+    <t>[[523   2   9]
+ [ 30  22  32]
+ [ 38  16 150]]</t>
+  </si>
+  <si>
+    <t>[[313   9  12]
+ [  1  14  26]
+ [  9   1 206]]</t>
+  </si>
+  <si>
+    <t>[[220  40  32]
+ [  1   3   4]
+ [ 32  14 148]]</t>
+  </si>
+  <si>
+    <t>[[240  18  31]
+ [ 65  14   8]
+ [ 14   5 231]]</t>
+  </si>
+  <si>
+    <t>[[369  32  15]
+ [ 56  41  20]
+ [ 71  13  99]]</t>
+  </si>
+  <si>
+    <t>[[303  10   8]
+ [ 12  13  14]
+ [ 19  37 293]]</t>
+  </si>
+  <si>
+    <t>[[455  21  16]
+ [ 19  40  57]
+ [ 26   5  93]]</t>
+  </si>
+  <si>
+    <t>[[271  11  16]
+ [  0   1   1]
+ [ 36  12 147]]</t>
+  </si>
+  <si>
+    <t>[[426   7  14]
+ [ 10  22  14]
+ [ 23   7 139]]</t>
+  </si>
+  <si>
+    <t>[[241   9  16]
+ [ 98  44   7]
+ [  5   5  64]]</t>
+  </si>
+  <si>
+    <t>[[493  36  40]
+ [ 17  37  49]
+ [ 56  32 299]]</t>
+  </si>
+  <si>
+    <t>[[364  12  25]
+ [  1   3  24]
+ [ 22  13 158]]</t>
+  </si>
+  <si>
+    <t>[[554   4   7]
+ [ 23  14  12]
+ [ 44  12 241]]</t>
+  </si>
+  <si>
+    <t>[[418   5  15]
+ [ 33  22   7]
+ [ 76   3 125]]</t>
+  </si>
+  <si>
+    <t>[[341   5  11]
+ [  8  10  25]
+ [ 13  19 252]]</t>
+  </si>
+  <si>
+    <t>[[649   9   9]
+ [ 71  28  12]
+ [ 52  28  88]]</t>
+  </si>
+  <si>
+    <t>[[333  22  19]
+ [ 18   6  10]
+ [ 15  13 175]]</t>
+  </si>
+  <si>
+    <t>[[440  39  39]
+ [ 26  39  33]
+ [ 58  27 228]]</t>
+  </si>
+  <si>
+    <t>[[437   2  21]
+ [ 34  10  56]
+ [ 47   8 189]]</t>
+  </si>
+  <si>
+    <t>[[386  11   7]
+ [ 11   4   4]
+ [ 14  26 111]]</t>
+  </si>
+  <si>
+    <t>[[446  13   9]
+ [ 17   9  18]
+ [ 25  13 265]]</t>
+  </si>
+  <si>
+    <t>[[240  12  23]
+ [ 73  16  19]
+ [ 11   3 105]]</t>
+  </si>
+  <si>
+    <t>[[428   4  17]
+ [ 44  15  14]
+ [ 92   4 105]]</t>
+  </si>
+  <si>
+    <t>[[430   4   5]
+ [  7  26   7]
+ [ 15   8 201]]</t>
+  </si>
+  <si>
+    <t>[[418  29  22]
+ [ 19  27   5]
+ [ 30  22 180]]</t>
+  </si>
+  <si>
+    <t>[[509  13  23]
+ [ 29  19  14]
+ [ 29  10 162]]</t>
+  </si>
+  <si>
+    <t>[[362   8   6]
+ [  1   0   0]
+ [129  33 177]]</t>
+  </si>
+  <si>
+    <t>[[418   8  16]
+ [ 29  50  24]
+ [  4   3 187]]</t>
+  </si>
+  <si>
+    <t>[[327   8  15]
+ [ 59  11  13]
+ [ 10   5 111]]</t>
+  </si>
+  <si>
+    <t>[[406  16   8]
+ [ 11  37  14]
+ [ 17   9 184]]</t>
+  </si>
+  <si>
+    <t>[[344  11  12]
+ [ 13  17   9]
+ [ 21  11 233]]</t>
+  </si>
+  <si>
+    <t>[[580  12  12]
+ [ 32  16  27]
+ [ 32  37 251]]</t>
+  </si>
+  <si>
+    <t>[[511  13  14]
+ [ 17  18  51]
+ [ 17   4 116]]</t>
+  </si>
+  <si>
+    <t>[[290   3   6]
+ [ 92  13  56]
+ [ 16   2 211]]</t>
+  </si>
+  <si>
+    <t>[[449  14   9]
+ [ 13   4  15]
+ [ 33  15  63]]</t>
+  </si>
+  <si>
+    <t>[[325  15  15]
+ [ 30  44  11]
+ [ 22  40 184]]</t>
+  </si>
+  <si>
+    <t>[[390  22  25]
+ [ 54  15  10]
+ [ 18  18 234]]</t>
+  </si>
+  <si>
+    <t>[[477  59  14]
+ [ 19  13   2]
+ [ 71  45 118]]</t>
+  </si>
+  <si>
+    <t>[[166   7   5]
+ [ 25  10   4]
+ [111  10  71]]</t>
+  </si>
+  <si>
+    <t>[[545  30  51]
+ [ 38  21  19]
+ [ 81  16 169]]</t>
+  </si>
+  <si>
+    <t>[[311  12  16]
+ [  1   7   4]
+ [ 33  11 123]]</t>
+  </si>
+  <si>
+    <t>[[425  10  18]
+ [ 26  18  24]
+ [ 32  15 148]]</t>
+  </si>
+  <si>
+    <t>[[270 117  13]
+ [ 22  14  54]
+ [ 39  11 235]]</t>
+  </si>
+  <si>
+    <t>[[432  19  11]
+ [ 11  37  29]
+ [ 27  92 223]]</t>
+  </si>
+  <si>
+    <t>[[211  11   6]
+ [ 74  18  16]
+ [ 10   3  75]]</t>
+  </si>
+  <si>
+    <t>[[255   7   2]
+ [  0   0   2]
+ [  7   3 300]]</t>
+  </si>
+  <si>
+    <t>[[367  11  17]
+ [ 16   3  11]
+ [ 32  21 157]]</t>
+  </si>
+  <si>
+    <t>[[599   5  26]
+ [ 73  24  18]
+ [ 20  11 141]]</t>
+  </si>
+  <si>
+    <t>[[254   5  11]
+ [  6   8  10]
+ [ 18   6 146]]</t>
+  </si>
+  <si>
+    <t>[[396  20  34]
+ [ 31  25  16]
+ [ 18  33 181]]</t>
+  </si>
+  <si>
+    <t>[[671  11  11]
+ [ 14   3   4]
+ [ 43  11 110]]</t>
+  </si>
+  <si>
+    <t>[[509  37  48]
+ [ 39  58  40]
+ [ 43   4 164]]</t>
+  </si>
+  <si>
+    <t>[[317  32   7]
+ [ 27  10   1]
+ [110  53 105]]</t>
+  </si>
+  <si>
+    <t>[[478  13  11]
+ [ 56  13   7]
+ [ 35   7 205]]</t>
+  </si>
+  <si>
+    <t>[[173   4   9]
+ [ 74  15   5]
+ [  7   5 144]]</t>
+  </si>
+  <si>
+    <t>[[454  78  18]
+ [ 11  24   8]
+ [ 33  64 138]]</t>
+  </si>
+  <si>
+    <t>[[315   2   9]
+ [  4   4   7]
+ [ 27  14 315]]</t>
+  </si>
+  <si>
+    <t>[[481  20  36]
+ [ 18  12   2]
+ [ 61  16 170]]</t>
+  </si>
+  <si>
+    <t>[[309  40  16]
+ [ 28  23  54]
+ [ 28  22 192]]</t>
+  </si>
+  <si>
+    <t>[[482   5  22]
+ [ 39  29  99]
+ [ 17   6 141]]</t>
+  </si>
+  <si>
+    <t>[[304   2   4]
+ [ 48   6   5]
+ [ 60  20 129]]</t>
+  </si>
+  <si>
+    <t>[[504  11   5]
+ [  9   2   1]
+ [ 22   5 175]]</t>
+  </si>
+  <si>
+    <t>[[459  14   8]
+ [ 35  25  24]
+ [ 18  18 145]]</t>
+  </si>
+  <si>
+    <t>[[324   4   2]
+ [  3   3   4]
+ [ 85  10 101]]</t>
+  </si>
+  <si>
+    <t>[[522  26  31]
+ [ 28  37  20]
+ [ 36  14 162]]</t>
+  </si>
+  <si>
+    <t>[[526   2  15]
+ [ 25  22  18]
+ [ 41   1 260]]</t>
+  </si>
+  <si>
+    <t>[[334  10   9]
+ [  8  17  15]
+ [ 55  65 193]]</t>
+  </si>
+  <si>
+    <t>[[518  32  44]
+ [ 53  56  56]
+ [ 58   6 199]]</t>
+  </si>
+  <si>
+    <t>[[452  33  22]
+ [  6   3   4]
+ [ 40  70 144]]</t>
+  </si>
+  <si>
+    <t>[[391   8  10]
+ [ 23  19  16]
+ [ 48  10 118]]</t>
+  </si>
+  <si>
+    <t>[[508  13   7]
+ [ 21  17  31]
+ [  6  17  81]]</t>
+  </si>
+  <si>
+    <t>[[273   7   2]
+ [ 13  23   2]
+ [ 67  27  83]]</t>
+  </si>
+  <si>
+    <t>[[189   3  18]
+ [  0  10  12]
+ [  7   9 181]]</t>
+  </si>
+  <si>
+    <t>[[548   3  18]
+ [118  26  28]
+ [ 17   1 107]]</t>
+  </si>
+  <si>
+    <t>[[532   4   6]
+ [ 18   9  10]
+ [ 39  13 161]]</t>
+  </si>
+  <si>
+    <t>[[461  10  20]
+ [ 58  18  13]
+ [ 18   7 323]]</t>
+  </si>
+  <si>
+    <t>[[150   3  14]
+ [  1   3  10]
+ [ 10  22 143]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.65 0.21 0.14]
+ [0.37 0.04 0.6 ]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.01 0.05]
+ [0.29 0.22 0.49]
+ [0.16 0.02 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.28 0.17 0.55]
+ [0.08 0.02 0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.85 0.04 0.11]
+ [0.75 0.09 0.16]
+ [0.03 0.02 0.95]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.01]
+ [0.23 0.37 0.4 ]
+ [0.12 0.08 0.8 ]]</t>
+  </si>
+  <si>
+    <t>[[0.78 0.06 0.15]
+ [0.05 0.6  0.35]
+ [0.19 0.11 0.7 ]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.05 0.05]
+ [0.4  0.27 0.33]
+ [0.16 0.06 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.65 0.32 0.02]
+ [0.27 0.11 0.62]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.56 0.24 0.2 ]
+ [0.2  0.12 0.68]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.06 0.05]
+ [0.35 0.43 0.22]
+ [0.08 0.13 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.   0.   1.  ]
+ [0.16 0.03 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.52 0.42 0.06]
+ [0.14 0.13 0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.04 0.08]
+ [0.48 0.43 0.1 ]
+ [0.19 0.09 0.72]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.2  0.05 0.75]
+ [0.16 0.02 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.67 0.16 0.17]
+ [0.12 0.15 0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.2  0.33 0.47]
+ [0.07 0.03 0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.05 0.08]
+ [0.43 0.27 0.3 ]
+ [0.14 0.1  0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.88 0.04 0.08]
+ [0.   0.32 0.68]
+ [0.07 0.08 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.01 0.04]
+ [0.69 0.06 0.24]
+ [0.07 0.02 0.91]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.51 0.23 0.26]
+ [0.08 0.07 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [ nan  nan  nan]
+ [0.26 0.03 0.71]]</t>
   </si>
   <si>
     <t>[[0.92 0.04 0.04]
- [0.57 0.22 0.2 ]
- [0.1  0.29 0.6 ]]</t>
-  </si>
-  <si>
-    <t>[[0.87 0.1  0.04]
- [0.26 0.43 0.31]
- [0.1  0.15 0.75]]</t>
+ [0.11 0.22 0.67]
+ [0.16 0.08 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.03]
+ [0.33 0.49 0.18]
+ [0.26 0.02 0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.03 0.05]
+ [0.14 0.28 0.59]
+ [0.17 0.02 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.81 0.09 0.1 ]
+ [0.17 0.11 0.72]]</t>
   </si>
   <si>
     <t>[[0.95 0.03 0.02]
- [0.4  0.38 0.22]
- [0.13 0.12 0.74]]</t>
+ [0.33 0.2  0.47]
+ [0.24 0.01 0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.04 0.02]
+ [0.09 0.7  0.21]
+ [0.1  0.3  0.61]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.03 0.01]
+ [0.35 0.19 0.46]
+ [0.44 0.02 0.54]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.03 0.01]
+ [0.88 0.11 0.01]
+ [0.32 0.29 0.39]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.02]
+ [0.33 0.21 0.45]
+ [0.2  0.02 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.31 0.54 0.15]
+ [0.05 0.03 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.04 0.06]
+ [0.36 0.43 0.21]
+ [0.17 0.06 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.01 0.06]
+ [0.67 0.14 0.19]
+ [0.21 0.08 0.7 ]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.01]
+ [0.78 0.11 0.11]
+ [0.06 0.61 0.34]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.02 0.11]
+ [0.33 0.44 0.22]
+ [0.19 0.02 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.35 0.3  0.35]
+ [0.15 0.04 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.02 0.06]
+ [0.14 0.52 0.35]
+ [0.09 0.07 0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.01 0.05]
+ [0.6  0.19 0.22]
+ [0.19 0.02 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.  ]
+ [0.92 0.08 0.  ]
+ [0.09 0.14 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.04 0.04]
+ [0.74 0.05 0.21]
+ [0.14 0.07 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.   0.67 0.33]
+ [0.2  0.14 0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.03 0.03]
+ [0.45 0.38 0.17]
+ [0.23 0.21 0.56]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.35 0.09 0.56]
+ [0.32 0.02 0.66]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.   0.02]
+ [0.36 0.26 0.38]
+ [0.19 0.08 0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.04]
+ [0.02 0.34 0.63]
+ [0.04 0.   0.95]]</t>
+  </si>
+  <si>
+    <t>[[0.75 0.14 0.11]
+ [0.12 0.38 0.5 ]
+ [0.16 0.07 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.83 0.06 0.11]
+ [0.75 0.16 0.09]
+ [0.06 0.02 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.08 0.04]
+ [0.48 0.35 0.17]
+ [0.39 0.07 0.54]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.02]
+ [0.31 0.33 0.36]
+ [0.05 0.11 0.84]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.04 0.03]
+ [0.16 0.34 0.49]
+ [0.21 0.04 0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.04 0.05]
+ [0.   0.5  0.5 ]
+ [0.18 0.06 0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.22 0.48 0.3 ]
+ [0.14 0.04 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.03 0.06]
+ [0.66 0.3  0.05]
+ [0.07 0.07 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.06 0.07]
+ [0.17 0.36 0.48]
+ [0.14 0.08 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.91 0.03 0.06]
+ [0.04 0.11 0.86]
+ [0.11 0.07 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.47 0.29 0.24]
+ [0.15 0.04 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.03]
+ [0.53 0.35 0.11]
+ [0.37 0.01 0.61]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.19 0.23 0.58]
+ [0.05 0.07 0.89]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.01]
+ [0.64 0.25 0.11]
+ [0.31 0.17 0.52]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.06 0.05]
+ [0.53 0.18 0.29]
+ [0.07 0.06 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.85 0.08 0.08]
+ [0.27 0.4  0.34]
+ [0.19 0.09 0.73]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.   0.05]
+ [0.34 0.1  0.56]
+ [0.19 0.03 0.77]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.03 0.02]
+ [0.58 0.21 0.21]
+ [0.09 0.17 0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.39 0.2  0.41]
+ [0.08 0.04 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.04 0.08]
+ [0.68 0.15 0.18]
+ [0.09 0.03 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.6  0.21 0.19]
+ [0.46 0.02 0.52]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.18 0.65 0.18]
+ [0.07 0.04 0.9 ]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.06 0.05]
+ [0.37 0.53 0.1 ]
+ [0.13 0.09 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.02 0.04]
+ [0.47 0.31 0.23]
+ [0.14 0.05 0.81]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [1.   0.   0.  ]
+ [0.38 0.1  0.52]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.04]
+ [0.28 0.49 0.23]
+ [0.02 0.02 0.96]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.02 0.04]
+ [0.71 0.13 0.16]
+ [0.08 0.04 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.04 0.02]
+ [0.18 0.6  0.23]
+ [0.08 0.04 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.03 0.03]
+ [0.33 0.44 0.23]
+ [0.08 0.04 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.43 0.21 0.36]
+ [0.1  0.12 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.02 0.03]
+ [0.2  0.21 0.59]
+ [0.12 0.03 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.02]
+ [0.57 0.08 0.35]
+ [0.07 0.01 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.41 0.12 0.47]
+ [0.3  0.14 0.57]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.04 0.04]
+ [0.35 0.52 0.13]
+ [0.09 0.16 0.75]]</t>
   </si>
   <si>
     <t>[[0.89 0.05 0.06]
- [0.26 0.3  0.44]
- [0.16 0.09 0.75]]</t>
-  </si>
-  <si>
-    <t>[[0.88 0.09 0.02]
- [0.36 0.35 0.29]
- [0.09 0.09 0.81]]</t>
-  </si>
-  <si>
-    <t>[[0.95 0.04 0.01]
- [0.25 0.41 0.34]
- [0.12 0.11 0.77]]</t>
-  </si>
-  <si>
-    <t>[[0.91 0.06 0.03]
- [0.16 0.6  0.24]
- [0.13 0.13 0.74]]</t>
-  </si>
-  <si>
-    <t>[[0.89 0.06 0.04]
- [0.28 0.37 0.35]
- [0.16 0.38 0.46]]</t>
+ [0.68 0.19 0.13]
+ [0.07 0.07 0.87]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.11 0.03]
+ [0.56 0.38 0.06]
+ [0.3  0.19 0.5 ]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.04 0.03]
+ [0.64 0.26 0.1 ]
+ [0.58 0.05 0.37]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.05 0.08]
+ [0.49 0.27 0.24]
+ [0.3  0.06 0.64]]</t>
+  </si>
+  <si>
+    <t>[[0.92 0.04 0.05]
+ [0.08 0.58 0.33]
+ [0.2  0.07 0.74]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.02 0.04]
+ [0.38 0.26 0.35]
+ [0.16 0.08 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.68 0.29 0.03]
+ [0.24 0.16 0.6 ]
+ [0.14 0.04 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.04 0.02]
+ [0.14 0.48 0.38]
+ [0.08 0.27 0.65]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.05 0.03]
+ [0.69 0.17 0.15]
+ [0.11 0.03 0.85]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.03 0.01]
+ [0.   0.   1.  ]
+ [0.02 0.01 0.97]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.03 0.04]
+ [0.53 0.1  0.37]
+ [0.15 0.1  0.75]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.63 0.21 0.16]
+ [0.12 0.06 0.82]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.02 0.04]
+ [0.25 0.33 0.42]
+ [0.11 0.04 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.88 0.04 0.08]
+ [0.43 0.35 0.22]
+ [0.08 0.14 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.02]
+ [0.67 0.14 0.19]
+ [0.26 0.07 0.67]]</t>
+  </si>
+  <si>
+    <t>[[0.86 0.06 0.08]
+ [0.28 0.42 0.29]
+ [0.2  0.02 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.09 0.02]
+ [0.71 0.26 0.03]
+ [0.41 0.2  0.39]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.02]
+ [0.74 0.17 0.09]
+ [0.14 0.03 0.83]]</t>
+  </si>
+  <si>
+    <t>[[0.93 0.02 0.05]
+ [0.79 0.16 0.05]
+ [0.04 0.03 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.83 0.14 0.03]
+ [0.26 0.56 0.19]
+ [0.14 0.27 0.59]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.01 0.03]
+ [0.27 0.27 0.47]
+ [0.08 0.04 0.88]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.04 0.07]
+ [0.56 0.38 0.06]
+ [0.25 0.06 0.69]]</t>
+  </si>
+  <si>
+    <t>[[0.85 0.11 0.04]
+ [0.27 0.22 0.51]
+ [0.12 0.09 0.79]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.01 0.04]
+ [0.23 0.17 0.59]
+ [0.1  0.04 0.86]]</t>
   </si>
   <si>
     <t>[[0.98 0.01 0.01]
- [0.49 0.32 0.19]
- [0.33 0.17 0.5 ]]</t>
-  </si>
-  <si>
-    <t>[[0.95 0.02 0.03]
- [0.37 0.53 0.1 ]
- [0.11 0.28 0.61]]</t>
+ [0.81 0.1  0.08]
+ [0.29 0.1  0.62]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.01]
+ [0.75 0.17 0.08]
+ [0.11 0.02 0.87]]</t>
   </si>
   <si>
     <t>[[0.95 0.03 0.02]
- [0.58 0.26 0.17]
- [0.07 0.14 0.78]]</t>
+ [0.42 0.3  0.29]
+ [0.1  0.1  0.8 ]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.3  0.3  0.4 ]
+ [0.43 0.05 0.52]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.04 0.05]
+ [0.33 0.44 0.24]
+ [0.17 0.07 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.   0.03]
+ [0.38 0.34 0.28]
+ [0.14 0.   0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.95 0.03 0.03]
+ [0.2  0.42 0.38]
+ [0.18 0.21 0.62]]</t>
+  </si>
+  <si>
+    <t>[[0.87 0.05 0.07]
+ [0.32 0.34 0.34]
+ [0.22 0.02 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.89 0.07 0.04]
+ [0.46 0.23 0.31]
+ [0.16 0.28 0.57]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.02]
+ [0.4  0.33 0.28]
+ [0.27 0.06 0.67]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.02 0.01]
+ [0.3  0.25 0.45]
+ [0.06 0.16 0.78]]</t>
+  </si>
+  <si>
+    <t>[[0.97 0.02 0.01]
+ [0.34 0.61 0.05]
+ [0.38 0.15 0.47]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.01 0.09]
+ [0.   0.45 0.55]
+ [0.04 0.05 0.92]]</t>
+  </si>
+  <si>
+    <t>[[0.96 0.01 0.03]
+ [0.69 0.15 0.16]
+ [0.14 0.01 0.86]]</t>
+  </si>
+  <si>
+    <t>[[0.98 0.01 0.01]
+ [0.49 0.24 0.27]
+ [0.18 0.06 0.76]]</t>
+  </si>
+  <si>
+    <t>[[0.94 0.02 0.04]
+ [0.65 0.2  0.15]
+ [0.05 0.02 0.93]]</t>
+  </si>
+  <si>
+    <t>[[0.9  0.02 0.08]
+ [0.07 0.21 0.71]
+ [0.06 0.13 0.82]]</t>
   </si>
 </sst>
 </file>
@@ -679,7 +3404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,37 +3450,37 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>491</v>
       </c>
       <c r="G2">
-        <v>0.61328125</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="H2">
-        <v>0.5833175622955991</v>
+        <v>0.5907435889346352</v>
       </c>
       <c r="I2">
-        <v>0.5741559086395234</v>
+        <v>0.7498901755353368</v>
       </c>
       <c r="J2">
-        <v>0.5628208047886258</v>
+        <v>0.6108911091335653</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>611</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -763,37 +3488,37 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>252</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>492</v>
       </c>
       <c r="G3">
-        <v>0.7787114845938375</v>
+        <v>0.8111888111888111</v>
       </c>
       <c r="H3">
-        <v>0.6829520913035899</v>
+        <v>0.6579081528336848</v>
       </c>
       <c r="I3">
-        <v>0.6720253699513804</v>
+        <v>0.7256996815820346</v>
       </c>
       <c r="J3">
-        <v>0.6717379872887209</v>
+        <v>0.6403292020089407</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>612</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -801,37 +3526,37 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>253</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>493</v>
       </c>
       <c r="G4">
-        <v>0.8066298342541437</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="H4">
-        <v>0.6904142843231362</v>
+        <v>0.6753113775451375</v>
       </c>
       <c r="I4">
-        <v>0.7347880331661165</v>
+        <v>0.755853158394034</v>
       </c>
       <c r="J4">
-        <v>0.704970845112518</v>
+        <v>0.6497942028855089</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>613</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -839,37 +3564,37 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>254</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>374</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>494</v>
       </c>
       <c r="G5">
-        <v>0.7652671755725191</v>
+        <v>0.8047493403693932</v>
       </c>
       <c r="H5">
-        <v>0.6458984451724924</v>
+        <v>0.6300055154541667</v>
       </c>
       <c r="I5">
-        <v>0.6596451319381256</v>
+        <v>0.6288920165767456</v>
       </c>
       <c r="J5">
-        <v>0.6477142773909144</v>
+        <v>0.6155576092584123</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>614</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -877,37 +3602,37 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>495</v>
       </c>
       <c r="G6">
-        <v>0.7847133757961784</v>
+        <v>0.8758099352051836</v>
       </c>
       <c r="H6">
-        <v>0.6803522704798258</v>
+        <v>0.712324873674567</v>
       </c>
       <c r="I6">
-        <v>0.6779713605826562</v>
+        <v>0.6841080367456955</v>
       </c>
       <c r="J6">
-        <v>0.6784014116559427</v>
+        <v>0.6882391404019743</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>615</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -915,37 +3640,37 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>376</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>496</v>
       </c>
       <c r="G7">
-        <v>0.8281653746770026</v>
+        <v>0.7466918714555766</v>
       </c>
       <c r="H7">
-        <v>0.7083650537305571</v>
+        <v>0.6955287061396387</v>
       </c>
       <c r="I7">
-        <v>0.7181261261261261</v>
+        <v>0.6029377203154938</v>
       </c>
       <c r="J7">
-        <v>0.7116737147086498</v>
+        <v>0.620437795763912</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>616</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -953,37 +3678,37 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>257</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>497</v>
       </c>
       <c r="G8">
-        <v>0.8216432865731463</v>
+        <v>0.8224598930481284</v>
       </c>
       <c r="H8">
-        <v>0.7483553855146394</v>
+        <v>0.6524158151678418</v>
       </c>
       <c r="I8">
-        <v>0.7426083988862758</v>
+        <v>0.6617921339616989</v>
       </c>
       <c r="J8">
-        <v>0.7449373382439161</v>
+        <v>0.6567056444123142</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>617</v>
       </c>
       <c r="L8" t="s">
-        <v>83</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -991,37 +3716,37 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>378</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>498</v>
       </c>
       <c r="G9">
-        <v>0.6935286935286935</v>
+        <v>0.8098495212038304</v>
       </c>
       <c r="H9">
-        <v>0.5750520062621973</v>
+        <v>0.6325955616445119</v>
       </c>
       <c r="I9">
-        <v>0.584517492741177</v>
+        <v>0.6720848846197215</v>
       </c>
       <c r="J9">
-        <v>0.5780882073742147</v>
+        <v>0.6412180854319999</v>
       </c>
       <c r="K9" t="s">
-        <v>73</v>
+        <v>618</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1029,37 +3754,37 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>379</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>499</v>
       </c>
       <c r="G10">
-        <v>0.6729131175468483</v>
+        <v>0.8369175627240143</v>
       </c>
       <c r="H10">
-        <v>0.596910288512552</v>
+        <v>0.6320159970049333</v>
       </c>
       <c r="I10">
-        <v>0.6210668192691914</v>
+        <v>0.6879424521177855</v>
       </c>
       <c r="J10">
-        <v>0.5794717050321384</v>
+        <v>0.6527646195185463</v>
       </c>
       <c r="K10" t="s">
-        <v>74</v>
+        <v>619</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1067,37 +3792,37 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>500</v>
       </c>
       <c r="G11">
-        <v>0.7892976588628763</v>
+        <v>0.839344262295082</v>
       </c>
       <c r="H11">
-        <v>0.6985989091060499</v>
+        <v>0.7074818333130354</v>
       </c>
       <c r="I11">
-        <v>0.7121650851953882</v>
+        <v>0.6612795299659778</v>
       </c>
       <c r="J11">
-        <v>0.6924715785061908</v>
+        <v>0.6639010085115514</v>
       </c>
       <c r="K11" t="s">
-        <v>75</v>
+        <v>620</v>
       </c>
       <c r="L11" t="s">
-        <v>86</v>
+        <v>740</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1105,37 +3830,4179 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F12" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12">
+        <v>0.8921775898520085</v>
+      </c>
+      <c r="H12">
+        <v>0.5883499667332003</v>
+      </c>
+      <c r="I12">
+        <v>0.6107933619307596</v>
+      </c>
+      <c r="J12">
+        <v>0.5982420105534693</v>
+      </c>
+      <c r="K12" t="s">
+        <v>621</v>
+      </c>
+      <c r="L12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G13">
+        <v>0.8568257491675916</v>
+      </c>
+      <c r="H13">
+        <v>0.7071797792095881</v>
+      </c>
+      <c r="I13">
+        <v>0.7786960980557284</v>
+      </c>
+      <c r="J13">
+        <v>0.7355927700048729</v>
+      </c>
+      <c r="K13" t="s">
+        <v>622</v>
+      </c>
+      <c r="L13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F14" t="s">
+        <v>503</v>
+      </c>
+      <c r="G14">
+        <v>0.7989071038251366</v>
+      </c>
+      <c r="H14">
+        <v>0.6746986921227984</v>
+      </c>
+      <c r="I14">
+        <v>0.6653340067974215</v>
+      </c>
+      <c r="J14">
+        <v>0.6683280782601665</v>
+      </c>
+      <c r="K14" t="s">
+        <v>623</v>
+      </c>
+      <c r="L14" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" t="s">
+        <v>504</v>
+      </c>
+      <c r="G15">
+        <v>0.8872093023255814</v>
+      </c>
+      <c r="H15">
+        <v>0.6089152738287936</v>
+      </c>
+      <c r="I15">
+        <v>0.6229151016292501</v>
+      </c>
+      <c r="J15">
+        <v>0.6146326714508533</v>
+      </c>
+      <c r="K15" t="s">
+        <v>624</v>
+      </c>
+      <c r="L15" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" t="s">
+        <v>265</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" t="s">
+        <v>505</v>
+      </c>
+      <c r="G16">
+        <v>0.8243243243243243</v>
+      </c>
+      <c r="H16">
+        <v>0.6192369428174569</v>
+      </c>
+      <c r="I16">
+        <v>0.6752030535580519</v>
+      </c>
+      <c r="J16">
+        <v>0.6185395696849006</v>
+      </c>
+      <c r="K16" t="s">
+        <v>625</v>
+      </c>
+      <c r="L16" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" t="s">
+        <v>506</v>
+      </c>
+      <c r="G17">
+        <v>0.865424430641822</v>
+      </c>
+      <c r="H17">
+        <v>0.7280497197508317</v>
+      </c>
+      <c r="I17">
+        <v>0.7861425225309073</v>
+      </c>
+      <c r="J17">
+        <v>0.7438734030197445</v>
+      </c>
+      <c r="K17" t="s">
+        <v>626</v>
+      </c>
+      <c r="L17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F18" t="s">
+        <v>507</v>
+      </c>
+      <c r="G18">
+        <v>0.7621861152141802</v>
+      </c>
+      <c r="H18">
+        <v>0.6315107449597344</v>
+      </c>
+      <c r="I18">
+        <v>0.6339035140342095</v>
+      </c>
+      <c r="J18">
+        <v>0.6314470722395756</v>
+      </c>
+      <c r="K18" t="s">
+        <v>627</v>
+      </c>
+      <c r="L18" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" t="s">
+        <v>508</v>
+      </c>
+      <c r="G19">
+        <v>0.8415841584158416</v>
+      </c>
+      <c r="H19">
+        <v>0.6824359370175981</v>
+      </c>
+      <c r="I19">
+        <v>0.6549270652718929</v>
+      </c>
+      <c r="J19">
+        <v>0.6656073420776401</v>
+      </c>
+      <c r="K19" t="s">
+        <v>628</v>
+      </c>
+      <c r="L19" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>389</v>
+      </c>
+      <c r="F20" t="s">
+        <v>509</v>
+      </c>
+      <c r="G20">
+        <v>0.7307692307692307</v>
+      </c>
+      <c r="H20">
+        <v>0.6390655105973025</v>
+      </c>
+      <c r="I20">
+        <v>0.664792399727519</v>
+      </c>
+      <c r="J20">
+        <v>0.5767249512496661</v>
+      </c>
+      <c r="K20" t="s">
+        <v>629</v>
+      </c>
+      <c r="L20" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>390</v>
+      </c>
+      <c r="F21" t="s">
+        <v>510</v>
+      </c>
+      <c r="G21">
+        <v>0.8703403565640194</v>
+      </c>
+      <c r="H21">
+        <v>0.6816309976913958</v>
+      </c>
+      <c r="I21">
+        <v>0.7138810697874399</v>
+      </c>
+      <c r="J21">
+        <v>0.6936928050852101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>630</v>
+      </c>
+      <c r="L21" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" t="s">
+        <v>511</v>
+      </c>
+      <c r="G22">
+        <v>0.8463810930576071</v>
+      </c>
+      <c r="H22">
+        <v>0.5565190597763888</v>
+      </c>
+      <c r="I22">
+        <v>0.5885994790623121</v>
+      </c>
+      <c r="J22">
+        <v>0.5650008801430464</v>
+      </c>
+      <c r="K22" t="s">
+        <v>631</v>
+      </c>
+      <c r="L22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>392</v>
+      </c>
+      <c r="F23" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23">
+        <v>0.8387096774193549</v>
+      </c>
+      <c r="H23">
+        <v>0.6357578508741299</v>
+      </c>
+      <c r="I23">
+        <v>0.620140644495398</v>
+      </c>
+      <c r="J23">
+        <v>0.6154034644600682</v>
+      </c>
+      <c r="K23" t="s">
+        <v>632</v>
+      </c>
+      <c r="L23" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>393</v>
+      </c>
+      <c r="F24" t="s">
+        <v>513</v>
+      </c>
+      <c r="G24">
+        <v>0.8414201183431953</v>
+      </c>
+      <c r="H24">
+        <v>0.7210780943735831</v>
+      </c>
+      <c r="I24">
+        <v>0.8015785235201695</v>
+      </c>
+      <c r="J24">
+        <v>0.7514352842340623</v>
+      </c>
+      <c r="K24" t="s">
+        <v>633</v>
+      </c>
+      <c r="L24" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>394</v>
+      </c>
+      <c r="F25" t="s">
+        <v>514</v>
+      </c>
+      <c r="G25">
+        <v>0.8306092124814265</v>
+      </c>
+      <c r="H25">
+        <v>0.6727986975380871</v>
+      </c>
+      <c r="I25">
+        <v>0.7098770169140823</v>
+      </c>
+      <c r="J25">
+        <v>0.6637430101434941</v>
+      </c>
+      <c r="K25" t="s">
+        <v>634</v>
+      </c>
+      <c r="L25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>395</v>
+      </c>
+      <c r="F26" t="s">
+        <v>515</v>
+      </c>
+      <c r="G26">
+        <v>0.7970802919708029</v>
+      </c>
+      <c r="H26">
+        <v>0.584950816624211</v>
+      </c>
+      <c r="I26">
+        <v>0.625545664928605</v>
+      </c>
+      <c r="J26">
+        <v>0.5913317618926611</v>
+      </c>
+      <c r="K26" t="s">
+        <v>635</v>
+      </c>
+      <c r="L26" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" t="s">
+        <v>516</v>
+      </c>
+      <c r="G27">
+        <v>0.8172983479105929</v>
+      </c>
+      <c r="H27">
+        <v>0.6336362228328825</v>
+      </c>
+      <c r="I27">
+        <v>0.702573892118855</v>
+      </c>
+      <c r="J27">
+        <v>0.6410309364713701</v>
+      </c>
+      <c r="K27" t="s">
+        <v>636</v>
+      </c>
+      <c r="L27" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>397</v>
+      </c>
+      <c r="F28" t="s">
+        <v>517</v>
+      </c>
+      <c r="G28">
+        <v>0.7835703001579779</v>
+      </c>
+      <c r="H28">
+        <v>0.7468400857894607</v>
+      </c>
+      <c r="I28">
+        <v>0.6883444837990292</v>
+      </c>
+      <c r="J28">
+        <v>0.672193283659194</v>
+      </c>
+      <c r="K28" t="s">
+        <v>637</v>
+      </c>
+      <c r="L28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>398</v>
+      </c>
+      <c r="F29" t="s">
+        <v>518</v>
+      </c>
+      <c r="G29">
+        <v>0.7451820128479657</v>
+      </c>
+      <c r="H29">
+        <v>0.5626859891565773</v>
+      </c>
+      <c r="I29">
+        <v>0.6497299546260971</v>
+      </c>
+      <c r="J29">
+        <v>0.5803995261067857</v>
+      </c>
+      <c r="K29" t="s">
+        <v>638</v>
+      </c>
+      <c r="L29" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30">
+        <v>33</v>
+      </c>
+      <c r="E30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30" t="s">
+        <v>519</v>
+      </c>
+      <c r="G30">
+        <v>0.7560283687943262</v>
+      </c>
+      <c r="H30">
+        <v>0.4844033509181907</v>
+      </c>
+      <c r="I30">
+        <v>0.6094725540354419</v>
+      </c>
+      <c r="J30">
+        <v>0.5130895805108</v>
+      </c>
+      <c r="K30" t="s">
+        <v>639</v>
+      </c>
+      <c r="L30" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>400</v>
+      </c>
+      <c r="F31" t="s">
+        <v>520</v>
+      </c>
+      <c r="G31">
+        <v>0.8489208633093526</v>
+      </c>
+      <c r="H31">
+        <v>0.6539795691337541</v>
+      </c>
+      <c r="I31">
+        <v>0.7441456556667904</v>
+      </c>
+      <c r="J31">
+        <v>0.6723343735136829</v>
+      </c>
+      <c r="K31" t="s">
+        <v>640</v>
+      </c>
+      <c r="L31" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>401</v>
+      </c>
+      <c r="F32" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32">
+        <v>0.9313154831199069</v>
+      </c>
+      <c r="H32">
+        <v>0.8051675519706211</v>
+      </c>
+      <c r="I32">
+        <v>0.7132215077885706</v>
+      </c>
+      <c r="J32">
+        <v>0.7375706199980213</v>
+      </c>
+      <c r="K32" t="s">
+        <v>641</v>
+      </c>
+      <c r="L32" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33">
+        <v>28</v>
+      </c>
+      <c r="E33" t="s">
+        <v>402</v>
+      </c>
+      <c r="F33" t="s">
+        <v>522</v>
+      </c>
+      <c r="G33">
+        <v>0.8453738910012675</v>
+      </c>
+      <c r="H33">
+        <v>0.7010981116584564</v>
+      </c>
+      <c r="I33">
+        <v>0.6879457786797959</v>
+      </c>
+      <c r="J33">
+        <v>0.6934476505651553</v>
+      </c>
+      <c r="K33" t="s">
+        <v>642</v>
+      </c>
+      <c r="L33" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="B34" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34" t="s">
+        <v>403</v>
+      </c>
+      <c r="F34" t="s">
+        <v>523</v>
+      </c>
+      <c r="G34">
+        <v>0.7513736263736264</v>
+      </c>
+      <c r="H34">
+        <v>0.5892967493052509</v>
+      </c>
+      <c r="I34">
+        <v>0.6423747848109341</v>
+      </c>
+      <c r="J34">
+        <v>0.5924319160552952</v>
+      </c>
+      <c r="K34" t="s">
+        <v>643</v>
+      </c>
+      <c r="L34" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>404</v>
+      </c>
+      <c r="F35" t="s">
+        <v>524</v>
+      </c>
+      <c r="G35">
+        <v>0.710077519379845</v>
+      </c>
+      <c r="H35">
+        <v>0.4711441182114757</v>
+      </c>
+      <c r="I35">
+        <v>0.6322311906131625</v>
+      </c>
+      <c r="J35">
+        <v>0.487893794693981</v>
+      </c>
+      <c r="K35" t="s">
+        <v>644</v>
+      </c>
+      <c r="L35" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>285</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36" t="s">
+        <v>405</v>
+      </c>
+      <c r="F36" t="s">
+        <v>525</v>
+      </c>
+      <c r="G36">
+        <v>0.8169811320754717</v>
+      </c>
+      <c r="H36">
+        <v>0.696932215234102</v>
+      </c>
+      <c r="I36">
+        <v>0.6867102396514161</v>
+      </c>
+      <c r="J36">
+        <v>0.6913050110679085</v>
+      </c>
+      <c r="K36" t="s">
+        <v>645</v>
+      </c>
+      <c r="L36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D37">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" t="s">
+        <v>526</v>
+      </c>
+      <c r="G37">
+        <v>0.79976717112922</v>
+      </c>
+      <c r="H37">
+        <v>0.691785371273589</v>
+      </c>
+      <c r="I37">
+        <v>0.7803225531562767</v>
+      </c>
+      <c r="J37">
+        <v>0.6985509785879135</v>
+      </c>
+      <c r="K37" t="s">
+        <v>646</v>
+      </c>
+      <c r="L37" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>407</v>
+      </c>
+      <c r="F38" t="s">
+        <v>527</v>
+      </c>
+      <c r="G38">
+        <v>0.8560606060606061</v>
+      </c>
+      <c r="H38">
+        <v>0.7579045096601277</v>
+      </c>
+      <c r="I38">
+        <v>0.7677140866796041</v>
+      </c>
+      <c r="J38">
+        <v>0.7607522296253109</v>
+      </c>
+      <c r="K38" t="s">
+        <v>647</v>
+      </c>
+      <c r="L38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>288</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>408</v>
+      </c>
+      <c r="F39" t="s">
+        <v>528</v>
+      </c>
+      <c r="G39">
+        <v>0.8131979695431472</v>
+      </c>
+      <c r="H39">
+        <v>0.6379529091574497</v>
+      </c>
+      <c r="I39">
+        <v>0.7404269702598634</v>
+      </c>
+      <c r="J39">
+        <v>0.6438214394189238</v>
+      </c>
+      <c r="K39" t="s">
+        <v>648</v>
+      </c>
+      <c r="L39" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>289</v>
+      </c>
+      <c r="D40">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" t="s">
+        <v>529</v>
+      </c>
+      <c r="G40">
+        <v>0.9012987012987013</v>
+      </c>
+      <c r="H40">
+        <v>0.6084976155608125</v>
+      </c>
+      <c r="I40">
+        <v>0.65349467114173</v>
+      </c>
+      <c r="J40">
+        <v>0.6201944324061145</v>
+      </c>
+      <c r="K40" t="s">
+        <v>649</v>
+      </c>
+      <c r="L40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>410</v>
+      </c>
+      <c r="F41" t="s">
+        <v>530</v>
+      </c>
+      <c r="G41">
+        <v>0.810272536687631</v>
+      </c>
+      <c r="H41">
+        <v>0.585043047009884</v>
+      </c>
+      <c r="I41">
+        <v>0.5818734961176822</v>
+      </c>
+      <c r="J41">
+        <v>0.5807573760337232</v>
+      </c>
+      <c r="K41" t="s">
+        <v>650</v>
+      </c>
+      <c r="L41" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>411</v>
+      </c>
+      <c r="F42" t="s">
+        <v>531</v>
+      </c>
+      <c r="G42">
+        <v>0.8506224066390041</v>
+      </c>
+      <c r="H42">
+        <v>0.7689043209876543</v>
+      </c>
+      <c r="I42">
+        <v>0.6297089377329007</v>
+      </c>
+      <c r="J42">
+        <v>0.5980317763926682</v>
+      </c>
+      <c r="K42" t="s">
+        <v>651</v>
+      </c>
+      <c r="L42" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>412</v>
+      </c>
+      <c r="F43" t="s">
+        <v>532</v>
+      </c>
+      <c r="G43">
+        <v>0.7399678972712681</v>
+      </c>
+      <c r="H43">
+        <v>0.6251402572523261</v>
+      </c>
+      <c r="I43">
+        <v>0.6261947445393216</v>
+      </c>
+      <c r="J43">
+        <v>0.6015090667599715</v>
+      </c>
+      <c r="K43" t="s">
+        <v>652</v>
+      </c>
+      <c r="L43" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>413</v>
+      </c>
+      <c r="F44" t="s">
+        <v>533</v>
+      </c>
+      <c r="G44">
+        <v>0.7045454545454546</v>
+      </c>
+      <c r="H44">
+        <v>0.5696427844612549</v>
+      </c>
+      <c r="I44">
+        <v>0.66389340792115</v>
+      </c>
+      <c r="J44">
+        <v>0.5497980809641757</v>
+      </c>
+      <c r="K44" t="s">
+        <v>653</v>
+      </c>
+      <c r="L44" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>414</v>
+      </c>
+      <c r="F45" t="s">
+        <v>534</v>
+      </c>
+      <c r="G45">
+        <v>0.8454987834549879</v>
+      </c>
+      <c r="H45">
+        <v>0.6588665428718304</v>
+      </c>
+      <c r="I45">
+        <v>0.7400936974926399</v>
+      </c>
+      <c r="J45">
+        <v>0.6813700527804244</v>
+      </c>
+      <c r="K45" t="s">
+        <v>654</v>
+      </c>
+      <c r="L45" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>415</v>
+      </c>
+      <c r="F46" t="s">
+        <v>535</v>
+      </c>
+      <c r="G46">
+        <v>0.9018612521150592</v>
+      </c>
+      <c r="H46">
+        <v>0.7440976222802814</v>
+      </c>
+      <c r="I46">
+        <v>0.7988786253644397</v>
+      </c>
+      <c r="J46">
+        <v>0.7597457447368109</v>
+      </c>
+      <c r="K46" t="s">
+        <v>655</v>
+      </c>
+      <c r="L46" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>416</v>
+      </c>
+      <c r="F47" t="s">
+        <v>536</v>
+      </c>
+      <c r="G47">
+        <v>0.7510121457489879</v>
+      </c>
+      <c r="H47">
+        <v>0.6304370851574636</v>
+      </c>
+      <c r="I47">
+        <v>0.5755148741418764</v>
+      </c>
+      <c r="J47">
+        <v>0.56090530830592</v>
+      </c>
+      <c r="K47" t="s">
+        <v>656</v>
+      </c>
+      <c r="L47" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+      <c r="E48" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>537</v>
+      </c>
+      <c r="G48">
+        <v>0.7747603833865815</v>
+      </c>
+      <c r="H48">
+        <v>0.6384564557398348</v>
+      </c>
+      <c r="I48">
+        <v>0.6620950103708725</v>
+      </c>
+      <c r="J48">
+        <v>0.6345805580949894</v>
+      </c>
+      <c r="K48" t="s">
+        <v>657</v>
+      </c>
+      <c r="L48" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="E49" t="s">
+        <v>418</v>
+      </c>
+      <c r="F49" t="s">
+        <v>538</v>
+      </c>
+      <c r="G49">
+        <v>0.7108938547486033</v>
+      </c>
+      <c r="H49">
+        <v>0.5928100625846527</v>
+      </c>
+      <c r="I49">
+        <v>0.6531672563663303</v>
+      </c>
+      <c r="J49">
+        <v>0.6125856970829119</v>
+      </c>
+      <c r="K49" t="s">
+        <v>658</v>
+      </c>
+      <c r="L49" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
+        <v>419</v>
+      </c>
+      <c r="F50" t="s">
+        <v>539</v>
+      </c>
+      <c r="G50">
+        <v>0.8589562764456982</v>
+      </c>
+      <c r="H50">
+        <v>0.7056000380853766</v>
+      </c>
+      <c r="I50">
+        <v>0.6846703418559706</v>
+      </c>
+      <c r="J50">
+        <v>0.6901157409342823</v>
+      </c>
+      <c r="K50" t="s">
+        <v>659</v>
+      </c>
+      <c r="L50" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51" t="s">
+        <v>420</v>
+      </c>
+      <c r="F51" t="s">
+        <v>540</v>
+      </c>
+      <c r="G51">
+        <v>0.8032786885245902</v>
+      </c>
+      <c r="H51">
+        <v>0.6732081113914589</v>
+      </c>
+      <c r="I51">
+        <v>0.6921005233053426</v>
+      </c>
+      <c r="J51">
+        <v>0.6660928198608955</v>
+      </c>
+      <c r="K51" t="s">
+        <v>660</v>
+      </c>
+      <c r="L51" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" t="s">
+        <v>301</v>
+      </c>
+      <c r="D52">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>421</v>
+      </c>
+      <c r="F52" t="s">
+        <v>541</v>
+      </c>
+      <c r="G52">
+        <v>0.8464646464646465</v>
+      </c>
+      <c r="H52">
+        <v>0.7210807090001721</v>
+      </c>
+      <c r="I52">
+        <v>0.6069147621443641</v>
+      </c>
+      <c r="J52">
+        <v>0.5972441165654637</v>
+      </c>
+      <c r="K52" t="s">
+        <v>661</v>
+      </c>
+      <c r="L52" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C53" t="s">
+        <v>302</v>
+      </c>
+      <c r="D53">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53" t="s">
+        <v>542</v>
+      </c>
+      <c r="G53">
+        <v>0.8867069486404834</v>
+      </c>
+      <c r="H53">
+        <v>0.7512554036313324</v>
+      </c>
+      <c r="I53">
+        <v>0.7905170052052757</v>
+      </c>
+      <c r="J53">
+        <v>0.7681212230759962</v>
+      </c>
+      <c r="K53" t="s">
+        <v>662</v>
+      </c>
+      <c r="L53" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
+      <c r="D54">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F54" t="s">
+        <v>543</v>
+      </c>
+      <c r="G54">
+        <v>0.7137014314928425</v>
+      </c>
+      <c r="H54">
+        <v>0.6887273052938895</v>
+      </c>
+      <c r="I54">
+        <v>0.7316114229706852</v>
+      </c>
+      <c r="J54">
+        <v>0.6701052544245701</v>
+      </c>
+      <c r="K54" t="s">
+        <v>663</v>
+      </c>
+      <c r="L54" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" t="s">
+        <v>304</v>
+      </c>
+      <c r="D55">
+        <v>16</v>
+      </c>
+      <c r="E55" t="s">
+        <v>424</v>
+      </c>
+      <c r="F55" t="s">
+        <v>544</v>
+      </c>
+      <c r="G55">
+        <v>0.7828139754485364</v>
+      </c>
+      <c r="H55">
+        <v>0.6660884858421385</v>
+      </c>
+      <c r="I55">
+        <v>0.6646747480214384</v>
+      </c>
+      <c r="J55">
+        <v>0.6653682003184632</v>
+      </c>
+      <c r="K55" t="s">
+        <v>664</v>
+      </c>
+      <c r="L55" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56">
+        <v>29</v>
+      </c>
+      <c r="E56" t="s">
+        <v>425</v>
+      </c>
+      <c r="F56" t="s">
+        <v>545</v>
+      </c>
+      <c r="G56">
+        <v>0.8440514469453376</v>
+      </c>
+      <c r="H56">
+        <v>0.6111754600668327</v>
+      </c>
+      <c r="I56">
+        <v>0.603665452249881</v>
+      </c>
+      <c r="J56">
+        <v>0.6070002417210539</v>
+      </c>
+      <c r="K56" t="s">
+        <v>665</v>
+      </c>
+      <c r="L56" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>426</v>
+      </c>
+      <c r="F57" t="s">
+        <v>546</v>
+      </c>
+      <c r="G57">
+        <v>0.8880351262349067</v>
+      </c>
+      <c r="H57">
+        <v>0.6925643568711415</v>
+      </c>
+      <c r="I57">
+        <v>0.7618997481316322</v>
+      </c>
+      <c r="J57">
+        <v>0.7180043948406246</v>
+      </c>
+      <c r="K57" t="s">
+        <v>666</v>
+      </c>
+      <c r="L57" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>427</v>
+      </c>
+      <c r="F58" t="s">
+        <v>547</v>
+      </c>
+      <c r="G58">
+        <v>0.8025568181818182</v>
+      </c>
+      <c r="H58">
+        <v>0.6406405690866713</v>
+      </c>
+      <c r="I58">
+        <v>0.7922807832810542</v>
+      </c>
+      <c r="J58">
+        <v>0.6856109417797486</v>
+      </c>
+      <c r="K58" t="s">
+        <v>667</v>
+      </c>
+      <c r="L58" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>308</v>
+      </c>
+      <c r="D59">
+        <v>28</v>
+      </c>
+      <c r="E59" t="s">
+        <v>428</v>
+      </c>
+      <c r="F59" t="s">
+        <v>548</v>
+      </c>
+      <c r="G59">
+        <v>0.881578947368421</v>
+      </c>
+      <c r="H59">
+        <v>0.6916880520086625</v>
+      </c>
+      <c r="I59">
+        <v>0.7037021991116889</v>
+      </c>
+      <c r="J59">
+        <v>0.6964662597485963</v>
+      </c>
+      <c r="K59" t="s">
+        <v>668</v>
+      </c>
+      <c r="L59" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D60">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>429</v>
+      </c>
+      <c r="F60" t="s">
+        <v>549</v>
+      </c>
+      <c r="G60">
+        <v>0.8086680761099366</v>
+      </c>
+      <c r="H60">
+        <v>0.5830250897717164</v>
+      </c>
+      <c r="I60">
+        <v>0.6929274184800164</v>
+      </c>
+      <c r="J60">
+        <v>0.618525389316126</v>
+      </c>
+      <c r="K60" t="s">
+        <v>669</v>
+      </c>
+      <c r="L60" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>310</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>430</v>
+      </c>
+      <c r="F61" t="s">
+        <v>550</v>
+      </c>
+      <c r="G61">
+        <v>0.8412438625204582</v>
+      </c>
+      <c r="H61">
+        <v>0.6429712951011125</v>
+      </c>
+      <c r="I61">
+        <v>0.6380068887477689</v>
+      </c>
+      <c r="J61">
+        <v>0.63998361998362</v>
+      </c>
+      <c r="K61" t="s">
+        <v>670</v>
+      </c>
+      <c r="L61" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>191</v>
+      </c>
+      <c r="C62" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>431</v>
+      </c>
+      <c r="F62" t="s">
+        <v>551</v>
+      </c>
+      <c r="G62">
+        <v>0.7610333692142088</v>
+      </c>
+      <c r="H62">
+        <v>0.658604845962217</v>
+      </c>
+      <c r="I62">
+        <v>0.6570410759723736</v>
+      </c>
+      <c r="J62">
+        <v>0.6575495828477181</v>
+      </c>
+      <c r="K62" t="s">
+        <v>671</v>
+      </c>
+      <c r="L62" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63">
+        <v>23</v>
+      </c>
+      <c r="E63" t="s">
+        <v>432</v>
+      </c>
+      <c r="F63" t="s">
+        <v>552</v>
+      </c>
+      <c r="G63">
+        <v>0.7910447761194029</v>
+      </c>
+      <c r="H63">
+        <v>0.6081967213114754</v>
+      </c>
+      <c r="I63">
+        <v>0.6847185531396057</v>
+      </c>
+      <c r="J63">
+        <v>0.6005012229840813</v>
+      </c>
+      <c r="K63" t="s">
+        <v>672</v>
+      </c>
+      <c r="L63" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64" t="s">
+        <v>433</v>
+      </c>
+      <c r="F64" t="s">
+        <v>553</v>
+      </c>
+      <c r="G64">
+        <v>0.872822299651568</v>
+      </c>
+      <c r="H64">
+        <v>0.6336903993640911</v>
+      </c>
+      <c r="I64">
+        <v>0.648856596858418</v>
+      </c>
+      <c r="J64">
+        <v>0.6312531367746091</v>
+      </c>
+      <c r="K64" t="s">
+        <v>673</v>
+      </c>
+      <c r="L64" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>434</v>
+      </c>
+      <c r="F65" t="s">
+        <v>554</v>
+      </c>
+      <c r="G65">
+        <v>0.8834355828220859</v>
+      </c>
+      <c r="H65">
+        <v>0.6773747887609275</v>
+      </c>
+      <c r="I65">
+        <v>0.6928705099825692</v>
+      </c>
+      <c r="J65">
+        <v>0.6838862656974234</v>
+      </c>
+      <c r="K65" t="s">
+        <v>674</v>
+      </c>
+      <c r="L65" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D66">
+        <v>20</v>
+      </c>
+      <c r="E66" t="s">
+        <v>435</v>
+      </c>
+      <c r="F66" t="s">
+        <v>555</v>
+      </c>
+      <c r="G66">
+        <v>0.7191235059760956</v>
+      </c>
+      <c r="H66">
+        <v>0.6344094540172972</v>
+      </c>
+      <c r="I66">
+        <v>0.6570518290948398</v>
+      </c>
+      <c r="J66">
+        <v>0.6070083569380326</v>
+      </c>
+      <c r="K66" t="s">
+        <v>675</v>
+      </c>
+      <c r="L66" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>316</v>
+      </c>
+      <c r="D67">
+        <v>16</v>
+      </c>
+      <c r="E67" t="s">
+        <v>436</v>
+      </c>
+      <c r="F67" t="s">
+        <v>556</v>
+      </c>
+      <c r="G67">
+        <v>0.7579529737206085</v>
+      </c>
+      <c r="H67">
+        <v>0.5603656368066614</v>
+      </c>
+      <c r="I67">
+        <v>0.7276993282666134</v>
+      </c>
+      <c r="J67">
+        <v>0.5935534026986465</v>
+      </c>
+      <c r="K67" t="s">
+        <v>676</v>
+      </c>
+      <c r="L67" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>317</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F68" t="s">
+        <v>557</v>
+      </c>
+      <c r="G68">
+        <v>0.9345661450924608</v>
+      </c>
+      <c r="H68">
+        <v>0.8422734298730882</v>
+      </c>
+      <c r="I68">
+        <v>0.859733310591698</v>
+      </c>
+      <c r="J68">
+        <v>0.8505942551200625</v>
+      </c>
+      <c r="K68" t="s">
+        <v>677</v>
+      </c>
+      <c r="L68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69">
+        <v>21</v>
+      </c>
+      <c r="E69" t="s">
+        <v>438</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69">
+        <v>0.8311170212765957</v>
+      </c>
+      <c r="H69">
+        <v>0.7321772764690024</v>
+      </c>
+      <c r="I69">
+        <v>0.70359800333732</v>
+      </c>
+      <c r="J69">
+        <v>0.7106042008039147</v>
+      </c>
+      <c r="K69" t="s">
+        <v>678</v>
+      </c>
+      <c r="L69" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70" t="s">
+        <v>439</v>
+      </c>
+      <c r="F70" t="s">
+        <v>559</v>
+      </c>
+      <c r="G70">
+        <v>0.8539603960396039</v>
+      </c>
+      <c r="H70">
+        <v>0.6821222387617992</v>
+      </c>
+      <c r="I70">
+        <v>0.7213861783934369</v>
+      </c>
+      <c r="J70">
+        <v>0.696950747094632</v>
+      </c>
+      <c r="K70" t="s">
+        <v>679</v>
+      </c>
+      <c r="L70" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>440</v>
+      </c>
+      <c r="F71" t="s">
+        <v>560</v>
+      </c>
+      <c r="G71">
+        <v>0.7527932960893855</v>
+      </c>
+      <c r="H71">
+        <v>0.4949632837507061</v>
+      </c>
+      <c r="I71">
+        <v>0.5676618241592252</v>
+      </c>
+      <c r="J71">
+        <v>0.5040874340095697</v>
+      </c>
+      <c r="K71" t="s">
+        <v>680</v>
+      </c>
+      <c r="L71" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>321</v>
+      </c>
+      <c r="D72">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
+        <v>441</v>
+      </c>
+      <c r="F72" t="s">
+        <v>561</v>
+      </c>
+      <c r="G72">
+        <v>0.8863328822733424</v>
+      </c>
+      <c r="H72">
+        <v>0.7983519254810476</v>
+      </c>
+      <c r="I72">
+        <v>0.8567633152319102</v>
+      </c>
+      <c r="J72">
+        <v>0.811429118485858</v>
+      </c>
+      <c r="K72" t="s">
+        <v>681</v>
+      </c>
+      <c r="L72" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
+      </c>
+      <c r="D73">
+        <v>30</v>
+      </c>
+      <c r="E73" t="s">
+        <v>442</v>
+      </c>
+      <c r="F73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G73">
+        <v>0.8032200357781754</v>
+      </c>
+      <c r="H73">
+        <v>0.6492560719066743</v>
+      </c>
+      <c r="I73">
+        <v>0.6942173533900152</v>
+      </c>
+      <c r="J73">
+        <v>0.6400063096364254</v>
+      </c>
+      <c r="K73" t="s">
+        <v>682</v>
+      </c>
+      <c r="L73" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" t="s">
+        <v>323</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>443</v>
+      </c>
+      <c r="F74" t="s">
+        <v>563</v>
+      </c>
+      <c r="G74">
+        <v>0.8931623931623932</v>
+      </c>
+      <c r="H74">
+        <v>0.8057169054168304</v>
+      </c>
+      <c r="I74">
+        <v>0.8084873160037582</v>
+      </c>
+      <c r="J74">
+        <v>0.8070681309928621</v>
+      </c>
+      <c r="K74" t="s">
+        <v>683</v>
+      </c>
+      <c r="L74" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75">
+        <v>24</v>
+      </c>
+      <c r="E75" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" t="s">
+        <v>564</v>
+      </c>
+      <c r="G75">
+        <v>0.8852459016393442</v>
+      </c>
+      <c r="H75">
+        <v>0.7508241397295944</v>
+      </c>
+      <c r="I75">
+        <v>0.7544243935320051</v>
+      </c>
+      <c r="J75">
+        <v>0.7524226360941263</v>
+      </c>
+      <c r="K75" t="s">
+        <v>684</v>
+      </c>
+      <c r="L75" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
+        <v>325</v>
+      </c>
+      <c r="D76">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12">
-        <v>0.8208255159474672</v>
-      </c>
-      <c r="H12">
-        <v>0.664399638214796</v>
-      </c>
-      <c r="I12">
-        <v>0.7039857779511524</v>
-      </c>
-      <c r="J12">
-        <v>0.6768756053690774</v>
-      </c>
-      <c r="K12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="E76" t="s">
+        <v>445</v>
+      </c>
+      <c r="F76" t="s">
+        <v>565</v>
+      </c>
+      <c r="G76">
+        <v>0.8478478478478478</v>
+      </c>
+      <c r="H76">
+        <v>0.652657744665195</v>
+      </c>
+      <c r="I76">
+        <v>0.6707640685151929</v>
+      </c>
+      <c r="J76">
+        <v>0.6603364759102464</v>
+      </c>
+      <c r="K76" t="s">
+        <v>685</v>
+      </c>
+      <c r="L76" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" t="s">
+        <v>326</v>
+      </c>
+      <c r="D77">
+        <v>27</v>
+      </c>
+      <c r="E77" t="s">
+        <v>446</v>
+      </c>
+      <c r="F77" t="s">
+        <v>566</v>
+      </c>
+      <c r="G77">
+        <v>0.8475689881734559</v>
+      </c>
+      <c r="H77">
+        <v>0.6686105934808668</v>
+      </c>
+      <c r="I77">
+        <v>0.6975947903617832</v>
+      </c>
+      <c r="J77">
+        <v>0.6569184621668905</v>
+      </c>
+      <c r="K77" t="s">
+        <v>686</v>
+      </c>
+      <c r="L77" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>327</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
+        <v>447</v>
+      </c>
+      <c r="F78" t="s">
+        <v>567</v>
+      </c>
+      <c r="G78">
+        <v>0.7460087082728593</v>
+      </c>
+      <c r="H78">
+        <v>0.6573474623598033</v>
+      </c>
+      <c r="I78">
+        <v>0.7412530703987991</v>
+      </c>
+      <c r="J78">
+        <v>0.6060088599964284</v>
+      </c>
+      <c r="K78" t="s">
+        <v>687</v>
+      </c>
+      <c r="L78" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" t="s">
+        <v>328</v>
+      </c>
+      <c r="D79">
+        <v>20</v>
+      </c>
+      <c r="E79" t="s">
+        <v>448</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79">
+        <v>0.8390243902439024</v>
+      </c>
+      <c r="H79">
+        <v>0.5479462513360819</v>
+      </c>
+      <c r="I79">
+        <v>0.5841402531057703</v>
+      </c>
+      <c r="J79">
+        <v>0.562695284722172</v>
+      </c>
+      <c r="K79" t="s">
+        <v>688</v>
+      </c>
+      <c r="L79" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80">
+        <v>27</v>
+      </c>
+      <c r="E80" t="s">
+        <v>449</v>
+      </c>
+      <c r="F80" t="s">
+        <v>569</v>
+      </c>
+      <c r="G80">
+        <v>0.8061224489795918</v>
+      </c>
+      <c r="H80">
+        <v>0.7270358320816017</v>
+      </c>
+      <c r="I80">
+        <v>0.7275679620507206</v>
+      </c>
+      <c r="J80">
+        <v>0.7244188518337897</v>
+      </c>
+      <c r="K80" t="s">
+        <v>689</v>
+      </c>
+      <c r="L80" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>330</v>
+      </c>
+      <c r="D81">
+        <v>32</v>
+      </c>
+      <c r="E81" t="s">
+        <v>450</v>
+      </c>
+      <c r="F81" t="s">
+        <v>570</v>
+      </c>
+      <c r="G81">
+        <v>0.8129770992366412</v>
+      </c>
+      <c r="H81">
+        <v>0.6496628656579994</v>
+      </c>
+      <c r="I81">
+        <v>0.6622571975731827</v>
+      </c>
+      <c r="J81">
+        <v>0.6532619601179551</v>
+      </c>
+      <c r="K81" t="s">
+        <v>690</v>
+      </c>
+      <c r="L81" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>331</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" t="s">
+        <v>571</v>
+      </c>
+      <c r="G82">
+        <v>0.7432762836185819</v>
+      </c>
+      <c r="H82">
+        <v>0.584633057574234</v>
+      </c>
+      <c r="I82">
+        <v>0.6109926557687752</v>
+      </c>
+      <c r="J82">
+        <v>0.5558543964039253</v>
+      </c>
+      <c r="K82" t="s">
+        <v>691</v>
+      </c>
+      <c r="L82" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+      <c r="C83" t="s">
+        <v>332</v>
+      </c>
+      <c r="D83">
+        <v>34</v>
+      </c>
+      <c r="E83" t="s">
+        <v>452</v>
+      </c>
+      <c r="F83" t="s">
+        <v>572</v>
+      </c>
+      <c r="G83">
+        <v>0.6039119804400978</v>
+      </c>
+      <c r="H83">
+        <v>0.5195953975799481</v>
+      </c>
+      <c r="I83">
+        <v>0.6025130815141853</v>
+      </c>
+      <c r="J83">
+        <v>0.5055852644087938</v>
+      </c>
+      <c r="K83" t="s">
+        <v>692</v>
+      </c>
+      <c r="L83" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" t="s">
+        <v>573</v>
+      </c>
+      <c r="G84">
+        <v>0.7577319587628866</v>
+      </c>
+      <c r="H84">
+        <v>0.5917253812831414</v>
+      </c>
+      <c r="I84">
+        <v>0.6137763130207711</v>
+      </c>
+      <c r="J84">
+        <v>0.6013077811389799</v>
+      </c>
+      <c r="K84" t="s">
+        <v>693</v>
+      </c>
+      <c r="L84" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" t="s">
+        <v>334</v>
+      </c>
+      <c r="D85">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" t="s">
+        <v>574</v>
+      </c>
+      <c r="G85">
+        <v>0.8513513513513513</v>
+      </c>
+      <c r="H85">
+        <v>0.7457548030782094</v>
+      </c>
+      <c r="I85">
+        <v>0.6649741562785042</v>
+      </c>
+      <c r="J85">
+        <v>0.6787461485254355</v>
+      </c>
+      <c r="K85" t="s">
+        <v>694</v>
+      </c>
+      <c r="L85" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>455</v>
+      </c>
+      <c r="F86" t="s">
+        <v>575</v>
+      </c>
+      <c r="G86">
+        <v>0.8254189944134078</v>
+      </c>
+      <c r="H86">
+        <v>0.653956695600638</v>
+      </c>
+      <c r="I86">
+        <v>0.6924897346162845</v>
+      </c>
+      <c r="J86">
+        <v>0.6670917170917171</v>
+      </c>
+      <c r="K86" t="s">
+        <v>695</v>
+      </c>
+      <c r="L86" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>336</v>
+      </c>
+      <c r="D87">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>456</v>
+      </c>
+      <c r="F87" t="s">
+        <v>576</v>
+      </c>
+      <c r="G87">
+        <v>0.6696774193548387</v>
+      </c>
+      <c r="H87">
+        <v>0.5517056530214425</v>
+      </c>
+      <c r="I87">
+        <v>0.5641490714828442</v>
+      </c>
+      <c r="J87">
+        <v>0.5533617254882675</v>
+      </c>
+      <c r="K87" t="s">
+        <v>696</v>
+      </c>
+      <c r="L87" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88">
+        <v>27</v>
+      </c>
+      <c r="E88" t="s">
+        <v>457</v>
+      </c>
+      <c r="F88" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88">
+        <v>0.7854710556186152</v>
+      </c>
+      <c r="H88">
+        <v>0.6892103997367155</v>
+      </c>
+      <c r="I88">
+        <v>0.6723525604724537</v>
+      </c>
+      <c r="J88">
+        <v>0.6643725327143196</v>
+      </c>
+      <c r="K88" t="s">
+        <v>697</v>
+      </c>
+      <c r="L88" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>338</v>
+      </c>
+      <c r="D89">
+        <v>24</v>
+      </c>
+      <c r="E89" t="s">
+        <v>458</v>
+      </c>
+      <c r="F89" t="s">
+        <v>578</v>
+      </c>
+      <c r="G89">
+        <v>0.7169811320754716</v>
+      </c>
+      <c r="H89">
+        <v>0.6481259968102073</v>
+      </c>
+      <c r="I89">
+        <v>0.6836500378589317</v>
+      </c>
+      <c r="J89">
+        <v>0.6249456777181442</v>
+      </c>
+      <c r="K89" t="s">
+        <v>698</v>
+      </c>
+      <c r="L89" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>339</v>
+      </c>
+      <c r="D90">
+        <v>16</v>
+      </c>
+      <c r="E90" t="s">
+        <v>459</v>
+      </c>
+      <c r="F90" t="s">
+        <v>579</v>
+      </c>
+      <c r="G90">
+        <v>0.9635416666666666</v>
+      </c>
+      <c r="H90">
+        <v>0.6445503421309873</v>
+      </c>
+      <c r="I90">
+        <v>0.6533748493370831</v>
+      </c>
+      <c r="J90">
+        <v>0.6489268153726111</v>
+      </c>
+      <c r="K90" t="s">
+        <v>699</v>
+      </c>
+      <c r="L90" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91" t="s">
+        <v>460</v>
+      </c>
+      <c r="F91" t="s">
+        <v>580</v>
+      </c>
+      <c r="G91">
+        <v>0.8299212598425196</v>
+      </c>
+      <c r="H91">
+        <v>0.5922443238898935</v>
+      </c>
+      <c r="I91">
+        <v>0.6062334279201749</v>
+      </c>
+      <c r="J91">
+        <v>0.5978057468915415</v>
+      </c>
+      <c r="K91" t="s">
+        <v>700</v>
+      </c>
+      <c r="L91" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>341</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+      <c r="E92" t="s">
+        <v>461</v>
+      </c>
+      <c r="F92" t="s">
+        <v>581</v>
+      </c>
+      <c r="G92">
+        <v>0.8331515812431843</v>
+      </c>
+      <c r="H92">
+        <v>0.6597522482760096</v>
+      </c>
+      <c r="I92">
+        <v>0.7425896995261158</v>
+      </c>
+      <c r="J92">
+        <v>0.6685987029627136</v>
+      </c>
+      <c r="K92" t="s">
+        <v>701</v>
+      </c>
+      <c r="L92" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D93">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>462</v>
+      </c>
+      <c r="F93" t="s">
+        <v>582</v>
+      </c>
+      <c r="G93">
+        <v>0.8793103448275862</v>
+      </c>
+      <c r="H93">
+        <v>0.7109658678286129</v>
+      </c>
+      <c r="I93">
+        <v>0.7363243977777123</v>
+      </c>
+      <c r="J93">
+        <v>0.7218563884186192</v>
+      </c>
+      <c r="K93" t="s">
+        <v>702</v>
+      </c>
+      <c r="L93" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>223</v>
+      </c>
+      <c r="C94" t="s">
+        <v>343</v>
+      </c>
+      <c r="D94">
+        <v>30</v>
+      </c>
+      <c r="E94" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" t="s">
+        <v>583</v>
+      </c>
+      <c r="G94">
+        <v>0.7984084880636605</v>
+      </c>
+      <c r="H94">
+        <v>0.6691315453384418</v>
+      </c>
+      <c r="I94">
+        <v>0.6646500815040141</v>
+      </c>
+      <c r="J94">
+        <v>0.6667023286181798</v>
+      </c>
+      <c r="K94" t="s">
+        <v>703</v>
+      </c>
+      <c r="L94" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95">
+        <v>24</v>
+      </c>
+      <c r="E95" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" t="s">
+        <v>584</v>
+      </c>
+      <c r="G95">
+        <v>0.8929384965831435</v>
+      </c>
+      <c r="H95">
+        <v>0.5939476061427281</v>
+      </c>
+      <c r="I95">
+        <v>0.6405677655677655</v>
+      </c>
+      <c r="J95">
+        <v>0.6120286018984717</v>
+      </c>
+      <c r="K95" t="s">
+        <v>704</v>
+      </c>
+      <c r="L95" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>345</v>
+      </c>
+      <c r="D96">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>465</v>
+      </c>
+      <c r="F96" t="s">
+        <v>585</v>
+      </c>
+      <c r="G96">
+        <v>0.7760084925690022</v>
+      </c>
+      <c r="H96">
+        <v>0.6858370686566856</v>
+      </c>
+      <c r="I96">
+        <v>0.6993014505704861</v>
+      </c>
+      <c r="J96">
+        <v>0.6863401599401763</v>
+      </c>
+      <c r="K96" t="s">
+        <v>705</v>
+      </c>
+      <c r="L96" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+      <c r="C97" t="s">
+        <v>346</v>
+      </c>
+      <c r="D97">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>466</v>
+      </c>
+      <c r="F97" t="s">
+        <v>586</v>
+      </c>
+      <c r="G97">
+        <v>0.6525679758308157</v>
+      </c>
+      <c r="H97">
+        <v>0.5151327925717363</v>
+      </c>
+      <c r="I97">
+        <v>0.5775681943934335</v>
+      </c>
+      <c r="J97">
+        <v>0.4947576971981816</v>
+      </c>
+      <c r="K97" t="s">
+        <v>706</v>
+      </c>
+      <c r="L97" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" t="s">
+        <v>347</v>
+      </c>
+      <c r="D98">
+        <v>21</v>
+      </c>
+      <c r="E98" t="s">
+        <v>467</v>
+      </c>
+      <c r="F98" t="s">
+        <v>587</v>
+      </c>
+      <c r="G98">
+        <v>0.8436363636363636</v>
+      </c>
+      <c r="H98">
+        <v>0.6510677936029162</v>
+      </c>
+      <c r="I98">
+        <v>0.7177640679733092</v>
+      </c>
+      <c r="J98">
+        <v>0.6678320839255955</v>
+      </c>
+      <c r="K98" t="s">
+        <v>707</v>
+      </c>
+      <c r="L98" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>348</v>
+      </c>
+      <c r="D99">
+        <v>35</v>
+      </c>
+      <c r="E99" t="s">
+        <v>468</v>
+      </c>
+      <c r="F99" t="s">
+        <v>588</v>
+      </c>
+      <c r="G99">
+        <v>0.7614678899082569</v>
+      </c>
+      <c r="H99">
+        <v>0.6709196393479168</v>
+      </c>
+      <c r="I99">
+        <v>0.7391649224226718</v>
+      </c>
+      <c r="J99">
+        <v>0.6525994589095097</v>
+      </c>
+      <c r="K99" t="s">
+        <v>708</v>
+      </c>
+      <c r="L99" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" t="s">
+        <v>349</v>
+      </c>
+      <c r="D100">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>469</v>
+      </c>
+      <c r="F100" t="s">
+        <v>589</v>
+      </c>
+      <c r="G100">
+        <v>0.7439613526570048</v>
+      </c>
+      <c r="H100">
+        <v>0.6569427076304859</v>
+      </c>
+      <c r="I100">
+        <v>0.6325627714108467</v>
+      </c>
+      <c r="J100">
+        <v>0.5959355362730212</v>
+      </c>
+      <c r="K100" t="s">
+        <v>709</v>
+      </c>
+      <c r="L100" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+      <c r="C101" t="s">
+        <v>350</v>
+      </c>
+      <c r="D101">
+        <v>25</v>
+      </c>
+      <c r="E101" t="s">
+        <v>470</v>
+      </c>
+      <c r="F101" t="s">
+        <v>590</v>
+      </c>
+      <c r="G101">
+        <v>0.9096126255380201</v>
+      </c>
+      <c r="H101">
+        <v>0.7059185986841601</v>
+      </c>
+      <c r="I101">
+        <v>0.6873554185657987</v>
+      </c>
+      <c r="J101">
+        <v>0.6943673320856728</v>
+      </c>
+      <c r="K101" t="s">
+        <v>710</v>
+      </c>
+      <c r="L101" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102">
+        <v>28</v>
+      </c>
+      <c r="E102" t="s">
+        <v>471</v>
+      </c>
+      <c r="F102" t="s">
+        <v>591</v>
+      </c>
+      <c r="G102">
+        <v>0.8125</v>
+      </c>
+      <c r="H102">
+        <v>0.6529920184360055</v>
+      </c>
+      <c r="I102">
+        <v>0.6420787545787545</v>
+      </c>
+      <c r="J102">
+        <v>0.6413966161459325</v>
+      </c>
+      <c r="K102" t="s">
+        <v>711</v>
+      </c>
+      <c r="L102" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103">
+        <v>21</v>
+      </c>
+      <c r="E103" t="s">
+        <v>472</v>
+      </c>
+      <c r="F103" t="s">
+        <v>592</v>
+      </c>
+      <c r="G103">
+        <v>0.7359550561797753</v>
+      </c>
+      <c r="H103">
+        <v>0.6196704637551461</v>
+      </c>
+      <c r="I103">
+        <v>0.6166626684135957</v>
+      </c>
+      <c r="J103">
+        <v>0.6168617891761367</v>
+      </c>
+      <c r="K103" t="s">
+        <v>712</v>
+      </c>
+      <c r="L103" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+      <c r="C104" t="s">
+        <v>353</v>
+      </c>
+      <c r="D104">
+        <v>33</v>
+      </c>
+      <c r="E104" t="s">
+        <v>473</v>
+      </c>
+      <c r="F104" t="s">
+        <v>593</v>
+      </c>
+      <c r="G104">
+        <v>0.7761904761904762</v>
+      </c>
+      <c r="H104">
+        <v>0.6601212018437609</v>
+      </c>
+      <c r="I104">
+        <v>0.7196929065334808</v>
+      </c>
+      <c r="J104">
+        <v>0.620963650392497</v>
+      </c>
+      <c r="K104" t="s">
+        <v>713</v>
+      </c>
+      <c r="L104" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" t="s">
+        <v>354</v>
+      </c>
+      <c r="D105">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G105">
+        <v>0.759515570934256</v>
+      </c>
+      <c r="H105">
+        <v>0.5665216523091117</v>
+      </c>
+      <c r="I105">
+        <v>0.6289774668837564</v>
+      </c>
+      <c r="J105">
+        <v>0.5745173825949151</v>
+      </c>
+      <c r="K105" t="s">
+        <v>714</v>
+      </c>
+      <c r="L105" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C106" t="s">
+        <v>355</v>
+      </c>
+      <c r="D106">
+        <v>49</v>
+      </c>
+      <c r="E106" t="s">
+        <v>475</v>
+      </c>
+      <c r="F106" t="s">
+        <v>595</v>
+      </c>
+      <c r="G106">
+        <v>0.9277929155313351</v>
+      </c>
+      <c r="H106">
+        <v>0.6674113565202674</v>
+      </c>
+      <c r="I106">
+        <v>0.6733393382022493</v>
+      </c>
+      <c r="J106">
+        <v>0.6675405634681989</v>
+      </c>
+      <c r="K106" t="s">
+        <v>715</v>
+      </c>
+      <c r="L106" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+      <c r="C107" t="s">
+        <v>356</v>
+      </c>
+      <c r="D107">
+        <v>25</v>
+      </c>
+      <c r="E107" t="s">
+        <v>476</v>
+      </c>
+      <c r="F107" t="s">
+        <v>596</v>
+      </c>
+      <c r="G107">
+        <v>0.8431635388739946</v>
+      </c>
+      <c r="H107">
+        <v>0.6843286580855641</v>
+      </c>
+      <c r="I107">
+        <v>0.7180966352586976</v>
+      </c>
+      <c r="J107">
+        <v>0.6963790313644859</v>
+      </c>
+      <c r="K107" t="s">
+        <v>716</v>
+      </c>
+      <c r="L107" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" t="s">
+        <v>357</v>
+      </c>
+      <c r="D108">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>477</v>
+      </c>
+      <c r="F108" t="s">
+        <v>597</v>
+      </c>
+      <c r="G108">
+        <v>0.7985074626865671</v>
+      </c>
+      <c r="H108">
+        <v>0.5990414347557205</v>
+      </c>
+      <c r="I108">
+        <v>0.6356011962901484</v>
+      </c>
+      <c r="J108">
+        <v>0.5874014175900969</v>
+      </c>
+      <c r="K108" t="s">
+        <v>717</v>
+      </c>
+      <c r="L108" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+      <c r="C109" t="s">
+        <v>358</v>
+      </c>
+      <c r="D109">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
+        <v>478</v>
+      </c>
+      <c r="F109" t="s">
+        <v>598</v>
+      </c>
+      <c r="G109">
+        <v>0.8230593607305936</v>
+      </c>
+      <c r="H109">
+        <v>0.7003331550627876</v>
+      </c>
+      <c r="I109">
+        <v>0.7106226145787747</v>
+      </c>
+      <c r="J109">
+        <v>0.7050934678963516</v>
+      </c>
+      <c r="K109" t="s">
+        <v>718</v>
+      </c>
+      <c r="L109" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" t="s">
+        <v>359</v>
+      </c>
+      <c r="D110">
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>479</v>
+      </c>
+      <c r="F110" t="s">
+        <v>599</v>
+      </c>
+      <c r="G110">
+        <v>0.8879120879120879</v>
+      </c>
+      <c r="H110">
+        <v>0.722693713378284</v>
+      </c>
+      <c r="I110">
+        <v>0.8852951757217968</v>
+      </c>
+      <c r="J110">
+        <v>0.7632369051389523</v>
+      </c>
+      <c r="K110" t="s">
+        <v>719</v>
+      </c>
+      <c r="L110" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>360</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+      <c r="E111" t="s">
+        <v>480</v>
+      </c>
+      <c r="F111" t="s">
+        <v>600</v>
+      </c>
+      <c r="G111">
+        <v>0.7705382436260623</v>
+      </c>
+      <c r="H111">
+        <v>0.6625963519747065</v>
+      </c>
+      <c r="I111">
+        <v>0.6384977846774068</v>
+      </c>
+      <c r="J111">
+        <v>0.6255147703449591</v>
+      </c>
+      <c r="K111" t="s">
+        <v>720</v>
+      </c>
+      <c r="L111" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+      <c r="C112" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>481</v>
+      </c>
+      <c r="F112" t="s">
+        <v>601</v>
+      </c>
+      <c r="G112">
+        <v>0.7563600782778865</v>
+      </c>
+      <c r="H112">
+        <v>0.6560339346144163</v>
+      </c>
+      <c r="I112">
+        <v>0.6949419773602176</v>
+      </c>
+      <c r="J112">
+        <v>0.6625715958434348</v>
+      </c>
+      <c r="K112" t="s">
+        <v>721</v>
+      </c>
+      <c r="L112" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+      <c r="C113" t="s">
+        <v>362</v>
+      </c>
+      <c r="D113">
+        <v>32</v>
+      </c>
+      <c r="E113" t="s">
+        <v>482</v>
+      </c>
+      <c r="F113" t="s">
+        <v>602</v>
+      </c>
+      <c r="G113">
+        <v>0.7739018087855297</v>
+      </c>
+      <c r="H113">
+        <v>0.5630723674333608</v>
+      </c>
+      <c r="I113">
+        <v>0.594330410803406</v>
+      </c>
+      <c r="J113">
+        <v>0.543055979549428</v>
+      </c>
+      <c r="K113" t="s">
+        <v>722</v>
+      </c>
+      <c r="L113" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" t="s">
+        <v>363</v>
+      </c>
+      <c r="D114">
+        <v>18</v>
+      </c>
+      <c r="E114" t="s">
+        <v>483</v>
+      </c>
+      <c r="F114" t="s">
+        <v>603</v>
+      </c>
+      <c r="G114">
+        <v>0.8211508553654744</v>
+      </c>
+      <c r="H114">
+        <v>0.6513436574666657</v>
+      </c>
+      <c r="I114">
+        <v>0.7264261014261013</v>
+      </c>
+      <c r="J114">
+        <v>0.6784395331037122</v>
+      </c>
+      <c r="K114" t="s">
+        <v>723</v>
+      </c>
+      <c r="L114" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" t="s">
+        <v>364</v>
+      </c>
+      <c r="D115">
+        <v>20</v>
+      </c>
+      <c r="E115" t="s">
+        <v>484</v>
+      </c>
+      <c r="F115" t="s">
+        <v>604</v>
+      </c>
+      <c r="G115">
+        <v>0.8644793152639088</v>
+      </c>
+      <c r="H115">
+        <v>0.6624480591871896</v>
+      </c>
+      <c r="I115">
+        <v>0.6639690356158371</v>
+      </c>
+      <c r="J115">
+        <v>0.6584487866929689</v>
+      </c>
+      <c r="K115" t="s">
+        <v>724</v>
+      </c>
+      <c r="L115" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" t="s">
+        <v>365</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>485</v>
+      </c>
+      <c r="F116" t="s">
+        <v>605</v>
+      </c>
+      <c r="G116">
+        <v>0.7625754527162978</v>
+      </c>
+      <c r="H116">
+        <v>0.6807582726500107</v>
+      </c>
+      <c r="I116">
+        <v>0.7103009550838119</v>
+      </c>
+      <c r="J116">
+        <v>0.6576136415962358</v>
+      </c>
+      <c r="K116" t="s">
+        <v>725</v>
+      </c>
+      <c r="L116" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" t="s">
+        <v>366</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117" t="s">
+        <v>486</v>
+      </c>
+      <c r="F117" t="s">
+        <v>606</v>
+      </c>
+      <c r="G117">
+        <v>0.8857808857808858</v>
+      </c>
+      <c r="H117">
+        <v>0.7577757268112597</v>
+      </c>
+      <c r="I117">
+        <v>0.7588836913481463</v>
+      </c>
+      <c r="J117">
+        <v>0.7576116130882865</v>
+      </c>
+      <c r="K117" t="s">
+        <v>726</v>
+      </c>
+      <c r="L117" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+      <c r="C118" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118">
+        <v>22</v>
+      </c>
+      <c r="E118" t="s">
+        <v>487</v>
+      </c>
+      <c r="F118" t="s">
+        <v>607</v>
+      </c>
+      <c r="G118">
+        <v>0.7863741339491916</v>
+      </c>
+      <c r="H118">
+        <v>0.6567519788558739</v>
+      </c>
+      <c r="I118">
+        <v>0.7894518926815888</v>
+      </c>
+      <c r="J118">
+        <v>0.634203092086164</v>
+      </c>
+      <c r="K118" t="s">
+        <v>727</v>
+      </c>
+      <c r="L118" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+      <c r="C119" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119">
+        <v>21</v>
+      </c>
+      <c r="E119" t="s">
+        <v>488</v>
+      </c>
+      <c r="F119" t="s">
+        <v>608</v>
+      </c>
+      <c r="G119">
+        <v>0.8863636363636364</v>
+      </c>
+      <c r="H119">
+        <v>0.6602205344474458</v>
+      </c>
+      <c r="I119">
+        <v>0.7196613907931567</v>
+      </c>
+      <c r="J119">
+        <v>0.6840385667971874</v>
+      </c>
+      <c r="K119" t="s">
+        <v>728</v>
+      </c>
+      <c r="L119" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>489</v>
+      </c>
+      <c r="F120" t="s">
+        <v>609</v>
+      </c>
+      <c r="G120">
+        <v>0.8642241379310345</v>
+      </c>
+      <c r="H120">
+        <v>0.6897694380724845</v>
+      </c>
+      <c r="I120">
+        <v>0.7600206944033445</v>
+      </c>
+      <c r="J120">
+        <v>0.701607792180624</v>
+      </c>
+      <c r="K120" t="s">
+        <v>729</v>
+      </c>
+      <c r="L120" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="C121" t="s">
+        <v>370</v>
+      </c>
+      <c r="D121">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" t="s">
+        <v>610</v>
+      </c>
+      <c r="G121">
+        <v>0.8314606741573034</v>
+      </c>
+      <c r="H121">
+        <v>0.6432107214143142</v>
+      </c>
+      <c r="I121">
+        <v>0.6317024336420327</v>
+      </c>
+      <c r="J121">
+        <v>0.6312495330467088</v>
+      </c>
+      <c r="K121" t="s">
+        <v>730</v>
+      </c>
+      <c r="L121" t="s">
+        <v>850</v>
       </c>
     </row>
   </sheetData>
